--- a/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
+++ b/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSI\BACKUP_BSI_20220212\LARAS\OLSS\Operation\LARAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Primbon OLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8A2A6B-E27A-49A8-8FD7-F995E38DCA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF03467-2543-4F5D-A060-2F1A16FCE2CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="monitoring opl" sheetId="7" r:id="rId8"/>
     <sheet name="Monitoring Document Complement" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,6 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="218">
   <si>
     <t>"no object reference"</t>
   </si>
@@ -241,9 +240,6 @@
     <t xml:space="preserve">update tb_mgt_unitprepdtl set isdelete = 1 where idtb_mgt_unitprep = </t>
   </si>
   <si>
-    <t>kalau user minta dibuatkan disposal number, insert tb_dis_agreement</t>
-  </si>
-  <si>
     <t>IdTb_DIS_Buyers</t>
   </si>
   <si>
@@ -445,15 +441,6 @@
     <t>PJB AUTORENT</t>
   </si>
   <si>
-    <t>kalau user sudah buat memo asset sellingnya, insert tb_dis_buyers</t>
-  </si>
-  <si>
-    <t>*offerpriceamount = harga jual belum ppn</t>
-  </si>
-  <si>
-    <t>*jba &amp; dsf offer price = harga jual + ppn</t>
-  </si>
-  <si>
     <t>insert into tb_dis_disposal_history values</t>
   </si>
   <si>
@@ -650,9 +637,6 @@
   </si>
   <si>
     <t>-- di delete yang isdelete = 1, karena ada bugs disitu</t>
-  </si>
-  <si>
-    <t>10% dr offer price</t>
   </si>
   <si>
     <t>dari excel pak anton (Harga Jual)</t>
@@ -734,6 +718,276 @@
       <t xml:space="preserve"> yg akan diupdate pada screen tsb error</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% dr offer price</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kalau user sudah buat memo asset sellingnya, insert </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tb_DIS_Buyers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kalau user minta dibuatkan disposal number, insert </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tb_DIS_Agreement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OfferPriceAmount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = harga jual belum ppn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JBAOfferPriceAmount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DSFOfferPriceAmount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = harga jual + ppn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OfferPriceDate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; getdate()…???</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IdTb_DIS_AssetSelling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = select a.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IdTb_DIS_AssetSelling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tb_DIS_AssetSelling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a where a.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MemoNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = '00070/COP/06/2022'; (LIHAT FILE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Process.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -743,7 +997,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,8 +1026,30 @@
       <name val="Comic Sans MS"/>
       <family val="4"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,6 +1074,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -812,7 +1100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -827,11 +1115,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -839,6 +1132,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1432,7 +1730,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1443,25 +1741,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1806,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1520,7 +1818,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1529,58 +1827,58 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1600,52 +1898,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -1655,7 +1953,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -1665,27 +1963,27 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1737,7 +2035,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1751,7 +2049,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1760,12 +2058,12 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1774,7 +2072,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1787,37 +2085,49 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AI111"/>
+  <dimension ref="A1:AI116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD86"/>
+    <sheetView tabSelected="1" topLeftCell="K15" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:Y93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1827,109 +2137,109 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>90</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>91</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>92</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>93</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>94</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>95</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>96</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>97</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>98</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>99</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>100</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>101</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>102</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>103</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>104</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>105</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" t="s">
         <v>106</v>
       </c>
-      <c r="T4" t="s">
-        <v>71</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>107</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>108</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>109</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>110</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>111</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>112</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>113</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>114</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>115</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>116</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>117</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>118</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>119</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>120</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
@@ -1937,13 +2247,13 @@
         <v>2.02007271717E+16</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="7">
         <v>4120035637</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1988,43 +2298,43 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U5" s="5">
         <v>44039.720138888886</v>
       </c>
       <c r="V5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W5" s="5">
         <v>44039.720138888886</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -2038,11 +2348,11 @@
         <v>2.02111041012E+16</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2087,43 +2397,43 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U6" s="5">
         <v>44504.425000000003</v>
       </c>
       <c r="V6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W6" s="5">
         <v>44504.425000000003</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -2144,13 +2454,13 @@
         <v>2.02111290905E+16</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D8" s="7">
         <v>4120036566</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2195,43 +2505,43 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U8" s="5">
         <v>44529.378472222219</v>
       </c>
       <c r="V8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W8" s="5">
         <v>44529.378472222219</v>
       </c>
       <c r="X8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -2245,13 +2555,13 @@
         <v>2.02111290905E+16</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D9" s="7">
         <v>4120037786</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2296,43 +2606,43 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U9" s="5">
         <v>44529.378472222219</v>
       </c>
       <c r="V9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W9" s="5">
         <v>44529.378472222219</v>
       </c>
       <c r="X9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -2353,13 +2663,13 @@
         <v>2.02112061145484E+16</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D11" s="7">
         <v>4120034070</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F11">
         <v>36020846</v>
@@ -2404,70 +2714,70 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>85</v>
-      </c>
-      <c r="U11" s="18">
+        <v>84</v>
+      </c>
+      <c r="U11" s="17">
         <v>44536.490335648145</v>
       </c>
       <c r="V11" t="s">
-        <v>124</v>
-      </c>
-      <c r="W11" s="18">
+        <v>123</v>
+      </c>
+      <c r="W11" s="17">
         <v>44536.494656365743</v>
       </c>
       <c r="X11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
-      <c r="AI11" s="18">
+      <c r="AI11" s="17">
         <v>44530</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="D12" s="7"/>
-      <c r="U12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="AI12" s="18"/>
+      <c r="U12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="AI12" s="17"/>
     </row>
     <row r="13" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>2.02201060907484E+16</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D13" s="7">
         <v>4120035319</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2512,43 +2822,43 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U13" s="5">
         <v>44567.379861111112</v>
       </c>
       <c r="V13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W13" s="5">
         <v>44567.379861111112</v>
       </c>
       <c r="X13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
       <c r="AD13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -2562,13 +2872,13 @@
         <v>2.02201060907484E+16</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D14" s="7">
         <v>4120035411</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2613,43 +2923,43 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U14" s="5">
         <v>44567.379861111112</v>
       </c>
       <c r="V14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W14" s="5">
         <v>44567.379861111112</v>
       </c>
       <c r="X14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -2663,13 +2973,13 @@
         <v>2.02201060951504E+16</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D15" s="7">
         <v>4120034067</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2714,43 +3024,43 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U15" s="5">
         <v>44567.410416666666</v>
       </c>
       <c r="V15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W15" s="5">
         <v>44567.410416666666</v>
       </c>
       <c r="X15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC15">
         <v>0</v>
       </c>
       <c r="AD15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -2762,330 +3072,544 @@
     <row r="16" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="D16" s="7"/>
-      <c r="U16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="AI16" s="18"/>
-    </row>
-    <row r="17" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="U17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="AI17" s="18"/>
-    </row>
-    <row r="18" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="U18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="AI18" s="5"/>
-    </row>
-    <row r="19" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="U19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="AI19" s="5"/>
-    </row>
-    <row r="20" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="U20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="AI20" s="5"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="U16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="AI16" s="17"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="C21" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="D21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I21" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="J21" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="K21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M21" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="M26" s="14" t="s">
+      <c r="N21" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15">
+    </row>
+    <row r="22" spans="1:25" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="14">
         <v>8146</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C22" s="14">
         <v>902</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D22" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="G22" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="15">
+        <v>813445970452000</v>
+      </c>
+      <c r="I22" s="15">
+        <v>138648000</v>
+      </c>
+      <c r="J22" s="16">
+        <v>44496.595138888886</v>
+      </c>
+      <c r="K22" s="14">
+        <v>1</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" s="15">
+        <f>I22*1.1</f>
+        <v>152512800</v>
+      </c>
+      <c r="N22" s="15">
+        <f>I22*1.1</f>
+        <v>152512800</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0</v>
+      </c>
+      <c r="P22" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>0</v>
+      </c>
+      <c r="R22" s="14">
+        <v>0</v>
+      </c>
+      <c r="S22" s="14">
+        <v>0</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U22" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="V22" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="W22" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X22" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="14">
+        <v>8147</v>
+      </c>
+      <c r="C23" s="14">
+        <v>903</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="16">
+      <c r="F23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="15">
         <v>813445970452000</v>
       </c>
-      <c r="I27" s="16">
-        <v>138648000</v>
-      </c>
-      <c r="J27" s="17">
+      <c r="I23" s="15">
+        <v>72899000</v>
+      </c>
+      <c r="J23" s="16">
         <v>44496.595138888886</v>
       </c>
-      <c r="K27" s="15">
-        <v>1</v>
-      </c>
-      <c r="L27" s="15" t="s">
+      <c r="K23" s="14">
+        <v>1</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="15">
+        <f>I23*1.1</f>
+        <v>80188900</v>
+      </c>
+      <c r="N23" s="15">
+        <f>I23*1.1</f>
+        <v>80188900</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0</v>
+      </c>
+      <c r="P23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>0</v>
+      </c>
+      <c r="R23" s="14">
+        <v>0</v>
+      </c>
+      <c r="S23" s="14">
+        <v>0</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U23" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="W23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>8225</v>
+      </c>
+      <c r="C25">
+        <v>931</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
         <v>85</v>
       </c>
-      <c r="M27" s="16">
-        <f>I27*1.1</f>
-        <v>152512800</v>
-      </c>
-      <c r="N27" s="16">
-        <f>I27*1.1</f>
-        <v>152512800</v>
-      </c>
-      <c r="O27" s="15">
-        <v>0</v>
-      </c>
-      <c r="P27" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="15">
-        <v>0</v>
-      </c>
-      <c r="R27" s="15">
-        <v>0</v>
-      </c>
-      <c r="S27" s="15">
-        <v>0</v>
-      </c>
-      <c r="T27" s="15" t="s">
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I25" s="4">
+        <v>47526000</v>
+      </c>
+      <c r="J25" s="5">
+        <v>44529.378472222219</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" ref="M25" si="0">I25*1.1</f>
+        <v>52278600.000000007</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" ref="N25" si="1">I25*1.1</f>
+        <v>52278600.000000007</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>84</v>
+      </c>
+      <c r="U25" t="s">
+        <v>87</v>
+      </c>
+      <c r="V25" t="s">
+        <v>84</v>
+      </c>
+      <c r="W25" t="s">
+        <v>84</v>
+      </c>
+      <c r="X25" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>8226</v>
+      </c>
+      <c r="C27">
+        <v>932</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
         <v>85</v>
       </c>
-      <c r="U27" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="V27" s="15" t="s">
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I27" s="4">
+        <v>43687000</v>
+      </c>
+      <c r="J27" s="5">
+        <v>44529.378472222219</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>84</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" ref="M27:M28" si="2">I27*1.1</f>
+        <v>48055700.000000007</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" ref="N27:N28" si="3">I27*1.1</f>
+        <v>48055700.000000007</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>84</v>
+      </c>
+      <c r="U27" t="s">
+        <v>87</v>
+      </c>
+      <c r="V27" t="s">
+        <v>84</v>
+      </c>
+      <c r="W27" t="s">
+        <v>84</v>
+      </c>
+      <c r="X27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>8227</v>
+      </c>
+      <c r="C28">
+        <v>932</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
         <v>85</v>
       </c>
-      <c r="W27" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="X27" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y27" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15">
-        <v>8147</v>
-      </c>
-      <c r="C28" s="15">
-        <v>903</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="F28" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="G28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I28" s="4">
+        <v>48418000</v>
+      </c>
+      <c r="J28" s="5">
+        <v>44529.378472222219</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="2"/>
+        <v>53259800.000000007</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="3"/>
+        <v>53259800.000000007</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
+        <v>84</v>
+      </c>
+      <c r="U28" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="16">
-        <v>813445970452000</v>
-      </c>
-      <c r="I28" s="16">
-        <v>72899000</v>
-      </c>
-      <c r="J28" s="17">
-        <v>44496.595138888886</v>
-      </c>
-      <c r="K28" s="15">
-        <v>1</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="M28" s="16">
-        <f>I28*1.1</f>
-        <v>80188900</v>
-      </c>
-      <c r="N28" s="16">
-        <f>I28*1.1</f>
-        <v>80188900</v>
-      </c>
-      <c r="O28" s="15">
-        <v>0</v>
-      </c>
-      <c r="P28" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="15">
-        <v>0</v>
-      </c>
-      <c r="R28" s="15">
-        <v>0</v>
-      </c>
-      <c r="S28" s="15">
-        <v>0</v>
-      </c>
-      <c r="T28" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="U28" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="V28" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="W28" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="X28" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y28" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+      <c r="V28" t="s">
+        <v>84</v>
+      </c>
+      <c r="W28" t="s">
+        <v>84</v>
+      </c>
+      <c r="X28" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="5"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>8225</v>
+        <v>8232</v>
       </c>
       <c r="C30">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
         <v>85</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>86</v>
       </c>
-      <c r="F30" t="s">
-        <v>87</v>
-      </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I30" s="4">
-        <v>47526000</v>
+        <v>77014000</v>
       </c>
       <c r="J30" s="5">
-        <v>44529.378472222219</v>
+        <v>44537.375694444447</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" ref="M30" si="0">I30*1.1</f>
-        <v>52278600.000000007</v>
+        <f t="shared" ref="M30" si="4">I30*1.1</f>
+        <v>84715400</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" ref="N30" si="1">I30*1.1</f>
-        <v>52278600.000000007</v>
+        <f t="shared" ref="N30" si="5">I30*1.1</f>
+        <v>84715400</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -3103,72 +3627,72 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="5"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>8226</v>
+        <v>8231</v>
       </c>
       <c r="C32">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
         <v>85</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>86</v>
       </c>
-      <c r="F32" t="s">
-        <v>87</v>
-      </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I32" s="4">
-        <v>43687000</v>
+        <v>47000000</v>
       </c>
       <c r="J32" s="5">
-        <v>44529.378472222219</v>
+        <v>44537.375694444447</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" ref="M32:M33" si="2">I32*1.1</f>
-        <v>48055700.000000007</v>
+        <f t="shared" ref="M32:M35" si="6">I32*1.1</f>
+        <v>51700000.000000007</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" ref="N32:N33" si="3">I32*1.1</f>
-        <v>48055700.000000007</v>
+        <f t="shared" ref="N32:N35" si="7">I32*1.1</f>
+        <v>51700000.000000007</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -3186,19 +3710,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y32">
         <v>1</v>
@@ -3206,111 +3730,180 @@
     </row>
     <row r="33" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>8227</v>
+        <v>8233</v>
       </c>
       <c r="C33">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
         <v>85</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>86</v>
       </c>
-      <c r="F33" t="s">
-        <v>87</v>
-      </c>
       <c r="G33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H33" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I33" s="4">
-        <v>48418000</v>
+        <v>47000000</v>
       </c>
       <c r="J33" s="5">
-        <v>44529.378472222219</v>
+        <v>44537.375694444447</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="6"/>
+        <v>51700000.000000007</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="7"/>
+        <v>51700000.000000007</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>84</v>
+      </c>
+      <c r="U33" t="s">
+        <v>87</v>
+      </c>
+      <c r="V33" t="s">
+        <v>84</v>
+      </c>
+      <c r="W33" t="s">
+        <v>84</v>
+      </c>
+      <c r="X33" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>8234</v>
+      </c>
+      <c r="C34">
+        <v>935</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" t="s">
         <v>85</v>
       </c>
-      <c r="M33" s="4">
-        <f t="shared" si="2"/>
-        <v>53259800.000000007</v>
-      </c>
-      <c r="N33" s="4">
-        <f t="shared" si="3"/>
-        <v>53259800.000000007</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33" t="s">
-        <v>85</v>
-      </c>
-      <c r="U33" t="s">
-        <v>88</v>
-      </c>
-      <c r="V33" t="s">
-        <v>85</v>
-      </c>
-      <c r="W33" t="s">
-        <v>85</v>
-      </c>
-      <c r="X33" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="5"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I34" s="4">
+        <v>47000000</v>
+      </c>
+      <c r="J34" s="5">
+        <v>44537.375694444447</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="6"/>
+        <v>51700000.000000007</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="7"/>
+        <v>51700000.000000007</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>84</v>
+      </c>
+      <c r="U34" t="s">
+        <v>87</v>
+      </c>
+      <c r="V34" t="s">
+        <v>84</v>
+      </c>
+      <c r="W34" t="s">
+        <v>84</v>
+      </c>
+      <c r="X34" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>8232</v>
+        <v>8238</v>
       </c>
       <c r="C35">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" t="s">
         <v>85</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>86</v>
       </c>
-      <c r="F35" t="s">
-        <v>87</v>
-      </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H35" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I35" s="4">
-        <v>77014000</v>
+        <v>47000000</v>
       </c>
       <c r="J35" s="5">
         <v>44537.375694444447</v>
@@ -3319,15 +3912,15 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M35" s="4">
-        <f t="shared" ref="M35" si="4">I35*1.1</f>
-        <v>84715400</v>
+        <f t="shared" si="6"/>
+        <v>51700000.000000007</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" ref="N35" si="5">I35*1.1</f>
-        <v>84715400</v>
+        <f t="shared" si="7"/>
+        <v>51700000.000000007</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -3345,19 +3938,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y35">
         <v>1</v>
@@ -3372,45 +3965,45 @@
     </row>
     <row r="37" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>8231</v>
+        <v>8250</v>
       </c>
       <c r="C37">
-        <v>935</v>
+        <v>945</v>
       </c>
       <c r="D37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" t="s">
         <v>85</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>86</v>
       </c>
-      <c r="F37" t="s">
-        <v>87</v>
-      </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H37" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I37" s="4">
-        <v>47000000</v>
+        <v>66818000</v>
       </c>
       <c r="J37" s="5">
-        <v>44537.375694444447</v>
+        <v>44543.326388888891</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M37" s="4">
-        <f t="shared" ref="M37:M40" si="6">I37*1.1</f>
-        <v>51700000.000000007</v>
+        <f t="shared" ref="M37:M38" si="8">I37*1.1</f>
+        <v>73499800</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" ref="N37:N40" si="7">I37*1.1</f>
-        <v>51700000.000000007</v>
+        <f t="shared" ref="N37:N38" si="9">I37*1.1</f>
+        <v>73499800</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -3428,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y37">
         <v>1</v>
@@ -3448,280 +4041,211 @@
     </row>
     <row r="38" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>8233</v>
+        <v>8251</v>
       </c>
       <c r="C38">
-        <v>935</v>
+        <v>946</v>
       </c>
       <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
         <v>85</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>86</v>
       </c>
-      <c r="F38" t="s">
-        <v>87</v>
-      </c>
       <c r="G38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H38" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I38" s="4">
-        <v>47000000</v>
+        <v>87000000</v>
       </c>
       <c r="J38" s="5">
-        <v>44537.375694444447</v>
+        <v>44543.326388888891</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38" t="s">
+        <v>84</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="8"/>
+        <v>95700000.000000015</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="9"/>
+        <v>95700000.000000015</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38" t="s">
+        <v>84</v>
+      </c>
+      <c r="U38" t="s">
+        <v>87</v>
+      </c>
+      <c r="V38" t="s">
+        <v>84</v>
+      </c>
+      <c r="W38" t="s">
+        <v>84</v>
+      </c>
+      <c r="X38" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>8263</v>
+      </c>
+      <c r="C41">
+        <v>959</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
         <v>85</v>
       </c>
-      <c r="M38" s="4">
-        <f t="shared" si="6"/>
-        <v>51700000.000000007</v>
-      </c>
-      <c r="N38" s="4">
-        <f t="shared" si="7"/>
-        <v>51700000.000000007</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38" t="s">
-        <v>85</v>
-      </c>
-      <c r="U38" t="s">
-        <v>88</v>
-      </c>
-      <c r="V38" t="s">
-        <v>85</v>
-      </c>
-      <c r="W38" t="s">
-        <v>85</v>
-      </c>
-      <c r="X38" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>8234</v>
-      </c>
-      <c r="C39">
-        <v>935</v>
-      </c>
-      <c r="D39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F41" t="s">
         <v>86</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I41" s="4">
+        <v>137502000</v>
+      </c>
+      <c r="J41" s="5">
+        <v>44550.377083333333</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>84</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" ref="M41:M48" si="10">I41*1.1</f>
+        <v>151252200</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" ref="N41:N48" si="11">I41*1.1</f>
+        <v>151252200</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41" t="s">
+        <v>84</v>
+      </c>
+      <c r="U41" t="s">
         <v>87</v>
       </c>
-      <c r="G39" t="s">
-        <v>85</v>
-      </c>
-      <c r="H39" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I39" s="4">
-        <v>47000000</v>
-      </c>
-      <c r="J39" s="5">
-        <v>44537.375694444447</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" t="s">
-        <v>85</v>
-      </c>
-      <c r="M39" s="4">
-        <f t="shared" si="6"/>
-        <v>51700000.000000007</v>
-      </c>
-      <c r="N39" s="4">
-        <f t="shared" si="7"/>
-        <v>51700000.000000007</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39" t="s">
-        <v>85</v>
-      </c>
-      <c r="U39" t="s">
-        <v>88</v>
-      </c>
-      <c r="V39" t="s">
-        <v>85</v>
-      </c>
-      <c r="W39" t="s">
-        <v>85</v>
-      </c>
-      <c r="X39" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>8238</v>
-      </c>
-      <c r="C40">
-        <v>935</v>
-      </c>
-      <c r="D40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H40" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I40" s="4">
-        <v>47000000</v>
-      </c>
-      <c r="J40" s="5">
-        <v>44537.375694444447</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40" t="s">
-        <v>85</v>
-      </c>
-      <c r="M40" s="4">
-        <f t="shared" si="6"/>
-        <v>51700000.000000007</v>
-      </c>
-      <c r="N40" s="4">
-        <f t="shared" si="7"/>
-        <v>51700000.000000007</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40" t="s">
-        <v>85</v>
-      </c>
-      <c r="U40" t="s">
-        <v>88</v>
-      </c>
-      <c r="V40" t="s">
-        <v>85</v>
-      </c>
-      <c r="W40" t="s">
-        <v>85</v>
-      </c>
-      <c r="X40" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="5"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
+      <c r="V41" t="s">
+        <v>84</v>
+      </c>
+      <c r="W41" t="s">
+        <v>84</v>
+      </c>
+      <c r="X41" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>8250</v>
+        <v>8264</v>
       </c>
       <c r="C42">
-        <v>945</v>
+        <v>959</v>
       </c>
       <c r="D42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" t="s">
         <v>85</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>86</v>
       </c>
-      <c r="F42" t="s">
-        <v>87</v>
-      </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H42" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I42" s="4">
-        <v>66818000</v>
+        <v>78924000</v>
       </c>
       <c r="J42" s="5">
-        <v>44543.326388888891</v>
+        <v>44550.377083333333</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M42" s="4">
-        <f t="shared" ref="M42:M43" si="8">I42*1.1</f>
-        <v>73499800</v>
+        <f t="shared" si="10"/>
+        <v>86816400</v>
       </c>
       <c r="N42" s="4">
-        <f t="shared" ref="N42:N43" si="9">I42*1.1</f>
-        <v>73499800</v>
+        <f t="shared" si="11"/>
+        <v>86816400</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -3739,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y42">
         <v>1</v>
@@ -3759,118 +4283,256 @@
     </row>
     <row r="43" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>8251</v>
+        <v>8267</v>
       </c>
       <c r="C43">
-        <v>946</v>
+        <v>960</v>
       </c>
       <c r="D43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" t="s">
         <v>85</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>86</v>
       </c>
-      <c r="F43" t="s">
-        <v>87</v>
-      </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H43" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I43" s="4">
-        <v>87000000</v>
+        <v>229663000</v>
       </c>
       <c r="J43" s="5">
-        <v>44543.326388888891</v>
+        <v>44550.377083333333</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" t="s">
+        <v>84</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="10"/>
+        <v>252629300.00000003</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" si="11"/>
+        <v>252629300.00000003</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43" t="s">
+        <v>84</v>
+      </c>
+      <c r="U43" t="s">
+        <v>87</v>
+      </c>
+      <c r="V43" t="s">
+        <v>84</v>
+      </c>
+      <c r="W43" t="s">
+        <v>84</v>
+      </c>
+      <c r="X43" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>8268</v>
+      </c>
+      <c r="C44">
+        <v>960</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" t="s">
         <v>85</v>
       </c>
-      <c r="M43" s="4">
-        <f t="shared" si="8"/>
-        <v>95700000.000000015</v>
-      </c>
-      <c r="N43" s="4">
-        <f t="shared" si="9"/>
-        <v>95700000.000000015</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43" t="s">
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I44" s="4">
+        <v>89121000</v>
+      </c>
+      <c r="J44" s="5">
+        <v>44550.377083333333</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>84</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" si="10"/>
+        <v>98033100.000000015</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" si="11"/>
+        <v>98033100.000000015</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44" t="s">
+        <v>84</v>
+      </c>
+      <c r="U44" t="s">
+        <v>87</v>
+      </c>
+      <c r="V44" t="s">
+        <v>84</v>
+      </c>
+      <c r="W44" t="s">
+        <v>84</v>
+      </c>
+      <c r="X44" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>8269</v>
+      </c>
+      <c r="C45">
+        <v>960</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" t="s">
         <v>85</v>
       </c>
-      <c r="U43" t="s">
-        <v>88</v>
-      </c>
-      <c r="V43" t="s">
-        <v>85</v>
-      </c>
-      <c r="W43" t="s">
-        <v>85</v>
-      </c>
-      <c r="X43" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="5"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="5"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="F45" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I45" s="4">
+        <v>77014000</v>
+      </c>
+      <c r="J45" s="5">
+        <v>44550.377083333333</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>84</v>
+      </c>
+      <c r="M45" s="4">
+        <f t="shared" si="10"/>
+        <v>84715400</v>
+      </c>
+      <c r="N45" s="4">
+        <f t="shared" si="11"/>
+        <v>84715400</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45" t="s">
+        <v>84</v>
+      </c>
+      <c r="U45" t="s">
+        <v>87</v>
+      </c>
+      <c r="V45" t="s">
+        <v>84</v>
+      </c>
+      <c r="W45" t="s">
+        <v>84</v>
+      </c>
+      <c r="X45" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>8263</v>
+        <v>8270</v>
       </c>
       <c r="C46">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
         <v>85</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>86</v>
       </c>
-      <c r="F46" t="s">
-        <v>87</v>
-      </c>
       <c r="G46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H46" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I46" s="4">
-        <v>137502000</v>
+        <v>61612000</v>
       </c>
       <c r="J46" s="5">
         <v>44550.377083333333</v>
@@ -3879,15 +4541,15 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M46" s="4">
-        <f t="shared" ref="M46:M53" si="10">I46*1.1</f>
-        <v>151252200</v>
+        <f t="shared" si="10"/>
+        <v>67773200</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" ref="N46:N53" si="11">I46*1.1</f>
-        <v>151252200</v>
+        <f t="shared" si="11"/>
+        <v>67773200</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -3905,19 +4567,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y46">
         <v>1</v>
@@ -3925,28 +4587,28 @@
     </row>
     <row r="47" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>8264</v>
+        <v>8265</v>
       </c>
       <c r="C47">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" t="s">
         <v>85</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>86</v>
       </c>
-      <c r="F47" t="s">
-        <v>87</v>
-      </c>
       <c r="G47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H47" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I47" s="4">
-        <v>78924000</v>
+        <v>47000000</v>
       </c>
       <c r="J47" s="5">
         <v>44550.377083333333</v>
@@ -3955,15 +4617,15 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M47" s="4">
         <f t="shared" si="10"/>
-        <v>86816400</v>
+        <v>51700000.000000007</v>
       </c>
       <c r="N47" s="4">
         <f t="shared" si="11"/>
-        <v>86816400</v>
+        <v>51700000.000000007</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -3981,19 +4643,19 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y47">
         <v>1</v>
@@ -4001,28 +4663,28 @@
     </row>
     <row r="48" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>8267</v>
+        <v>8266</v>
       </c>
       <c r="C48">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" t="s">
         <v>85</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>86</v>
       </c>
-      <c r="F48" t="s">
-        <v>87</v>
-      </c>
       <c r="G48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H48" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I48" s="4">
-        <v>229663000</v>
+        <v>49342000</v>
       </c>
       <c r="J48" s="5">
         <v>44550.377083333333</v>
@@ -4031,15 +4693,15 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M48" s="4">
         <f t="shared" si="10"/>
-        <v>252629300.00000003</v>
+        <v>54276200.000000007</v>
       </c>
       <c r="N48" s="4">
         <f t="shared" si="11"/>
-        <v>252629300.00000003</v>
+        <v>54276200.000000007</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -4057,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y48">
         <v>1</v>
@@ -4077,28 +4739,28 @@
     </row>
     <row r="49" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>8268</v>
+        <v>8271</v>
       </c>
       <c r="C49">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" t="s">
         <v>85</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>86</v>
       </c>
-      <c r="F49" t="s">
-        <v>87</v>
-      </c>
       <c r="G49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H49" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I49" s="4">
-        <v>89121000</v>
+        <v>44000000</v>
       </c>
       <c r="J49" s="5">
         <v>44550.377083333333</v>
@@ -4107,15 +4769,15 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M49" s="4">
-        <f t="shared" si="10"/>
-        <v>98033100.000000015</v>
+        <f t="shared" ref="M49" si="12">I49*1.1</f>
+        <v>48400000.000000007</v>
       </c>
       <c r="N49" s="4">
-        <f t="shared" si="11"/>
-        <v>98033100.000000015</v>
+        <f t="shared" ref="N49" si="13">I49*1.1</f>
+        <v>48400000.000000007</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -4133,141 +4795,66 @@
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>8269</v>
-      </c>
-      <c r="C50">
-        <v>960</v>
-      </c>
-      <c r="D50" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" t="s">
-        <v>86</v>
-      </c>
-      <c r="F50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G50" t="s">
-        <v>85</v>
-      </c>
-      <c r="H50" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I50" s="4">
-        <v>77014000</v>
-      </c>
-      <c r="J50" s="5">
-        <v>44550.377083333333</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" t="s">
-        <v>85</v>
-      </c>
-      <c r="M50" s="4">
-        <f t="shared" si="10"/>
-        <v>84715400</v>
-      </c>
-      <c r="N50" s="4">
-        <f t="shared" si="11"/>
-        <v>84715400</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50" t="s">
-        <v>85</v>
-      </c>
-      <c r="U50" t="s">
-        <v>88</v>
-      </c>
-      <c r="V50" t="s">
-        <v>85</v>
-      </c>
-      <c r="W50" t="s">
-        <v>85</v>
-      </c>
-      <c r="X50" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y50">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="50" spans="2:25" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>8270</v>
+        <v>8383</v>
       </c>
       <c r="C51">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="D51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" t="s">
         <v>85</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>86</v>
       </c>
-      <c r="F51" t="s">
-        <v>87</v>
-      </c>
       <c r="G51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H51" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I51" s="4">
-        <v>61612000</v>
+        <v>77014000</v>
       </c>
       <c r="J51" s="5">
-        <v>44550.377083333333</v>
+        <v>44558.439583333333</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M51" s="4">
-        <f t="shared" si="10"/>
-        <v>67773200</v>
+        <f t="shared" ref="M51:M52" si="14">I51*1.1</f>
+        <v>84715400</v>
       </c>
       <c r="N51" s="4">
-        <f t="shared" si="11"/>
-        <v>67773200</v>
+        <f t="shared" ref="N51:N52" si="15">I51*1.1</f>
+        <v>84715400</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -4285,19 +4872,19 @@
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y51">
         <v>1</v>
@@ -4305,45 +4892,45 @@
     </row>
     <row r="52" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>8265</v>
+        <v>8384</v>
       </c>
       <c r="C52">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="D52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" t="s">
         <v>85</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>86</v>
       </c>
-      <c r="F52" t="s">
-        <v>87</v>
-      </c>
       <c r="G52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H52" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I52" s="4">
-        <v>47000000</v>
+        <v>63737000</v>
       </c>
       <c r="J52" s="5">
-        <v>44550.377083333333</v>
+        <v>44558.439583333333</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M52" s="4">
-        <f t="shared" si="10"/>
-        <v>51700000.000000007</v>
+        <f t="shared" si="14"/>
+        <v>70110700</v>
       </c>
       <c r="N52" s="4">
-        <f t="shared" si="11"/>
-        <v>51700000.000000007</v>
+        <f t="shared" si="15"/>
+        <v>70110700</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -4361,371 +4948,377 @@
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>8266</v>
-      </c>
-      <c r="C53">
-        <v>961</v>
-      </c>
-      <c r="D53" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" t="s">
-        <v>86</v>
-      </c>
-      <c r="F53" t="s">
-        <v>87</v>
-      </c>
-      <c r="G53" t="s">
-        <v>85</v>
-      </c>
-      <c r="H53" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I53" s="4">
-        <v>49342000</v>
-      </c>
-      <c r="J53" s="5">
-        <v>44550.377083333333</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53" t="s">
-        <v>85</v>
-      </c>
-      <c r="M53" s="4">
-        <f t="shared" si="10"/>
-        <v>54276200.000000007</v>
-      </c>
-      <c r="N53" s="4">
-        <f t="shared" si="11"/>
-        <v>54276200.000000007</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53" t="s">
-        <v>85</v>
-      </c>
-      <c r="U53" t="s">
-        <v>88</v>
-      </c>
-      <c r="V53" t="s">
-        <v>85</v>
-      </c>
-      <c r="W53" t="s">
-        <v>85</v>
-      </c>
-      <c r="X53" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y53">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="53" spans="2:25" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>8271</v>
+        <v>8387</v>
       </c>
       <c r="C54">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="D54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" t="s">
         <v>85</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>86</v>
       </c>
-      <c r="F54" t="s">
-        <v>87</v>
-      </c>
       <c r="G54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H54" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I54" s="4">
-        <v>44000000</v>
+        <v>99667000</v>
       </c>
       <c r="J54" s="5">
-        <v>44550.377083333333</v>
+        <v>44567.619444444441</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" t="s">
+        <v>84</v>
+      </c>
+      <c r="M54" s="4">
+        <f t="shared" ref="M54:M56" si="16">I54*1.1</f>
+        <v>109633700.00000001</v>
+      </c>
+      <c r="N54" s="4">
+        <f t="shared" ref="N54:N56" si="17">I54*1.1</f>
+        <v>109633700.00000001</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54" t="s">
+        <v>84</v>
+      </c>
+      <c r="U54" t="s">
+        <v>87</v>
+      </c>
+      <c r="V54" t="s">
+        <v>84</v>
+      </c>
+      <c r="W54" t="s">
+        <v>84</v>
+      </c>
+      <c r="X54" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>8388</v>
+      </c>
+      <c r="C55">
+        <v>970</v>
+      </c>
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" t="s">
         <v>85</v>
       </c>
-      <c r="M54" s="4">
-        <f t="shared" ref="M54" si="12">I54*1.1</f>
-        <v>48400000.000000007</v>
-      </c>
-      <c r="N54" s="4">
-        <f t="shared" ref="N54" si="13">I54*1.1</f>
-        <v>48400000.000000007</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54" t="s">
-        <v>85</v>
-      </c>
-      <c r="U54" t="s">
-        <v>88</v>
-      </c>
-      <c r="V54" t="s">
-        <v>85</v>
-      </c>
-      <c r="W54" t="s">
-        <v>85</v>
-      </c>
-      <c r="X54" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:25" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="F55" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I55" s="4">
+        <v>73295000</v>
+      </c>
+      <c r="J55" s="5">
+        <v>44567.619444444441</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>84</v>
+      </c>
+      <c r="M55" s="4">
+        <f t="shared" si="16"/>
+        <v>80624500</v>
+      </c>
+      <c r="N55" s="4">
+        <f t="shared" si="17"/>
+        <v>80624500</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55" t="s">
+        <v>84</v>
+      </c>
+      <c r="U55" t="s">
+        <v>87</v>
+      </c>
+      <c r="V55" t="s">
+        <v>84</v>
+      </c>
+      <c r="W55" t="s">
+        <v>84</v>
+      </c>
+      <c r="X55" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+    </row>
     <row r="56" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>8383</v>
+        <v>8389</v>
       </c>
       <c r="C56">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="D56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" t="s">
         <v>85</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>86</v>
       </c>
-      <c r="F56" t="s">
-        <v>87</v>
-      </c>
       <c r="G56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H56" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I56" s="4">
-        <v>77014000</v>
+        <v>47000000</v>
       </c>
       <c r="J56" s="5">
-        <v>44558.439583333333</v>
+        <v>44567.619444444441</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56" t="s">
+        <v>84</v>
+      </c>
+      <c r="M56" s="4">
+        <f t="shared" si="16"/>
+        <v>51700000.000000007</v>
+      </c>
+      <c r="N56" s="4">
+        <f t="shared" si="17"/>
+        <v>51700000.000000007</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56" t="s">
+        <v>84</v>
+      </c>
+      <c r="U56" t="s">
+        <v>87</v>
+      </c>
+      <c r="V56" t="s">
+        <v>84</v>
+      </c>
+      <c r="W56" t="s">
+        <v>84</v>
+      </c>
+      <c r="X56" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="5"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>8397</v>
+      </c>
+      <c r="C58">
+        <v>976</v>
+      </c>
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" t="s">
         <v>85</v>
       </c>
-      <c r="M56" s="4">
-        <f t="shared" ref="M56:M57" si="14">I56*1.1</f>
-        <v>84715400</v>
-      </c>
-      <c r="N56" s="4">
-        <f t="shared" ref="N56:N57" si="15">I56*1.1</f>
-        <v>84715400</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56" t="s">
-        <v>85</v>
-      </c>
-      <c r="U56" t="s">
-        <v>88</v>
-      </c>
-      <c r="V56" t="s">
-        <v>85</v>
-      </c>
-      <c r="W56" t="s">
-        <v>85</v>
-      </c>
-      <c r="X56" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>8384</v>
-      </c>
-      <c r="C57">
-        <v>968</v>
-      </c>
-      <c r="D57" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="F58" t="s">
         <v>86</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G58" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I58" s="4">
+        <v>83414000</v>
+      </c>
+      <c r="J58" s="5">
+        <v>44573.599999999999</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>84</v>
+      </c>
+      <c r="M58" s="4">
+        <f t="shared" ref="M58" si="18">I58*1.1</f>
+        <v>91755400</v>
+      </c>
+      <c r="N58" s="4">
+        <f t="shared" ref="N58" si="19">I58*1.1</f>
+        <v>91755400</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58" t="s">
+        <v>84</v>
+      </c>
+      <c r="U58" t="s">
         <v>87</v>
       </c>
-      <c r="G57" t="s">
-        <v>85</v>
-      </c>
-      <c r="H57" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I57" s="4">
-        <v>63737000</v>
-      </c>
-      <c r="J57" s="5">
-        <v>44558.439583333333</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57" t="s">
-        <v>85</v>
-      </c>
-      <c r="M57" s="4">
-        <f t="shared" si="14"/>
-        <v>70110700</v>
-      </c>
-      <c r="N57" s="4">
-        <f t="shared" si="15"/>
-        <v>70110700</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57" t="s">
-        <v>85</v>
-      </c>
-      <c r="U57" t="s">
-        <v>88</v>
-      </c>
-      <c r="V57" t="s">
-        <v>85</v>
-      </c>
-      <c r="W57" t="s">
-        <v>85</v>
-      </c>
-      <c r="X57" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:25" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="V58" t="s">
+        <v>84</v>
+      </c>
+      <c r="W58" t="s">
+        <v>84</v>
+      </c>
+      <c r="X58" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+    </row>
     <row r="59" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>8387</v>
+        <v>8394</v>
       </c>
       <c r="C59">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="D59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" t="s">
         <v>85</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>86</v>
       </c>
-      <c r="F59" t="s">
-        <v>87</v>
-      </c>
       <c r="G59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H59" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I59" s="4">
-        <v>99667000</v>
+        <v>49834000</v>
       </c>
       <c r="J59" s="5">
-        <v>44567.619444444441</v>
+        <v>44573.599999999999</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M59" s="4">
-        <f t="shared" ref="M59:M61" si="16">I59*1.1</f>
-        <v>109633700.00000001</v>
+        <f t="shared" ref="M59:M61" si="20">I59*1.1</f>
+        <v>54817400.000000007</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" ref="N59:N61" si="17">I59*1.1</f>
-        <v>109633700.00000001</v>
+        <f t="shared" ref="N59:N61" si="21">I59*1.1</f>
+        <v>54817400.000000007</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -4743,19 +5336,19 @@
         <v>0</v>
       </c>
       <c r="T59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y59">
         <v>1</v>
@@ -4763,45 +5356,45 @@
     </row>
     <row r="60" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>8388</v>
+        <v>8395</v>
       </c>
       <c r="C60">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="D60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" t="s">
         <v>85</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>86</v>
       </c>
-      <c r="F60" t="s">
-        <v>87</v>
-      </c>
       <c r="G60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H60" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I60" s="4">
-        <v>73295000</v>
+        <v>76349000</v>
       </c>
       <c r="J60" s="5">
-        <v>44567.619444444441</v>
+        <v>44573.599999999999</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M60" s="4">
-        <f t="shared" si="16"/>
-        <v>80624500</v>
+        <f t="shared" si="20"/>
+        <v>83983900</v>
       </c>
       <c r="N60" s="4">
-        <f t="shared" si="17"/>
-        <v>80624500</v>
+        <f t="shared" si="21"/>
+        <v>83983900</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -4819,19 +5412,19 @@
         <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y60">
         <v>1</v>
@@ -4839,45 +5432,45 @@
     </row>
     <row r="61" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>8389</v>
+        <v>8396</v>
       </c>
       <c r="C61">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="D61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" t="s">
         <v>85</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>86</v>
       </c>
-      <c r="F61" t="s">
-        <v>87</v>
-      </c>
       <c r="G61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H61" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I61" s="4">
-        <v>47000000</v>
+        <v>73295000</v>
       </c>
       <c r="J61" s="5">
-        <v>44567.619444444441</v>
+        <v>44573.599999999999</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M61" s="4">
-        <f t="shared" si="16"/>
-        <v>51700000.000000007</v>
+        <f t="shared" si="20"/>
+        <v>80624500</v>
       </c>
       <c r="N61" s="4">
-        <f t="shared" si="17"/>
-        <v>51700000.000000007</v>
+        <f t="shared" si="21"/>
+        <v>80624500</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -4895,19 +5488,19 @@
         <v>0</v>
       </c>
       <c r="T61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y61">
         <v>1</v>
@@ -4922,45 +5515,45 @@
     </row>
     <row r="63" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>8397</v>
+        <v>8405</v>
       </c>
       <c r="C63">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="D63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" t="s">
         <v>85</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>86</v>
       </c>
-      <c r="F63" t="s">
-        <v>87</v>
-      </c>
       <c r="G63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H63" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I63" s="4">
-        <v>83414000</v>
+        <v>140362000</v>
       </c>
       <c r="J63" s="5">
-        <v>44573.599999999999</v>
+        <v>44579.643750000003</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M63" s="4">
-        <f t="shared" ref="M63" si="18">I63*1.1</f>
-        <v>91755400</v>
+        <f t="shared" ref="M63:M66" si="22">I63*1.1</f>
+        <v>154398200</v>
       </c>
       <c r="N63" s="4">
-        <f t="shared" ref="N63" si="19">I63*1.1</f>
-        <v>91755400</v>
+        <f t="shared" ref="N63:N66" si="23">I63*1.1</f>
+        <v>154398200</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -4978,19 +5571,19 @@
         <v>0</v>
       </c>
       <c r="T63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y63">
         <v>1</v>
@@ -4998,45 +5591,45 @@
     </row>
     <row r="64" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>8394</v>
+        <v>8406</v>
       </c>
       <c r="C64">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="D64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" t="s">
         <v>85</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>86</v>
       </c>
-      <c r="F64" t="s">
-        <v>87</v>
-      </c>
       <c r="G64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H64" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I64" s="4">
-        <v>49834000</v>
+        <v>227793000</v>
       </c>
       <c r="J64" s="5">
-        <v>44573.599999999999</v>
+        <v>44579.643750000003</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M64" s="4">
-        <f t="shared" ref="M64:M66" si="20">I64*1.1</f>
-        <v>54817400.000000007</v>
+        <f t="shared" si="22"/>
+        <v>250572300.00000003</v>
       </c>
       <c r="N64" s="4">
-        <f t="shared" ref="N64:N66" si="21">I64*1.1</f>
-        <v>54817400.000000007</v>
+        <f t="shared" si="23"/>
+        <v>250572300.00000003</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -5054,19 +5647,19 @@
         <v>0</v>
       </c>
       <c r="T64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y64">
         <v>1</v>
@@ -5074,45 +5667,45 @@
     </row>
     <row r="65" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>8395</v>
+        <v>8407</v>
       </c>
       <c r="C65">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="D65" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65" t="s">
         <v>85</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>86</v>
       </c>
-      <c r="F65" t="s">
-        <v>87</v>
-      </c>
       <c r="G65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H65" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I65" s="4">
-        <v>76349000</v>
+        <v>73295000</v>
       </c>
       <c r="J65" s="5">
-        <v>44573.599999999999</v>
+        <v>44579.643750000003</v>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M65" s="4">
-        <f t="shared" si="20"/>
-        <v>83983900</v>
+        <f t="shared" si="22"/>
+        <v>80624500</v>
       </c>
       <c r="N65" s="4">
-        <f t="shared" si="21"/>
-        <v>83983900</v>
+        <f t="shared" si="23"/>
+        <v>80624500</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -5130,19 +5723,19 @@
         <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y65">
         <v>1</v>
@@ -5150,111 +5743,180 @@
     </row>
     <row r="66" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>8396</v>
+        <v>8408</v>
       </c>
       <c r="C66">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="D66" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" t="s">
         <v>85</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>86</v>
       </c>
-      <c r="F66" t="s">
-        <v>87</v>
-      </c>
       <c r="G66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H66" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I66" s="4">
-        <v>73295000</v>
+        <v>70097000</v>
       </c>
       <c r="J66" s="5">
-        <v>44573.599999999999</v>
+        <v>44579.643750000003</v>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="L66" t="s">
+        <v>84</v>
+      </c>
+      <c r="M66" s="4">
+        <f t="shared" si="22"/>
+        <v>77106700</v>
+      </c>
+      <c r="N66" s="4">
+        <f t="shared" si="23"/>
+        <v>77106700</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66" t="s">
+        <v>84</v>
+      </c>
+      <c r="U66" t="s">
+        <v>87</v>
+      </c>
+      <c r="V66" t="s">
+        <v>84</v>
+      </c>
+      <c r="W66" t="s">
+        <v>84</v>
+      </c>
+      <c r="X66" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>8404</v>
+      </c>
+      <c r="C67">
+        <v>982</v>
+      </c>
+      <c r="D67" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" t="s">
         <v>85</v>
       </c>
-      <c r="M66" s="4">
-        <f t="shared" si="20"/>
-        <v>80624500</v>
-      </c>
-      <c r="N66" s="4">
-        <f t="shared" si="21"/>
-        <v>80624500</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66" t="s">
-        <v>85</v>
-      </c>
-      <c r="U66" t="s">
-        <v>88</v>
-      </c>
-      <c r="V66" t="s">
-        <v>85</v>
-      </c>
-      <c r="W66" t="s">
-        <v>85</v>
-      </c>
-      <c r="X66" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="5"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
+      <c r="F67" t="s">
+        <v>86</v>
+      </c>
+      <c r="G67" t="s">
+        <v>84</v>
+      </c>
+      <c r="H67" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I67" s="4">
+        <v>48899000</v>
+      </c>
+      <c r="J67" s="5">
+        <v>44579.643750000003</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>84</v>
+      </c>
+      <c r="M67" s="4">
+        <f t="shared" ref="M67" si="24">I67*1.1</f>
+        <v>53788900.000000007</v>
+      </c>
+      <c r="N67" s="4">
+        <f t="shared" ref="N67" si="25">I67*1.1</f>
+        <v>53788900.000000007</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67" t="s">
+        <v>84</v>
+      </c>
+      <c r="U67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V67" t="s">
+        <v>84</v>
+      </c>
+      <c r="W67" t="s">
+        <v>84</v>
+      </c>
+      <c r="X67" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>8405</v>
+        <v>8403</v>
       </c>
       <c r="C68">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D68" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" t="s">
         <v>85</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>86</v>
       </c>
-      <c r="F68" t="s">
-        <v>87</v>
-      </c>
       <c r="G68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H68" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I68" s="4">
-        <v>140362000</v>
+        <v>34464000</v>
       </c>
       <c r="J68" s="5">
         <v>44579.643750000003</v>
@@ -5263,15 +5925,15 @@
         <v>1</v>
       </c>
       <c r="L68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M68" s="4">
-        <f t="shared" ref="M68:M71" si="22">I68*1.1</f>
-        <v>154398200</v>
+        <f t="shared" ref="M68" si="26">I68*1.1</f>
+        <v>37910400</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" ref="N68:N71" si="23">I68*1.1</f>
-        <v>154398200</v>
+        <f t="shared" ref="N68" si="27">I68*1.1</f>
+        <v>37910400</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -5289,141 +5951,72 @@
         <v>0</v>
       </c>
       <c r="T68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>8406</v>
-      </c>
-      <c r="C69">
-        <v>981</v>
-      </c>
-      <c r="D69" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" t="s">
-        <v>86</v>
-      </c>
-      <c r="F69" t="s">
-        <v>87</v>
-      </c>
-      <c r="G69" t="s">
-        <v>85</v>
-      </c>
-      <c r="H69" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I69" s="4">
-        <v>227793000</v>
-      </c>
-      <c r="J69" s="5">
-        <v>44579.643750000003</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69" t="s">
-        <v>85</v>
-      </c>
-      <c r="M69" s="4">
-        <f t="shared" si="22"/>
-        <v>250572300.00000003</v>
-      </c>
-      <c r="N69" s="4">
-        <f t="shared" si="23"/>
-        <v>250572300.00000003</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-      <c r="T69" t="s">
-        <v>85</v>
-      </c>
-      <c r="U69" t="s">
-        <v>88</v>
-      </c>
-      <c r="V69" t="s">
-        <v>85</v>
-      </c>
-      <c r="W69" t="s">
-        <v>85</v>
-      </c>
-      <c r="X69" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y69">
-        <v>1</v>
-      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="5"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
     </row>
     <row r="70" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>8407</v>
+        <v>8409</v>
       </c>
       <c r="C70">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="D70" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" t="s">
         <v>85</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>86</v>
       </c>
-      <c r="F70" t="s">
-        <v>87</v>
-      </c>
       <c r="G70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H70" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I70" s="4">
-        <v>73295000</v>
+        <v>182069000</v>
       </c>
       <c r="J70" s="5">
-        <v>44579.643750000003</v>
+        <v>44580.590277777781</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M70" s="4">
-        <f t="shared" si="22"/>
-        <v>80624500</v>
+        <f t="shared" ref="M70" si="28">I70*1.1</f>
+        <v>200275900.00000003</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" si="23"/>
-        <v>80624500</v>
+        <f t="shared" ref="N70" si="29">I70*1.1</f>
+        <v>200275900.00000003</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -5441,141 +6034,72 @@
         <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>8408</v>
-      </c>
-      <c r="C71">
-        <v>981</v>
-      </c>
-      <c r="D71" t="s">
-        <v>85</v>
-      </c>
-      <c r="E71" t="s">
-        <v>86</v>
-      </c>
-      <c r="F71" t="s">
-        <v>87</v>
-      </c>
-      <c r="G71" t="s">
-        <v>85</v>
-      </c>
-      <c r="H71" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I71" s="4">
-        <v>70097000</v>
-      </c>
-      <c r="J71" s="5">
-        <v>44579.643750000003</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71" t="s">
-        <v>85</v>
-      </c>
-      <c r="M71" s="4">
-        <f t="shared" si="22"/>
-        <v>77106700</v>
-      </c>
-      <c r="N71" s="4">
-        <f t="shared" si="23"/>
-        <v>77106700</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-      <c r="T71" t="s">
-        <v>85</v>
-      </c>
-      <c r="U71" t="s">
-        <v>88</v>
-      </c>
-      <c r="V71" t="s">
-        <v>85</v>
-      </c>
-      <c r="W71" t="s">
-        <v>85</v>
-      </c>
-      <c r="X71" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y71">
-        <v>1</v>
-      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="5"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
     </row>
     <row r="72" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>8404</v>
+        <v>8419</v>
       </c>
       <c r="C72">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="D72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" t="s">
         <v>85</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>86</v>
       </c>
-      <c r="F72" t="s">
-        <v>87</v>
-      </c>
       <c r="G72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H72" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I72" s="4">
-        <v>48899000</v>
+        <v>42546000</v>
       </c>
       <c r="J72" s="5">
-        <v>44579.643750000003</v>
+        <v>44587.427777777775</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M72" s="4">
-        <f t="shared" ref="M72" si="24">I72*1.1</f>
-        <v>53788900.000000007</v>
+        <f t="shared" ref="M72:M74" si="30">I72*1.1</f>
+        <v>46800600.000000007</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" ref="N72" si="25">I72*1.1</f>
-        <v>53788900.000000007</v>
+        <f t="shared" ref="N72:N74" si="31">I72*1.1</f>
+        <v>46800600.000000007</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -5593,19 +6117,19 @@
         <v>0</v>
       </c>
       <c r="T72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y72">
         <v>1</v>
@@ -5613,128 +6137,197 @@
     </row>
     <row r="73" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>8403</v>
+        <v>8417</v>
       </c>
       <c r="C73">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="D73" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" t="s">
         <v>85</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>86</v>
       </c>
-      <c r="F73" t="s">
-        <v>87</v>
-      </c>
       <c r="G73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H73" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I73" s="4">
-        <v>34464000</v>
+        <v>57056000</v>
       </c>
       <c r="J73" s="5">
-        <v>44579.643750000003</v>
+        <v>44587.427777777775</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="L73" t="s">
+        <v>84</v>
+      </c>
+      <c r="M73" s="4">
+        <f t="shared" si="30"/>
+        <v>62761600.000000007</v>
+      </c>
+      <c r="N73" s="4">
+        <f t="shared" si="31"/>
+        <v>62761600.000000007</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73" t="s">
+        <v>84</v>
+      </c>
+      <c r="U73" t="s">
+        <v>87</v>
+      </c>
+      <c r="V73" t="s">
+        <v>84</v>
+      </c>
+      <c r="W73" t="s">
+        <v>84</v>
+      </c>
+      <c r="X73" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>8418</v>
+      </c>
+      <c r="C74">
+        <v>990</v>
+      </c>
+      <c r="D74" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" t="s">
         <v>85</v>
       </c>
-      <c r="M73" s="4">
-        <f t="shared" ref="M73" si="26">I73*1.1</f>
-        <v>37910400</v>
-      </c>
-      <c r="N73" s="4">
-        <f t="shared" ref="N73" si="27">I73*1.1</f>
-        <v>37910400</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-      <c r="T73" t="s">
-        <v>85</v>
-      </c>
-      <c r="U73" t="s">
-        <v>88</v>
-      </c>
-      <c r="V73" t="s">
-        <v>85</v>
-      </c>
-      <c r="W73" t="s">
-        <v>85</v>
-      </c>
-      <c r="X73" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="5"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
+      <c r="F74" t="s">
+        <v>86</v>
+      </c>
+      <c r="G74" t="s">
+        <v>84</v>
+      </c>
+      <c r="H74" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I74" s="4">
+        <v>66218000</v>
+      </c>
+      <c r="J74" s="5">
+        <v>44587.427777777775</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>84</v>
+      </c>
+      <c r="M74" s="4">
+        <f t="shared" si="30"/>
+        <v>72839800</v>
+      </c>
+      <c r="N74" s="4">
+        <f t="shared" si="31"/>
+        <v>72839800</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74" t="s">
+        <v>84</v>
+      </c>
+      <c r="U74" t="s">
+        <v>87</v>
+      </c>
+      <c r="V74" t="s">
+        <v>84</v>
+      </c>
+      <c r="W74" t="s">
+        <v>84</v>
+      </c>
+      <c r="X74" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y74">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>8409</v>
+        <v>8420</v>
       </c>
       <c r="C75">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="D75" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" t="s">
         <v>85</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>86</v>
       </c>
-      <c r="F75" t="s">
-        <v>87</v>
-      </c>
       <c r="G75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H75" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I75" s="4">
-        <v>182069000</v>
+        <v>102672000</v>
       </c>
       <c r="J75" s="5">
-        <v>44580.590277777781</v>
+        <v>44587.427777777775</v>
       </c>
       <c r="K75">
         <v>1</v>
       </c>
       <c r="L75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M75" s="4">
-        <f t="shared" ref="M75" si="28">I75*1.1</f>
-        <v>200275900.00000003</v>
+        <f>I75*1.1</f>
+        <v>112939200.00000001</v>
       </c>
       <c r="N75" s="4">
-        <f t="shared" ref="N75" si="29">I75*1.1</f>
-        <v>200275900.00000003</v>
+        <f>I75*1.1</f>
+        <v>112939200.00000001</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -5752,25 +6345,25 @@
         <v>0</v>
       </c>
       <c r="T75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="5"/>
@@ -5779,45 +6372,45 @@
     </row>
     <row r="77" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>8419</v>
+        <v>8439</v>
       </c>
       <c r="C77">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="D77" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" t="s">
         <v>85</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>86</v>
       </c>
-      <c r="F77" t="s">
-        <v>87</v>
-      </c>
       <c r="G77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H77" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I77" s="4">
-        <v>42546000</v>
+        <v>165421000</v>
       </c>
       <c r="J77" s="5">
-        <v>44587.427777777775</v>
+        <v>44608.619444444441</v>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="L77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M77" s="4">
-        <f t="shared" ref="M77:M79" si="30">I77*1.1</f>
-        <v>46800600.000000007</v>
+        <f>I77*1.11</f>
+        <v>183617310.00000003</v>
       </c>
       <c r="N77" s="4">
-        <f t="shared" ref="N77:N79" si="31">I77*1.1</f>
-        <v>46800600.000000007</v>
+        <f>I77*1.11</f>
+        <v>183617310.00000003</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -5835,19 +6428,19 @@
         <v>0</v>
       </c>
       <c r="T77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y77">
         <v>1</v>
@@ -5855,45 +6448,45 @@
     </row>
     <row r="78" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>8417</v>
+        <v>8444</v>
       </c>
       <c r="C78">
-        <v>990</v>
+        <v>1002</v>
       </c>
       <c r="D78" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78" t="s">
         <v>85</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>86</v>
       </c>
-      <c r="F78" t="s">
-        <v>87</v>
-      </c>
       <c r="G78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H78" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I78" s="4">
-        <v>57056000</v>
+        <v>48452000</v>
       </c>
       <c r="J78" s="5">
-        <v>44587.427777777775</v>
+        <v>44614.55972222222</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M78" s="4">
-        <f t="shared" si="30"/>
-        <v>62761600.000000007</v>
+        <f>I78*1.11</f>
+        <v>53781720.000000007</v>
       </c>
       <c r="N78" s="4">
-        <f t="shared" si="31"/>
-        <v>62761600.000000007</v>
+        <f>I78*1.11</f>
+        <v>53781720.000000007</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -5911,19 +6504,19 @@
         <v>0</v>
       </c>
       <c r="T78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y78">
         <v>1</v>
@@ -5931,523 +6524,1054 @@
     </row>
     <row r="79" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79">
-        <v>8418</v>
+        <v>8446</v>
       </c>
       <c r="C79">
-        <v>990</v>
+        <v>1005</v>
       </c>
       <c r="D79" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" t="s">
         <v>85</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>86</v>
       </c>
-      <c r="F79" t="s">
-        <v>87</v>
-      </c>
       <c r="G79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H79" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I79" s="4">
-        <v>66218000</v>
+        <v>47365000</v>
       </c>
       <c r="J79" s="5">
-        <v>44587.427777777775</v>
+        <v>44626.518750000003</v>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="L79" t="s">
+        <v>84</v>
+      </c>
+      <c r="M79" s="4">
+        <f>I79*1.11</f>
+        <v>52575150.000000007</v>
+      </c>
+      <c r="N79" s="4">
+        <f>I79*1.11</f>
+        <v>52575150.000000007</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79" t="s">
+        <v>84</v>
+      </c>
+      <c r="U79" t="s">
+        <v>87</v>
+      </c>
+      <c r="V79" t="s">
+        <v>84</v>
+      </c>
+      <c r="W79" t="s">
+        <v>84</v>
+      </c>
+      <c r="X79" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="5"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="18">
+        <v>8484</v>
+      </c>
+      <c r="C81" s="18">
+        <v>1026</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="M79" s="4">
-        <f t="shared" si="30"/>
-        <v>72839800</v>
-      </c>
-      <c r="N79" s="4">
-        <f t="shared" si="31"/>
-        <v>72839800</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79" t="s">
+      <c r="F81" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H81" s="19">
+        <v>813445970452000</v>
+      </c>
+      <c r="I81" s="20">
+        <v>47365000</v>
+      </c>
+      <c r="J81" s="21">
+        <f ca="1">NOW()</f>
+        <v>44728.907056944445</v>
+      </c>
+      <c r="K81" s="18">
+        <v>1</v>
+      </c>
+      <c r="L81" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M81" s="20">
+        <f>I81*1.11</f>
+        <v>52575150.000000007</v>
+      </c>
+      <c r="N81" s="20">
+        <f>I81*1.11</f>
+        <v>52575150.000000007</v>
+      </c>
+      <c r="O81" s="18">
+        <v>0</v>
+      </c>
+      <c r="P81" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="18">
+        <v>0</v>
+      </c>
+      <c r="R81" s="18">
+        <v>0</v>
+      </c>
+      <c r="S81" s="18">
+        <v>0</v>
+      </c>
+      <c r="T81" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="U81" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="V81" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="W81" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="X81" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y81" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="18">
+        <v>8485</v>
+      </c>
+      <c r="C82" s="18">
+        <v>1026</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="U79" t="s">
-        <v>88</v>
-      </c>
-      <c r="V79" t="s">
+      <c r="F82" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H82" s="19">
+        <v>813445970452000</v>
+      </c>
+      <c r="I82" s="20">
+        <v>47365000</v>
+      </c>
+      <c r="J82" s="21">
+        <f ca="1">NOW()</f>
+        <v>44728.907056944445</v>
+      </c>
+      <c r="K82" s="18">
+        <v>1</v>
+      </c>
+      <c r="L82" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M82" s="20">
+        <f>I82*1.11</f>
+        <v>52575150.000000007</v>
+      </c>
+      <c r="N82" s="20">
+        <f>I82*1.11</f>
+        <v>52575150.000000007</v>
+      </c>
+      <c r="O82" s="18">
+        <v>0</v>
+      </c>
+      <c r="P82" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="18">
+        <v>0</v>
+      </c>
+      <c r="R82" s="18">
+        <v>0</v>
+      </c>
+      <c r="S82" s="18">
+        <v>0</v>
+      </c>
+      <c r="T82" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="U82" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="V82" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="W82" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="X82" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y82" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="18">
+        <v>8486</v>
+      </c>
+      <c r="C83" s="18">
+        <v>1025</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="W79" t="s">
+      <c r="F83" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H83" s="19">
+        <v>813445970452000</v>
+      </c>
+      <c r="I83" s="20">
+        <v>139934000</v>
+      </c>
+      <c r="J83" s="21">
+        <f ca="1">NOW()</f>
+        <v>44728.907056944445</v>
+      </c>
+      <c r="K83" s="18">
+        <v>1</v>
+      </c>
+      <c r="L83" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M83" s="20">
+        <f>I83*1.11</f>
+        <v>155326740</v>
+      </c>
+      <c r="N83" s="20">
+        <f>I83*1.11</f>
+        <v>155326740</v>
+      </c>
+      <c r="O83" s="18">
+        <v>0</v>
+      </c>
+      <c r="P83" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="18">
+        <v>0</v>
+      </c>
+      <c r="R83" s="18">
+        <v>0</v>
+      </c>
+      <c r="S83" s="18">
+        <v>0</v>
+      </c>
+      <c r="T83" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="U83" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="V83" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="W83" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="X83" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y83" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="5"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>8490</v>
+      </c>
+      <c r="C85">
+        <v>1037</v>
+      </c>
+      <c r="D85" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
         <v>85</v>
       </c>
-      <c r="X79" t="s">
+      <c r="F85" t="s">
+        <v>86</v>
+      </c>
+      <c r="G85" t="s">
+        <v>84</v>
+      </c>
+      <c r="H85" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I85" s="4">
+        <v>54803000</v>
+      </c>
+      <c r="J85" s="5">
+        <f ca="1">NOW()</f>
+        <v>44728.907056944445</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85" t="s">
+        <v>84</v>
+      </c>
+      <c r="M85" s="4">
+        <f t="shared" ref="M85:M90" si="32">I85*1.11</f>
+        <v>60831330.000000007</v>
+      </c>
+      <c r="N85" s="4">
+        <f t="shared" ref="N85:N90" si="33">I85*1.11</f>
+        <v>60831330.000000007</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85" t="s">
+        <v>84</v>
+      </c>
+      <c r="U85" t="s">
+        <v>87</v>
+      </c>
+      <c r="V85" t="s">
+        <v>84</v>
+      </c>
+      <c r="W85" t="s">
+        <v>84</v>
+      </c>
+      <c r="X85" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>8491</v>
+      </c>
+      <c r="C86">
+        <v>1037</v>
+      </c>
+      <c r="D86" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" t="s">
         <v>85</v>
       </c>
-      <c r="Y79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <v>8420</v>
-      </c>
-      <c r="C80">
-        <v>990</v>
-      </c>
-      <c r="D80" t="s">
-        <v>85</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="F86" t="s">
         <v>86</v>
       </c>
-      <c r="F80" t="s">
-        <v>87</v>
-      </c>
-      <c r="G80" t="s">
-        <v>85</v>
-      </c>
-      <c r="H80" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I80" s="4">
-        <v>102672000</v>
-      </c>
-      <c r="J80" s="5">
-        <v>44587.427777777775</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80" t="s">
-        <v>85</v>
-      </c>
-      <c r="M80" s="4">
-        <f>I80*1.1</f>
-        <v>112939200.00000001</v>
-      </c>
-      <c r="N80" s="4">
-        <f>I80*1.1</f>
-        <v>112939200.00000001</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-      <c r="T80" t="s">
-        <v>85</v>
-      </c>
-      <c r="U80" t="s">
-        <v>88</v>
-      </c>
-      <c r="V80" t="s">
-        <v>85</v>
-      </c>
-      <c r="W80" t="s">
-        <v>85</v>
-      </c>
-      <c r="X80" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="5"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <v>8439</v>
-      </c>
-      <c r="C82">
-        <v>999</v>
-      </c>
-      <c r="D82" t="s">
-        <v>85</v>
-      </c>
-      <c r="E82" t="s">
-        <v>86</v>
-      </c>
-      <c r="F82" t="s">
-        <v>87</v>
-      </c>
-      <c r="G82" t="s">
-        <v>85</v>
-      </c>
-      <c r="H82" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I82" s="4">
-        <v>165421000</v>
-      </c>
-      <c r="J82" s="5">
-        <v>44608.619444444441</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82" t="s">
-        <v>85</v>
-      </c>
-      <c r="M82" s="4">
-        <f>I82*1.1</f>
-        <v>181963100</v>
-      </c>
-      <c r="N82" s="4">
-        <f>I82*1.1</f>
-        <v>181963100</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-      <c r="T82" t="s">
-        <v>85</v>
-      </c>
-      <c r="U82" t="s">
-        <v>88</v>
-      </c>
-      <c r="V82" t="s">
-        <v>85</v>
-      </c>
-      <c r="W82" t="s">
-        <v>85</v>
-      </c>
-      <c r="X82" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="5"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B84">
-        <v>8444</v>
-      </c>
-      <c r="C84">
-        <v>1002</v>
-      </c>
-      <c r="D84" t="s">
-        <v>85</v>
-      </c>
-      <c r="E84" t="s">
-        <v>86</v>
-      </c>
-      <c r="F84" t="s">
-        <v>87</v>
-      </c>
-      <c r="G84" t="s">
-        <v>85</v>
-      </c>
-      <c r="H84" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I84" s="4">
-        <v>48452000</v>
-      </c>
-      <c r="J84" s="5">
-        <v>44614.55972222222</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84" t="s">
-        <v>85</v>
-      </c>
-      <c r="M84" s="4">
-        <f>I84*1.1</f>
-        <v>53297200.000000007</v>
-      </c>
-      <c r="N84" s="4">
-        <f>I84*1.1</f>
-        <v>53297200.000000007</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
-      <c r="T84" t="s">
-        <v>85</v>
-      </c>
-      <c r="U84" t="s">
-        <v>88</v>
-      </c>
-      <c r="V84" t="s">
-        <v>85</v>
-      </c>
-      <c r="W84" t="s">
-        <v>85</v>
-      </c>
-      <c r="X84" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="5"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <v>8446</v>
-      </c>
-      <c r="C86">
-        <v>1005</v>
-      </c>
-      <c r="D86" t="s">
-        <v>85</v>
-      </c>
-      <c r="E86" t="s">
-        <v>86</v>
-      </c>
-      <c r="F86" t="s">
-        <v>87</v>
-      </c>
       <c r="G86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H86" s="4">
         <v>813445970452000</v>
       </c>
       <c r="I86" s="4">
-        <v>72000000</v>
+        <v>95844000</v>
       </c>
       <c r="J86" s="5">
-        <v>44626.518750000003</v>
+        <f t="shared" ref="J86:J93" ca="1" si="34">NOW()</f>
+        <v>44728.907056944445</v>
       </c>
       <c r="K86">
         <v>1</v>
       </c>
       <c r="L86" t="s">
+        <v>84</v>
+      </c>
+      <c r="M86" s="4">
+        <f t="shared" si="32"/>
+        <v>106386840.00000001</v>
+      </c>
+      <c r="N86" s="4">
+        <f t="shared" si="33"/>
+        <v>106386840.00000001</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86" t="s">
+        <v>84</v>
+      </c>
+      <c r="U86" t="s">
+        <v>87</v>
+      </c>
+      <c r="V86" t="s">
+        <v>84</v>
+      </c>
+      <c r="W86" t="s">
+        <v>84</v>
+      </c>
+      <c r="X86" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>8492</v>
+      </c>
+      <c r="C87">
+        <v>1037</v>
+      </c>
+      <c r="D87" t="s">
+        <v>84</v>
+      </c>
+      <c r="E87" t="s">
         <v>85</v>
       </c>
-      <c r="M86" s="4">
-        <f>I86*1.1</f>
-        <v>79200000</v>
-      </c>
-      <c r="N86" s="4">
-        <f>I86*1.1</f>
-        <v>79200000</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
-      <c r="T86" t="s">
+      <c r="F87" t="s">
+        <v>86</v>
+      </c>
+      <c r="G87" t="s">
+        <v>84</v>
+      </c>
+      <c r="H87" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I87" s="4">
+        <v>95844000</v>
+      </c>
+      <c r="J87" s="5">
+        <f t="shared" ca="1" si="34"/>
+        <v>44728.907056944445</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>84</v>
+      </c>
+      <c r="M87" s="4">
+        <f t="shared" si="32"/>
+        <v>106386840.00000001</v>
+      </c>
+      <c r="N87" s="4">
+        <f t="shared" si="33"/>
+        <v>106386840.00000001</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87" t="s">
+        <v>84</v>
+      </c>
+      <c r="U87" t="s">
+        <v>87</v>
+      </c>
+      <c r="V87" t="s">
+        <v>84</v>
+      </c>
+      <c r="W87" t="s">
+        <v>84</v>
+      </c>
+      <c r="X87" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>8493</v>
+      </c>
+      <c r="C88">
+        <v>1037</v>
+      </c>
+      <c r="D88" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" t="s">
         <v>85</v>
       </c>
-      <c r="U86" t="s">
-        <v>88</v>
-      </c>
-      <c r="V86" t="s">
+      <c r="F88" t="s">
+        <v>86</v>
+      </c>
+      <c r="G88" t="s">
+        <v>84</v>
+      </c>
+      <c r="H88" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I88" s="4">
+        <v>58803000</v>
+      </c>
+      <c r="J88" s="5">
+        <f t="shared" ca="1" si="34"/>
+        <v>44728.907056944445</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
+        <v>84</v>
+      </c>
+      <c r="M88" s="4">
+        <f t="shared" si="32"/>
+        <v>65271330.000000007</v>
+      </c>
+      <c r="N88" s="4">
+        <f t="shared" si="33"/>
+        <v>65271330.000000007</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88" t="s">
+        <v>84</v>
+      </c>
+      <c r="U88" t="s">
+        <v>87</v>
+      </c>
+      <c r="V88" t="s">
+        <v>84</v>
+      </c>
+      <c r="W88" t="s">
+        <v>84</v>
+      </c>
+      <c r="X88" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>8494</v>
+      </c>
+      <c r="C89">
+        <v>1037</v>
+      </c>
+      <c r="D89" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" t="s">
         <v>85</v>
       </c>
-      <c r="W86" t="s">
+      <c r="F89" t="s">
+        <v>86</v>
+      </c>
+      <c r="G89" t="s">
+        <v>84</v>
+      </c>
+      <c r="H89" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I89" s="4">
+        <v>63563000</v>
+      </c>
+      <c r="J89" s="5">
+        <f t="shared" ca="1" si="34"/>
+        <v>44728.907056944445</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
+        <v>84</v>
+      </c>
+      <c r="M89" s="4">
+        <f t="shared" si="32"/>
+        <v>70554930</v>
+      </c>
+      <c r="N89" s="4">
+        <f t="shared" si="33"/>
+        <v>70554930</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89" t="s">
+        <v>84</v>
+      </c>
+      <c r="U89" t="s">
+        <v>87</v>
+      </c>
+      <c r="V89" t="s">
+        <v>84</v>
+      </c>
+      <c r="W89" t="s">
+        <v>84</v>
+      </c>
+      <c r="X89" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>8495</v>
+      </c>
+      <c r="C90">
+        <v>1037</v>
+      </c>
+      <c r="D90" t="s">
+        <v>84</v>
+      </c>
+      <c r="E90" t="s">
         <v>85</v>
       </c>
-      <c r="X86" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="5"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="5"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="5"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="5"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>86</v>
+      </c>
+      <c r="G90" t="s">
+        <v>84</v>
+      </c>
+      <c r="H90" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I90" s="4">
+        <v>63563000</v>
+      </c>
+      <c r="J90" s="5">
+        <f t="shared" ca="1" si="34"/>
+        <v>44728.907056944445</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
+        <v>84</v>
+      </c>
+      <c r="M90" s="4">
+        <f t="shared" si="32"/>
+        <v>70554930</v>
+      </c>
+      <c r="N90" s="4">
+        <f t="shared" si="33"/>
+        <v>70554930</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90" t="s">
+        <v>84</v>
+      </c>
+      <c r="U90" t="s">
+        <v>87</v>
+      </c>
+      <c r="V90" t="s">
+        <v>84</v>
+      </c>
+      <c r="W90" t="s">
+        <v>84</v>
+      </c>
+      <c r="X90" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="5"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
     </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B92" s="22">
+        <v>8504</v>
+      </c>
+      <c r="C92" s="22">
+        <v>1039</v>
+      </c>
+      <c r="D92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" t="s">
+        <v>85</v>
+      </c>
+      <c r="F92" t="s">
+        <v>86</v>
+      </c>
+      <c r="G92" t="s">
+        <v>84</v>
+      </c>
+      <c r="H92" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I92" s="20">
+        <v>48042000</v>
+      </c>
+      <c r="J92" s="21">
+        <f t="shared" ca="1" si="34"/>
+        <v>44728.907056828706</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>84</v>
+      </c>
+      <c r="M92" s="20">
+        <v>53326620</v>
+      </c>
+      <c r="N92" s="20">
+        <f t="shared" ref="N92:N93" si="35">I92*1.11</f>
+        <v>53326620.000000007</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92" t="s">
+        <v>84</v>
+      </c>
+      <c r="U92" t="s">
+        <v>87</v>
+      </c>
+      <c r="V92" t="s">
+        <v>84</v>
+      </c>
+      <c r="W92" t="s">
+        <v>84</v>
+      </c>
+      <c r="X92" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y92">
+        <v>1</v>
+      </c>
+    </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>128</v>
-      </c>
-      <c r="I93" t="s">
-        <v>197</v>
-      </c>
-      <c r="M93" t="s">
-        <v>196</v>
+      <c r="B93" s="22">
+        <v>8505</v>
+      </c>
+      <c r="C93" s="22">
+        <v>1039</v>
+      </c>
+      <c r="D93" t="s">
+        <v>84</v>
+      </c>
+      <c r="E93" t="s">
+        <v>85</v>
+      </c>
+      <c r="F93" t="s">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s">
+        <v>84</v>
+      </c>
+      <c r="H93" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I93" s="20">
+        <v>54803000</v>
+      </c>
+      <c r="J93" s="21">
+        <f t="shared" ca="1" si="34"/>
+        <v>44728.907056828706</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93" t="s">
+        <v>84</v>
+      </c>
+      <c r="M93" s="20">
+        <v>60831330</v>
+      </c>
+      <c r="N93" s="20">
+        <f t="shared" si="35"/>
+        <v>60831330.000000007</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93" t="s">
+        <v>84</v>
+      </c>
+      <c r="U93" t="s">
+        <v>87</v>
+      </c>
+      <c r="V93" t="s">
+        <v>84</v>
+      </c>
+      <c r="W93" t="s">
+        <v>84</v>
+      </c>
+      <c r="X93" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>129</v>
-      </c>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="5"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="5"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
+      <c r="A96" t="s">
+        <v>214</v>
+      </c>
+      <c r="I96" t="s">
+        <v>192</v>
+      </c>
+      <c r="M96" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>133</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>136</v>
+      <c r="A103" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A108" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>145</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6463,12 +7587,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -6483,12 +7607,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6902,7 +8026,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -6911,52 +8035,52 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
@@ -6992,42 +8116,42 @@
   <sheetData>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -7037,21 +8161,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2F9CB5CC580EC46B5860198FEB9E710" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b91388b48bcd9a49e5c6bbe11f5107a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf9b6120-988b-41be-8da6-61dea16cb493" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f067a43816ef2ddba10c3d75903eac" ns2:_="">
     <xsd:import namespace="bf9b6120-988b-41be-8da6-61dea16cb493"/>
@@ -7229,24 +8338,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{960EB93A-7002-4718-9F32-8C3A4C7268F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7262,4 +8369,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
+++ b/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Primbon OLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF03467-2543-4F5D-A060-2F1A16FCE2CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D4C231-A308-4BE8-B6BC-A5D4866D7D00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="225">
   <si>
     <t>"no object reference"</t>
   </si>
@@ -988,6 +988,27 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>20220623135541606</t>
+  </si>
+  <si>
+    <t>0001022/4/01/04/2022</t>
+  </si>
+  <si>
+    <t>4120035353</t>
+  </si>
+  <si>
+    <t>G15AID370880</t>
+  </si>
+  <si>
+    <t>2022-06-23 13:55:41.000</t>
+  </si>
+  <si>
+    <t>2022-06-23 14:22:17.910</t>
+  </si>
+  <si>
+    <t>2022-05-20 00:00:00.000</t>
+  </si>
 </sst>
 </file>
 
@@ -1049,7 +1070,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1086,6 +1107,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1100,7 +1133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1125,6 +1158,15 @@
     <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="47" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1134,6 +1176,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -2085,10 +2128,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AI116"/>
+  <dimension ref="A1:AI125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K15" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:Y93"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3076,422 +3119,378 @@
       <c r="W16" s="17"/>
       <c r="AI16" s="17"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:35" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
+        <v>0</v>
+      </c>
+      <c r="I17" s="24">
+        <v>54803000</v>
+      </c>
+      <c r="J17" s="24">
+        <v>0</v>
+      </c>
+      <c r="K17" s="24">
+        <v>0</v>
+      </c>
+      <c r="L17" s="24">
+        <v>0</v>
+      </c>
+      <c r="M17" s="24">
+        <v>0</v>
+      </c>
+      <c r="N17" s="24">
+        <v>0</v>
+      </c>
+      <c r="O17" s="24">
+        <v>0</v>
+      </c>
+      <c r="P17" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="24">
+        <v>0</v>
+      </c>
+      <c r="R17" s="24">
+        <v>0</v>
+      </c>
+      <c r="S17" s="24">
+        <v>0</v>
+      </c>
+      <c r="T17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="U17" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="V17" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="W17" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="X17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y17" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="U18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="AI18" s="17"/>
+    </row>
+    <row r="19" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="U19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="AI19" s="17"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B24" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C24" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I24" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J24" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M24" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="N24" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="S24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="U24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="V21" s="2" t="s">
+      <c r="V24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="W24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="X24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Y21" s="2" t="s">
+      <c r="Y24" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="14">
+    <row r="25" spans="1:35" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="14">
         <v>8146</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C25" s="14">
         <v>902</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="D25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F25" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="15">
+      <c r="G25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="15">
         <v>813445970452000</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I25" s="15">
         <v>138648000</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J25" s="16">
         <v>44496.595138888886</v>
       </c>
-      <c r="K22" s="14">
-        <v>1</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="M22" s="15">
-        <f>I22*1.1</f>
+      <c r="K25" s="14">
+        <v>1</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" s="15">
+        <f>I25*1.1</f>
         <v>152512800</v>
       </c>
-      <c r="N22" s="15">
-        <f>I22*1.1</f>
+      <c r="N25" s="15">
+        <f>I25*1.1</f>
         <v>152512800</v>
       </c>
-      <c r="O22" s="14">
-        <v>0</v>
-      </c>
-      <c r="P22" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="14">
-        <v>0</v>
-      </c>
-      <c r="R22" s="14">
-        <v>0</v>
-      </c>
-      <c r="S22" s="14">
-        <v>0</v>
-      </c>
-      <c r="T22" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="U22" s="14" t="s">
+      <c r="O25" s="14">
+        <v>0</v>
+      </c>
+      <c r="P25" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>0</v>
+      </c>
+      <c r="R25" s="14">
+        <v>0</v>
+      </c>
+      <c r="S25" s="14">
+        <v>0</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U25" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="V22" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="W22" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="X22" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y22" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="14">
+      <c r="V25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="14">
         <v>8147</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C26" s="14">
         <v>903</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="D26" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F26" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="15">
+      <c r="G26" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="15">
         <v>813445970452000</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I26" s="15">
         <v>72899000</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J26" s="16">
         <v>44496.595138888886</v>
       </c>
-      <c r="K23" s="14">
-        <v>1</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="M23" s="15">
-        <f>I23*1.1</f>
+      <c r="K26" s="14">
+        <v>1</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" s="15">
+        <f>I26*1.1</f>
         <v>80188900</v>
       </c>
-      <c r="N23" s="15">
-        <f>I23*1.1</f>
+      <c r="N26" s="15">
+        <f>I26*1.1</f>
         <v>80188900</v>
       </c>
-      <c r="O23" s="14">
-        <v>0</v>
-      </c>
-      <c r="P23" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>0</v>
-      </c>
-      <c r="R23" s="14">
-        <v>0</v>
-      </c>
-      <c r="S23" s="14">
-        <v>0</v>
-      </c>
-      <c r="T23" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="U23" s="14" t="s">
+      <c r="O26" s="14">
+        <v>0</v>
+      </c>
+      <c r="P26" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>0</v>
+      </c>
+      <c r="R26" s="14">
+        <v>0</v>
+      </c>
+      <c r="S26" s="14">
+        <v>0</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U26" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="V23" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="W23" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="X23" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y23" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="V26" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="W26" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X26" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y26" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>8225</v>
       </c>
-      <c r="C25">
+      <c r="C28">
         <v>931</v>
-      </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I25" s="4">
-        <v>47526000</v>
-      </c>
-      <c r="J25" s="5">
-        <v>44529.378472222219</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" s="4">
-        <f t="shared" ref="M25" si="0">I25*1.1</f>
-        <v>52278600.000000007</v>
-      </c>
-      <c r="N25" s="4">
-        <f t="shared" ref="N25" si="1">I25*1.1</f>
-        <v>52278600.000000007</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25" t="s">
-        <v>84</v>
-      </c>
-      <c r="U25" t="s">
-        <v>87</v>
-      </c>
-      <c r="V25" t="s">
-        <v>84</v>
-      </c>
-      <c r="W25" t="s">
-        <v>84</v>
-      </c>
-      <c r="X25" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="5"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>8226</v>
-      </c>
-      <c r="C27">
-        <v>932</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I27" s="4">
-        <v>43687000</v>
-      </c>
-      <c r="J27" s="5">
-        <v>44529.378472222219</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
-        <v>84</v>
-      </c>
-      <c r="M27" s="4">
-        <f t="shared" ref="M27:M28" si="2">I27*1.1</f>
-        <v>48055700.000000007</v>
-      </c>
-      <c r="N27" s="4">
-        <f t="shared" ref="N27:N28" si="3">I27*1.1</f>
-        <v>48055700.000000007</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27" t="s">
-        <v>84</v>
-      </c>
-      <c r="U27" t="s">
-        <v>87</v>
-      </c>
-      <c r="V27" t="s">
-        <v>84</v>
-      </c>
-      <c r="W27" t="s">
-        <v>84</v>
-      </c>
-      <c r="X27" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>8227</v>
-      </c>
-      <c r="C28">
-        <v>932</v>
       </c>
       <c r="D28" t="s">
         <v>84</v>
@@ -3509,7 +3508,7 @@
         <v>813445970452000</v>
       </c>
       <c r="I28" s="4">
-        <v>48418000</v>
+        <v>47526000</v>
       </c>
       <c r="J28" s="5">
         <v>44529.378472222219</v>
@@ -3521,12 +3520,12 @@
         <v>84</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="2"/>
-        <v>53259800.000000007</v>
+        <f t="shared" ref="M28" si="0">I28*1.1</f>
+        <v>52278600.000000007</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="3"/>
-        <v>53259800.000000007</v>
+        <f t="shared" ref="N28" si="1">I28*1.1</f>
+        <v>52278600.000000007</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -3562,19 +3561,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="5"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>8232</v>
+        <v>8226</v>
       </c>
       <c r="C30">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D30" t="s">
         <v>84</v>
@@ -3592,10 +3591,10 @@
         <v>813445970452000</v>
       </c>
       <c r="I30" s="4">
-        <v>77014000</v>
+        <v>43687000</v>
       </c>
       <c r="J30" s="5">
-        <v>44537.375694444447</v>
+        <v>44529.378472222219</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3604,12 +3603,12 @@
         <v>84</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" ref="M30" si="4">I30*1.1</f>
-        <v>84715400</v>
+        <f t="shared" ref="M30:M31" si="2">I30*1.1</f>
+        <v>48055700.000000007</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" ref="N30" si="5">I30*1.1</f>
-        <v>84715400</v>
+        <f t="shared" ref="N30:N31" si="3">I30*1.1</f>
+        <v>48055700.000000007</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -3645,95 +3644,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="5"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>8231</v>
-      </c>
-      <c r="C32">
-        <v>935</v>
-      </c>
-      <c r="D32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" t="s">
+    <row r="31" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>8227</v>
+      </c>
+      <c r="C31">
+        <v>932</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
         <v>85</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F31" t="s">
         <v>86</v>
       </c>
-      <c r="G32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I32" s="4">
-        <v>47000000</v>
-      </c>
-      <c r="J32" s="5">
-        <v>44537.375694444447</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
-        <v>84</v>
-      </c>
-      <c r="M32" s="4">
-        <f t="shared" ref="M32:M35" si="6">I32*1.1</f>
-        <v>51700000.000000007</v>
-      </c>
-      <c r="N32" s="4">
-        <f t="shared" ref="N32:N35" si="7">I32*1.1</f>
-        <v>51700000.000000007</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32" t="s">
-        <v>84</v>
-      </c>
-      <c r="U32" t="s">
+      <c r="I31" s="4">
+        <v>48418000</v>
+      </c>
+      <c r="J31" s="5">
+        <v>44529.378472222219</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="2"/>
+        <v>53259800.000000007</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" si="3"/>
+        <v>53259800.000000007</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
+        <v>84</v>
+      </c>
+      <c r="U31" t="s">
         <v>87</v>
       </c>
-      <c r="V32" t="s">
-        <v>84</v>
-      </c>
-      <c r="W32" t="s">
-        <v>84</v>
-      </c>
-      <c r="X32" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y32">
-        <v>1</v>
-      </c>
+      <c r="V31" t="s">
+        <v>84</v>
+      </c>
+      <c r="W31" t="s">
+        <v>84</v>
+      </c>
+      <c r="X31" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
     </row>
     <row r="33" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>8233</v>
+        <v>8232</v>
       </c>
       <c r="C33">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D33" t="s">
         <v>84</v>
@@ -3751,7 +3750,7 @@
         <v>813445970452000</v>
       </c>
       <c r="I33" s="4">
-        <v>47000000</v>
+        <v>77014000</v>
       </c>
       <c r="J33" s="5">
         <v>44537.375694444447</v>
@@ -3763,323 +3762,323 @@
         <v>84</v>
       </c>
       <c r="M33" s="4">
+        <f t="shared" ref="M33" si="4">I33*1.1</f>
+        <v>84715400</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" ref="N33" si="5">I33*1.1</f>
+        <v>84715400</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>84</v>
+      </c>
+      <c r="U33" t="s">
+        <v>87</v>
+      </c>
+      <c r="V33" t="s">
+        <v>84</v>
+      </c>
+      <c r="W33" t="s">
+        <v>84</v>
+      </c>
+      <c r="X33" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>8231</v>
+      </c>
+      <c r="C35">
+        <v>935</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I35" s="4">
+        <v>47000000</v>
+      </c>
+      <c r="J35" s="5">
+        <v>44537.375694444447</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>84</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" ref="M35:M38" si="6">I35*1.1</f>
+        <v>51700000.000000007</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" ref="N35:N38" si="7">I35*1.1</f>
+        <v>51700000.000000007</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35" t="s">
+        <v>84</v>
+      </c>
+      <c r="U35" t="s">
+        <v>87</v>
+      </c>
+      <c r="V35" t="s">
+        <v>84</v>
+      </c>
+      <c r="W35" t="s">
+        <v>84</v>
+      </c>
+      <c r="X35" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>8233</v>
+      </c>
+      <c r="C36">
+        <v>935</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I36" s="4">
+        <v>47000000</v>
+      </c>
+      <c r="J36" s="5">
+        <v>44537.375694444447</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>84</v>
+      </c>
+      <c r="M36" s="4">
         <f t="shared" si="6"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N36" s="4">
         <f t="shared" si="7"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33" t="s">
-        <v>84</v>
-      </c>
-      <c r="U33" t="s">
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36" t="s">
+        <v>84</v>
+      </c>
+      <c r="U36" t="s">
         <v>87</v>
       </c>
-      <c r="V33" t="s">
-        <v>84</v>
-      </c>
-      <c r="W33" t="s">
-        <v>84</v>
-      </c>
-      <c r="X33" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="V36" t="s">
+        <v>84</v>
+      </c>
+      <c r="W36" t="s">
+        <v>84</v>
+      </c>
+      <c r="X36" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>8234</v>
       </c>
-      <c r="C34">
+      <c r="C37">
         <v>935</v>
       </c>
-      <c r="D34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" t="s">
         <v>85</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F37" t="s">
         <v>86</v>
       </c>
-      <c r="G34" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I37" s="4">
         <v>47000000</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J37" s="5">
         <v>44537.375694444447</v>
       </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34" t="s">
-        <v>84</v>
-      </c>
-      <c r="M34" s="4">
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>84</v>
+      </c>
+      <c r="M37" s="4">
         <f t="shared" si="6"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N37" s="4">
         <f t="shared" si="7"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34" t="s">
-        <v>84</v>
-      </c>
-      <c r="U34" t="s">
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>84</v>
+      </c>
+      <c r="U37" t="s">
         <v>87</v>
       </c>
-      <c r="V34" t="s">
-        <v>84</v>
-      </c>
-      <c r="W34" t="s">
-        <v>84</v>
-      </c>
-      <c r="X34" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35">
+      <c r="V37" t="s">
+        <v>84</v>
+      </c>
+      <c r="W37" t="s">
+        <v>84</v>
+      </c>
+      <c r="X37" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>8238</v>
       </c>
-      <c r="C35">
+      <c r="C38">
         <v>935</v>
       </c>
-      <c r="D35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
         <v>85</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F38" t="s">
         <v>86</v>
       </c>
-      <c r="G35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="G38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I38" s="4">
         <v>47000000</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J38" s="5">
         <v>44537.375694444447</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35" t="s">
-        <v>84</v>
-      </c>
-      <c r="M35" s="4">
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>84</v>
+      </c>
+      <c r="M38" s="4">
         <f t="shared" si="6"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N38" s="4">
         <f t="shared" si="7"/>
         <v>51700000.000000007</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35" t="s">
-        <v>84</v>
-      </c>
-      <c r="U35" t="s">
-        <v>87</v>
-      </c>
-      <c r="V35" t="s">
-        <v>84</v>
-      </c>
-      <c r="W35" t="s">
-        <v>84</v>
-      </c>
-      <c r="X35" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="5"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>8250</v>
-      </c>
-      <c r="C37">
-        <v>945</v>
-      </c>
-      <c r="D37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I37" s="4">
-        <v>66818000</v>
-      </c>
-      <c r="J37" s="5">
-        <v>44543.326388888891</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37" t="s">
-        <v>84</v>
-      </c>
-      <c r="M37" s="4">
-        <f t="shared" ref="M37:M38" si="8">I37*1.1</f>
-        <v>73499800</v>
-      </c>
-      <c r="N37" s="4">
-        <f t="shared" ref="N37:N38" si="9">I37*1.1</f>
-        <v>73499800</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37" t="s">
-        <v>84</v>
-      </c>
-      <c r="U37" t="s">
-        <v>87</v>
-      </c>
-      <c r="V37" t="s">
-        <v>84</v>
-      </c>
-      <c r="W37" t="s">
-        <v>84</v>
-      </c>
-      <c r="X37" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>8251</v>
-      </c>
-      <c r="C38">
-        <v>946</v>
-      </c>
-      <c r="D38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I38" s="4">
-        <v>87000000</v>
-      </c>
-      <c r="J38" s="5">
-        <v>44543.326388888891</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M38" s="4">
-        <f t="shared" si="8"/>
-        <v>95700000.000000015</v>
-      </c>
-      <c r="N38" s="4">
-        <f t="shared" si="9"/>
-        <v>95700000.000000015</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -4123,18 +4122,87 @@
       <c r="N39" s="4"/>
     </row>
     <row r="40" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="5"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
+      <c r="B40">
+        <v>8250</v>
+      </c>
+      <c r="C40">
+        <v>945</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I40" s="4">
+        <v>66818000</v>
+      </c>
+      <c r="J40" s="5">
+        <v>44543.326388888891</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>84</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" ref="M40:M41" si="8">I40*1.1</f>
+        <v>73499800</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" ref="N40:N41" si="9">I40*1.1</f>
+        <v>73499800</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40" t="s">
+        <v>84</v>
+      </c>
+      <c r="U40" t="s">
+        <v>87</v>
+      </c>
+      <c r="V40" t="s">
+        <v>84</v>
+      </c>
+      <c r="W40" t="s">
+        <v>84</v>
+      </c>
+      <c r="X40" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>8263</v>
+        <v>8251</v>
       </c>
       <c r="C41">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="D41" t="s">
         <v>84</v>
@@ -4152,10 +4220,10 @@
         <v>813445970452000</v>
       </c>
       <c r="I41" s="4">
-        <v>137502000</v>
+        <v>87000000</v>
       </c>
       <c r="J41" s="5">
-        <v>44550.377083333333</v>
+        <v>44543.326388888891</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4164,12 +4232,12 @@
         <v>84</v>
       </c>
       <c r="M41" s="4">
-        <f t="shared" ref="M41:M48" si="10">I41*1.1</f>
-        <v>151252200</v>
+        <f t="shared" si="8"/>
+        <v>95700000.000000015</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" ref="N41:N48" si="11">I41*1.1</f>
-        <v>151252200</v>
+        <f t="shared" si="9"/>
+        <v>95700000.000000015</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -4206,656 +4274,593 @@
       </c>
     </row>
     <row r="42" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42">
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="5"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="5"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>8263</v>
+      </c>
+      <c r="C44">
+        <v>959</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I44" s="4">
+        <v>137502000</v>
+      </c>
+      <c r="J44" s="5">
+        <v>44550.377083333333</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>84</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" ref="M44:M51" si="10">I44*1.1</f>
+        <v>151252200</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" ref="N44:N51" si="11">I44*1.1</f>
+        <v>151252200</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44" t="s">
+        <v>84</v>
+      </c>
+      <c r="U44" t="s">
+        <v>87</v>
+      </c>
+      <c r="V44" t="s">
+        <v>84</v>
+      </c>
+      <c r="W44" t="s">
+        <v>84</v>
+      </c>
+      <c r="X44" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>8264</v>
       </c>
-      <c r="C42">
+      <c r="C45">
         <v>959</v>
       </c>
-      <c r="D42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" t="s">
         <v>85</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F45" t="s">
         <v>86</v>
       </c>
-      <c r="G42" t="s">
-        <v>84</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="G45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I45" s="4">
         <v>78924000</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J45" s="5">
         <v>44550.377083333333</v>
       </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42" t="s">
-        <v>84</v>
-      </c>
-      <c r="M42" s="4">
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>84</v>
+      </c>
+      <c r="M45" s="4">
         <f t="shared" si="10"/>
         <v>86816400</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N45" s="4">
         <f t="shared" si="11"/>
         <v>86816400</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42" t="s">
-        <v>84</v>
-      </c>
-      <c r="U42" t="s">
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45" t="s">
+        <v>84</v>
+      </c>
+      <c r="U45" t="s">
         <v>87</v>
       </c>
-      <c r="V42" t="s">
-        <v>84</v>
-      </c>
-      <c r="W42" t="s">
-        <v>84</v>
-      </c>
-      <c r="X42" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43">
+      <c r="V45" t="s">
+        <v>84</v>
+      </c>
+      <c r="W45" t="s">
+        <v>84</v>
+      </c>
+      <c r="X45" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>8267</v>
       </c>
-      <c r="C43">
+      <c r="C46">
         <v>960</v>
       </c>
-      <c r="D43" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
         <v>85</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F46" t="s">
         <v>86</v>
       </c>
-      <c r="G43" t="s">
-        <v>84</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="G46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I46" s="4">
         <v>229663000</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J46" s="5">
         <v>44550.377083333333</v>
       </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43" t="s">
-        <v>84</v>
-      </c>
-      <c r="M43" s="4">
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>84</v>
+      </c>
+      <c r="M46" s="4">
         <f t="shared" si="10"/>
         <v>252629300.00000003</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N46" s="4">
         <f t="shared" si="11"/>
         <v>252629300.00000003</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43" t="s">
-        <v>84</v>
-      </c>
-      <c r="U43" t="s">
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46" t="s">
+        <v>84</v>
+      </c>
+      <c r="U46" t="s">
         <v>87</v>
       </c>
-      <c r="V43" t="s">
-        <v>84</v>
-      </c>
-      <c r="W43" t="s">
-        <v>84</v>
-      </c>
-      <c r="X43" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44">
+      <c r="V46" t="s">
+        <v>84</v>
+      </c>
+      <c r="W46" t="s">
+        <v>84</v>
+      </c>
+      <c r="X46" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>8268</v>
       </c>
-      <c r="C44">
+      <c r="C47">
         <v>960</v>
       </c>
-      <c r="D44" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" t="s">
         <v>85</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F47" t="s">
         <v>86</v>
       </c>
-      <c r="G44" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" s="4">
+      <c r="G47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I47" s="4">
         <v>89121000</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J47" s="5">
         <v>44550.377083333333</v>
       </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44" t="s">
-        <v>84</v>
-      </c>
-      <c r="M44" s="4">
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>84</v>
+      </c>
+      <c r="M47" s="4">
         <f t="shared" si="10"/>
         <v>98033100.000000015</v>
       </c>
-      <c r="N44" s="4">
+      <c r="N47" s="4">
         <f t="shared" si="11"/>
         <v>98033100.000000015</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44" t="s">
-        <v>84</v>
-      </c>
-      <c r="U44" t="s">
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47" t="s">
+        <v>84</v>
+      </c>
+      <c r="U47" t="s">
         <v>87</v>
       </c>
-      <c r="V44" t="s">
-        <v>84</v>
-      </c>
-      <c r="W44" t="s">
-        <v>84</v>
-      </c>
-      <c r="X44" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45">
+      <c r="V47" t="s">
+        <v>84</v>
+      </c>
+      <c r="W47" t="s">
+        <v>84</v>
+      </c>
+      <c r="X47" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48">
         <v>8269</v>
       </c>
-      <c r="C45">
+      <c r="C48">
         <v>960</v>
       </c>
-      <c r="D45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" t="s">
         <v>85</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F48" t="s">
         <v>86</v>
       </c>
-      <c r="G45" t="s">
-        <v>84</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="G48" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I48" s="4">
         <v>77014000</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J48" s="5">
         <v>44550.377083333333</v>
       </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45" t="s">
-        <v>84</v>
-      </c>
-      <c r="M45" s="4">
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>84</v>
+      </c>
+      <c r="M48" s="4">
         <f t="shared" si="10"/>
         <v>84715400</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N48" s="4">
         <f t="shared" si="11"/>
         <v>84715400</v>
       </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45" t="s">
-        <v>84</v>
-      </c>
-      <c r="U45" t="s">
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48" t="s">
+        <v>84</v>
+      </c>
+      <c r="U48" t="s">
         <v>87</v>
       </c>
-      <c r="V45" t="s">
-        <v>84</v>
-      </c>
-      <c r="W45" t="s">
-        <v>84</v>
-      </c>
-      <c r="X45" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46">
+      <c r="V48" t="s">
+        <v>84</v>
+      </c>
+      <c r="W48" t="s">
+        <v>84</v>
+      </c>
+      <c r="X48" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49">
         <v>8270</v>
       </c>
-      <c r="C46">
+      <c r="C49">
         <v>960</v>
       </c>
-      <c r="D46" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" t="s">
         <v>85</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F49" t="s">
         <v>86</v>
       </c>
-      <c r="G46" t="s">
-        <v>84</v>
-      </c>
-      <c r="H46" s="4">
+      <c r="G49" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I49" s="4">
         <v>61612000</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J49" s="5">
         <v>44550.377083333333</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46" t="s">
-        <v>84</v>
-      </c>
-      <c r="M46" s="4">
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>84</v>
+      </c>
+      <c r="M49" s="4">
         <f t="shared" si="10"/>
         <v>67773200</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N49" s="4">
         <f t="shared" si="11"/>
         <v>67773200</v>
       </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46" t="s">
-        <v>84</v>
-      </c>
-      <c r="U46" t="s">
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49" t="s">
+        <v>84</v>
+      </c>
+      <c r="U49" t="s">
         <v>87</v>
       </c>
-      <c r="V46" t="s">
-        <v>84</v>
-      </c>
-      <c r="W46" t="s">
-        <v>84</v>
-      </c>
-      <c r="X46" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47">
+      <c r="V49" t="s">
+        <v>84</v>
+      </c>
+      <c r="W49" t="s">
+        <v>84</v>
+      </c>
+      <c r="X49" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50">
         <v>8265</v>
       </c>
-      <c r="C47">
+      <c r="C50">
         <v>961</v>
       </c>
-      <c r="D47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" t="s">
         <v>85</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F50" t="s">
         <v>86</v>
       </c>
-      <c r="G47" t="s">
-        <v>84</v>
-      </c>
-      <c r="H47" s="4">
+      <c r="G50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I50" s="4">
         <v>47000000</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J50" s="5">
         <v>44550.377083333333</v>
       </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47" t="s">
-        <v>84</v>
-      </c>
-      <c r="M47" s="4">
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>84</v>
+      </c>
+      <c r="M50" s="4">
         <f t="shared" si="10"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N50" s="4">
         <f t="shared" si="11"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47" t="s">
-        <v>84</v>
-      </c>
-      <c r="U47" t="s">
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50" t="s">
+        <v>84</v>
+      </c>
+      <c r="U50" t="s">
         <v>87</v>
       </c>
-      <c r="V47" t="s">
-        <v>84</v>
-      </c>
-      <c r="W47" t="s">
-        <v>84</v>
-      </c>
-      <c r="X47" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48">
+      <c r="V50" t="s">
+        <v>84</v>
+      </c>
+      <c r="W50" t="s">
+        <v>84</v>
+      </c>
+      <c r="X50" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>8266</v>
       </c>
-      <c r="C48">
+      <c r="C51">
         <v>961</v>
       </c>
-      <c r="D48" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" t="s">
         <v>85</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F51" t="s">
         <v>86</v>
       </c>
-      <c r="G48" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="4">
+      <c r="G51" t="s">
+        <v>84</v>
+      </c>
+      <c r="H51" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I51" s="4">
         <v>49342000</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J51" s="5">
         <v>44550.377083333333</v>
       </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48" t="s">
-        <v>84</v>
-      </c>
-      <c r="M48" s="4">
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M51" s="4">
         <f t="shared" si="10"/>
         <v>54276200.000000007</v>
       </c>
-      <c r="N48" s="4">
+      <c r="N51" s="4">
         <f t="shared" si="11"/>
         <v>54276200.000000007</v>
       </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48" t="s">
-        <v>84</v>
-      </c>
-      <c r="U48" t="s">
-        <v>87</v>
-      </c>
-      <c r="V48" t="s">
-        <v>84</v>
-      </c>
-      <c r="W48" t="s">
-        <v>84</v>
-      </c>
-      <c r="X48" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>8271</v>
-      </c>
-      <c r="C49">
-        <v>961</v>
-      </c>
-      <c r="D49" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" t="s">
-        <v>85</v>
-      </c>
-      <c r="F49" t="s">
-        <v>86</v>
-      </c>
-      <c r="G49" t="s">
-        <v>84</v>
-      </c>
-      <c r="H49" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I49" s="4">
-        <v>44000000</v>
-      </c>
-      <c r="J49" s="5">
-        <v>44550.377083333333</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49" t="s">
-        <v>84</v>
-      </c>
-      <c r="M49" s="4">
-        <f t="shared" ref="M49" si="12">I49*1.1</f>
-        <v>48400000.000000007</v>
-      </c>
-      <c r="N49" s="4">
-        <f t="shared" ref="N49" si="13">I49*1.1</f>
-        <v>48400000.000000007</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49" t="s">
-        <v>84</v>
-      </c>
-      <c r="U49" t="s">
-        <v>87</v>
-      </c>
-      <c r="V49" t="s">
-        <v>84</v>
-      </c>
-      <c r="W49" t="s">
-        <v>84</v>
-      </c>
-      <c r="X49" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:25" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>8383</v>
-      </c>
-      <c r="C51">
-        <v>968</v>
-      </c>
-      <c r="D51" t="s">
-        <v>84</v>
-      </c>
-      <c r="E51" t="s">
-        <v>85</v>
-      </c>
-      <c r="F51" t="s">
-        <v>86</v>
-      </c>
-      <c r="G51" t="s">
-        <v>84</v>
-      </c>
-      <c r="H51" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I51" s="4">
-        <v>77014000</v>
-      </c>
-      <c r="J51" s="5">
-        <v>44558.439583333333</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M51" s="4">
-        <f t="shared" ref="M51:M52" si="14">I51*1.1</f>
-        <v>84715400</v>
-      </c>
-      <c r="N51" s="4">
-        <f t="shared" ref="N51:N52" si="15">I51*1.1</f>
-        <v>84715400</v>
-      </c>
       <c r="O51">
         <v>0</v>
       </c>
@@ -4892,10 +4897,10 @@
     </row>
     <row r="52" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>8384</v>
+        <v>8271</v>
       </c>
       <c r="C52">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="D52" t="s">
         <v>84</v>
@@ -4913,10 +4918,10 @@
         <v>813445970452000</v>
       </c>
       <c r="I52" s="4">
-        <v>63737000</v>
+        <v>44000000</v>
       </c>
       <c r="J52" s="5">
-        <v>44558.439583333333</v>
+        <v>44550.377083333333</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -4925,12 +4930,12 @@
         <v>84</v>
       </c>
       <c r="M52" s="4">
-        <f t="shared" si="14"/>
-        <v>70110700</v>
+        <f t="shared" ref="M52" si="12">I52*1.1</f>
+        <v>48400000.000000007</v>
       </c>
       <c r="N52" s="4">
-        <f t="shared" si="15"/>
-        <v>70110700</v>
+        <f t="shared" ref="N52" si="13">I52*1.1</f>
+        <v>48400000.000000007</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -4969,10 +4974,10 @@
     <row r="53" spans="2:25" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>8387</v>
+        <v>8383</v>
       </c>
       <c r="C54">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D54" t="s">
         <v>84</v>
@@ -4990,10 +4995,10 @@
         <v>813445970452000</v>
       </c>
       <c r="I54" s="4">
-        <v>99667000</v>
+        <v>77014000</v>
       </c>
       <c r="J54" s="5">
-        <v>44567.619444444441</v>
+        <v>44558.439583333333</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -5002,12 +5007,12 @@
         <v>84</v>
       </c>
       <c r="M54" s="4">
-        <f t="shared" ref="M54:M56" si="16">I54*1.1</f>
-        <v>109633700.00000001</v>
+        <f t="shared" ref="M54:M55" si="14">I54*1.1</f>
+        <v>84715400</v>
       </c>
       <c r="N54" s="4">
-        <f t="shared" ref="N54:N56" si="17">I54*1.1</f>
-        <v>109633700.00000001</v>
+        <f t="shared" ref="N54:N55" si="15">I54*1.1</f>
+        <v>84715400</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -5045,10 +5050,10 @@
     </row>
     <row r="55" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>8388</v>
+        <v>8384</v>
       </c>
       <c r="C55">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D55" t="s">
         <v>84</v>
@@ -5066,260 +5071,254 @@
         <v>813445970452000</v>
       </c>
       <c r="I55" s="4">
+        <v>63737000</v>
+      </c>
+      <c r="J55" s="5">
+        <v>44558.439583333333</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>84</v>
+      </c>
+      <c r="M55" s="4">
+        <f t="shared" si="14"/>
+        <v>70110700</v>
+      </c>
+      <c r="N55" s="4">
+        <f t="shared" si="15"/>
+        <v>70110700</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55" t="s">
+        <v>84</v>
+      </c>
+      <c r="U55" t="s">
+        <v>87</v>
+      </c>
+      <c r="V55" t="s">
+        <v>84</v>
+      </c>
+      <c r="W55" t="s">
+        <v>84</v>
+      </c>
+      <c r="X55" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>8387</v>
+      </c>
+      <c r="C57">
+        <v>970</v>
+      </c>
+      <c r="D57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s">
+        <v>84</v>
+      </c>
+      <c r="H57" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I57" s="4">
+        <v>99667000</v>
+      </c>
+      <c r="J57" s="5">
+        <v>44567.619444444441</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>84</v>
+      </c>
+      <c r="M57" s="4">
+        <f t="shared" ref="M57:M59" si="16">I57*1.1</f>
+        <v>109633700.00000001</v>
+      </c>
+      <c r="N57" s="4">
+        <f t="shared" ref="N57:N59" si="17">I57*1.1</f>
+        <v>109633700.00000001</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57" t="s">
+        <v>84</v>
+      </c>
+      <c r="U57" t="s">
+        <v>87</v>
+      </c>
+      <c r="V57" t="s">
+        <v>84</v>
+      </c>
+      <c r="W57" t="s">
+        <v>84</v>
+      </c>
+      <c r="X57" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>8388</v>
+      </c>
+      <c r="C58">
+        <v>970</v>
+      </c>
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I58" s="4">
         <v>73295000</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J58" s="5">
         <v>44567.619444444441</v>
       </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55" t="s">
-        <v>84</v>
-      </c>
-      <c r="M55" s="4">
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>84</v>
+      </c>
+      <c r="M58" s="4">
         <f t="shared" si="16"/>
         <v>80624500</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N58" s="4">
         <f t="shared" si="17"/>
         <v>80624500</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55" t="s">
-        <v>84</v>
-      </c>
-      <c r="U55" t="s">
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58" t="s">
+        <v>84</v>
+      </c>
+      <c r="U58" t="s">
         <v>87</v>
       </c>
-      <c r="V55" t="s">
-        <v>84</v>
-      </c>
-      <c r="W55" t="s">
-        <v>84</v>
-      </c>
-      <c r="X55" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56">
+      <c r="V58" t="s">
+        <v>84</v>
+      </c>
+      <c r="W58" t="s">
+        <v>84</v>
+      </c>
+      <c r="X58" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59">
         <v>8389</v>
       </c>
-      <c r="C56">
+      <c r="C59">
         <v>971</v>
       </c>
-      <c r="D56" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" t="s">
         <v>85</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F59" t="s">
         <v>86</v>
       </c>
-      <c r="G56" t="s">
-        <v>84</v>
-      </c>
-      <c r="H56" s="4">
+      <c r="G59" t="s">
+        <v>84</v>
+      </c>
+      <c r="H59" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I59" s="4">
         <v>47000000</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J59" s="5">
         <v>44567.619444444441</v>
       </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56" t="s">
-        <v>84</v>
-      </c>
-      <c r="M56" s="4">
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>84</v>
+      </c>
+      <c r="M59" s="4">
         <f t="shared" si="16"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="N56" s="4">
+      <c r="N59" s="4">
         <f t="shared" si="17"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56" t="s">
-        <v>84</v>
-      </c>
-      <c r="U56" t="s">
-        <v>87</v>
-      </c>
-      <c r="V56" t="s">
-        <v>84</v>
-      </c>
-      <c r="W56" t="s">
-        <v>84</v>
-      </c>
-      <c r="X56" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="5"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-    </row>
-    <row r="58" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>8397</v>
-      </c>
-      <c r="C58">
-        <v>976</v>
-      </c>
-      <c r="D58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" t="s">
-        <v>85</v>
-      </c>
-      <c r="F58" t="s">
-        <v>86</v>
-      </c>
-      <c r="G58" t="s">
-        <v>84</v>
-      </c>
-      <c r="H58" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I58" s="4">
-        <v>83414000</v>
-      </c>
-      <c r="J58" s="5">
-        <v>44573.599999999999</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58" t="s">
-        <v>84</v>
-      </c>
-      <c r="M58" s="4">
-        <f t="shared" ref="M58" si="18">I58*1.1</f>
-        <v>91755400</v>
-      </c>
-      <c r="N58" s="4">
-        <f t="shared" ref="N58" si="19">I58*1.1</f>
-        <v>91755400</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58" t="s">
-        <v>84</v>
-      </c>
-      <c r="U58" t="s">
-        <v>87</v>
-      </c>
-      <c r="V58" t="s">
-        <v>84</v>
-      </c>
-      <c r="W58" t="s">
-        <v>84</v>
-      </c>
-      <c r="X58" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>8394</v>
-      </c>
-      <c r="C59">
-        <v>977</v>
-      </c>
-      <c r="D59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59" t="s">
-        <v>86</v>
-      </c>
-      <c r="G59" t="s">
-        <v>84</v>
-      </c>
-      <c r="H59" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I59" s="4">
-        <v>49834000</v>
-      </c>
-      <c r="J59" s="5">
-        <v>44573.599999999999</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59" t="s">
-        <v>84</v>
-      </c>
-      <c r="M59" s="4">
-        <f t="shared" ref="M59:M61" si="20">I59*1.1</f>
-        <v>54817400.000000007</v>
-      </c>
-      <c r="N59" s="4">
-        <f t="shared" ref="N59:N61" si="21">I59*1.1</f>
-        <v>54817400.000000007</v>
-      </c>
       <c r="O59">
         <v>0</v>
       </c>
@@ -5355,633 +5354,633 @@
       </c>
     </row>
     <row r="60" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="5"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>8397</v>
+      </c>
+      <c r="C61">
+        <v>976</v>
+      </c>
+      <c r="D61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s">
+        <v>84</v>
+      </c>
+      <c r="H61" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I61" s="4">
+        <v>83414000</v>
+      </c>
+      <c r="J61" s="5">
+        <v>44573.599999999999</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>84</v>
+      </c>
+      <c r="M61" s="4">
+        <f t="shared" ref="M61" si="18">I61*1.1</f>
+        <v>91755400</v>
+      </c>
+      <c r="N61" s="4">
+        <f t="shared" ref="N61" si="19">I61*1.1</f>
+        <v>91755400</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61" t="s">
+        <v>84</v>
+      </c>
+      <c r="U61" t="s">
+        <v>87</v>
+      </c>
+      <c r="V61" t="s">
+        <v>84</v>
+      </c>
+      <c r="W61" t="s">
+        <v>84</v>
+      </c>
+      <c r="X61" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>8394</v>
+      </c>
+      <c r="C62">
+        <v>977</v>
+      </c>
+      <c r="D62" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H62" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I62" s="4">
+        <v>49834000</v>
+      </c>
+      <c r="J62" s="5">
+        <v>44573.599999999999</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>84</v>
+      </c>
+      <c r="M62" s="4">
+        <f t="shared" ref="M62:M64" si="20">I62*1.1</f>
+        <v>54817400.000000007</v>
+      </c>
+      <c r="N62" s="4">
+        <f t="shared" ref="N62:N64" si="21">I62*1.1</f>
+        <v>54817400.000000007</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62" t="s">
+        <v>84</v>
+      </c>
+      <c r="U62" t="s">
+        <v>87</v>
+      </c>
+      <c r="V62" t="s">
+        <v>84</v>
+      </c>
+      <c r="W62" t="s">
+        <v>84</v>
+      </c>
+      <c r="X62" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63">
         <v>8395</v>
       </c>
-      <c r="C60">
+      <c r="C63">
         <v>977</v>
       </c>
-      <c r="D60" t="s">
-        <v>84</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" t="s">
         <v>85</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F63" t="s">
         <v>86</v>
       </c>
-      <c r="G60" t="s">
-        <v>84</v>
-      </c>
-      <c r="H60" s="4">
+      <c r="G63" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I63" s="4">
         <v>76349000</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J63" s="5">
         <v>44573.599999999999</v>
       </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60" t="s">
-        <v>84</v>
-      </c>
-      <c r="M60" s="4">
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>84</v>
+      </c>
+      <c r="M63" s="4">
         <f t="shared" si="20"/>
         <v>83983900</v>
       </c>
-      <c r="N60" s="4">
+      <c r="N63" s="4">
         <f t="shared" si="21"/>
         <v>83983900</v>
       </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60" t="s">
-        <v>84</v>
-      </c>
-      <c r="U60" t="s">
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63" t="s">
+        <v>84</v>
+      </c>
+      <c r="U63" t="s">
         <v>87</v>
       </c>
-      <c r="V60" t="s">
-        <v>84</v>
-      </c>
-      <c r="W60" t="s">
-        <v>84</v>
-      </c>
-      <c r="X60" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61">
+      <c r="V63" t="s">
+        <v>84</v>
+      </c>
+      <c r="W63" t="s">
+        <v>84</v>
+      </c>
+      <c r="X63" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64">
         <v>8396</v>
       </c>
-      <c r="C61">
+      <c r="C64">
         <v>977</v>
       </c>
-      <c r="D61" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" t="s">
         <v>85</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F64" t="s">
         <v>86</v>
       </c>
-      <c r="G61" t="s">
-        <v>84</v>
-      </c>
-      <c r="H61" s="4">
+      <c r="G64" t="s">
+        <v>84</v>
+      </c>
+      <c r="H64" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I64" s="4">
         <v>73295000</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J64" s="5">
         <v>44573.599999999999</v>
       </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
-        <v>84</v>
-      </c>
-      <c r="M61" s="4">
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>84</v>
+      </c>
+      <c r="M64" s="4">
         <f t="shared" si="20"/>
         <v>80624500</v>
       </c>
-      <c r="N61" s="4">
+      <c r="N64" s="4">
         <f t="shared" si="21"/>
         <v>80624500</v>
       </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61" t="s">
-        <v>84</v>
-      </c>
-      <c r="U61" t="s">
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64" t="s">
+        <v>84</v>
+      </c>
+      <c r="U64" t="s">
         <v>87</v>
       </c>
-      <c r="V61" t="s">
-        <v>84</v>
-      </c>
-      <c r="W61" t="s">
-        <v>84</v>
-      </c>
-      <c r="X61" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="5"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-    </row>
-    <row r="63" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63">
+      <c r="V64" t="s">
+        <v>84</v>
+      </c>
+      <c r="W64" t="s">
+        <v>84</v>
+      </c>
+      <c r="X64" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="5"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66">
         <v>8405</v>
       </c>
-      <c r="C63">
+      <c r="C66">
         <v>981</v>
       </c>
-      <c r="D63" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D66" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" t="s">
         <v>85</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F66" t="s">
         <v>86</v>
       </c>
-      <c r="G63" t="s">
-        <v>84</v>
-      </c>
-      <c r="H63" s="4">
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I66" s="4">
         <v>140362000</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J66" s="5">
         <v>44579.643750000003</v>
       </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63" t="s">
-        <v>84</v>
-      </c>
-      <c r="M63" s="4">
-        <f t="shared" ref="M63:M66" si="22">I63*1.1</f>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
+        <v>84</v>
+      </c>
+      <c r="M66" s="4">
+        <f t="shared" ref="M66:M69" si="22">I66*1.1</f>
         <v>154398200</v>
       </c>
-      <c r="N63" s="4">
-        <f t="shared" ref="N63:N66" si="23">I63*1.1</f>
+      <c r="N66" s="4">
+        <f t="shared" ref="N66:N69" si="23">I66*1.1</f>
         <v>154398200</v>
       </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63" t="s">
-        <v>84</v>
-      </c>
-      <c r="U63" t="s">
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66" t="s">
+        <v>84</v>
+      </c>
+      <c r="U66" t="s">
         <v>87</v>
       </c>
-      <c r="V63" t="s">
-        <v>84</v>
-      </c>
-      <c r="W63" t="s">
-        <v>84</v>
-      </c>
-      <c r="X63" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64">
+      <c r="V66" t="s">
+        <v>84</v>
+      </c>
+      <c r="W66" t="s">
+        <v>84</v>
+      </c>
+      <c r="X66" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67">
         <v>8406</v>
       </c>
-      <c r="C64">
+      <c r="C67">
         <v>981</v>
       </c>
-      <c r="D64" t="s">
-        <v>84</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D67" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" t="s">
         <v>85</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F67" t="s">
         <v>86</v>
       </c>
-      <c r="G64" t="s">
-        <v>84</v>
-      </c>
-      <c r="H64" s="4">
+      <c r="G67" t="s">
+        <v>84</v>
+      </c>
+      <c r="H67" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I67" s="4">
         <v>227793000</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J67" s="5">
         <v>44579.643750000003</v>
       </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64" t="s">
-        <v>84</v>
-      </c>
-      <c r="M64" s="4">
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>84</v>
+      </c>
+      <c r="M67" s="4">
         <f t="shared" si="22"/>
         <v>250572300.00000003</v>
       </c>
-      <c r="N64" s="4">
+      <c r="N67" s="4">
         <f t="shared" si="23"/>
         <v>250572300.00000003</v>
       </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="T64" t="s">
-        <v>84</v>
-      </c>
-      <c r="U64" t="s">
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67" t="s">
+        <v>84</v>
+      </c>
+      <c r="U67" t="s">
         <v>87</v>
       </c>
-      <c r="V64" t="s">
-        <v>84</v>
-      </c>
-      <c r="W64" t="s">
-        <v>84</v>
-      </c>
-      <c r="X64" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65">
+      <c r="V67" t="s">
+        <v>84</v>
+      </c>
+      <c r="W67" t="s">
+        <v>84</v>
+      </c>
+      <c r="X67" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68">
         <v>8407</v>
       </c>
-      <c r="C65">
+      <c r="C68">
         <v>981</v>
       </c>
-      <c r="D65" t="s">
-        <v>84</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D68" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" t="s">
         <v>85</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F68" t="s">
         <v>86</v>
       </c>
-      <c r="G65" t="s">
-        <v>84</v>
-      </c>
-      <c r="H65" s="4">
+      <c r="G68" t="s">
+        <v>84</v>
+      </c>
+      <c r="H68" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I68" s="4">
         <v>73295000</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J68" s="5">
         <v>44579.643750000003</v>
       </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65" t="s">
-        <v>84</v>
-      </c>
-      <c r="M65" s="4">
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>84</v>
+      </c>
+      <c r="M68" s="4">
         <f t="shared" si="22"/>
         <v>80624500</v>
       </c>
-      <c r="N65" s="4">
+      <c r="N68" s="4">
         <f t="shared" si="23"/>
         <v>80624500</v>
       </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65" t="s">
-        <v>84</v>
-      </c>
-      <c r="U65" t="s">
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68" t="s">
+        <v>84</v>
+      </c>
+      <c r="U68" t="s">
         <v>87</v>
       </c>
-      <c r="V65" t="s">
-        <v>84</v>
-      </c>
-      <c r="W65" t="s">
-        <v>84</v>
-      </c>
-      <c r="X65" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66">
+      <c r="V68" t="s">
+        <v>84</v>
+      </c>
+      <c r="W68" t="s">
+        <v>84</v>
+      </c>
+      <c r="X68" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69">
         <v>8408</v>
       </c>
-      <c r="C66">
+      <c r="C69">
         <v>981</v>
       </c>
-      <c r="D66" t="s">
-        <v>84</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D69" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" t="s">
         <v>85</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F69" t="s">
         <v>86</v>
       </c>
-      <c r="G66" t="s">
-        <v>84</v>
-      </c>
-      <c r="H66" s="4">
+      <c r="G69" t="s">
+        <v>84</v>
+      </c>
+      <c r="H69" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I69" s="4">
         <v>70097000</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J69" s="5">
         <v>44579.643750000003</v>
       </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66" t="s">
-        <v>84</v>
-      </c>
-      <c r="M66" s="4">
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>84</v>
+      </c>
+      <c r="M69" s="4">
         <f t="shared" si="22"/>
         <v>77106700</v>
       </c>
-      <c r="N66" s="4">
+      <c r="N69" s="4">
         <f t="shared" si="23"/>
         <v>77106700</v>
       </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66" t="s">
-        <v>84</v>
-      </c>
-      <c r="U66" t="s">
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69" t="s">
+        <v>84</v>
+      </c>
+      <c r="U69" t="s">
         <v>87</v>
       </c>
-      <c r="V66" t="s">
-        <v>84</v>
-      </c>
-      <c r="W66" t="s">
-        <v>84</v>
-      </c>
-      <c r="X66" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>8404</v>
-      </c>
-      <c r="C67">
-        <v>982</v>
-      </c>
-      <c r="D67" t="s">
-        <v>84</v>
-      </c>
-      <c r="E67" t="s">
-        <v>85</v>
-      </c>
-      <c r="F67" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s">
-        <v>84</v>
-      </c>
-      <c r="H67" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I67" s="4">
-        <v>48899000</v>
-      </c>
-      <c r="J67" s="5">
-        <v>44579.643750000003</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67" t="s">
-        <v>84</v>
-      </c>
-      <c r="M67" s="4">
-        <f t="shared" ref="M67" si="24">I67*1.1</f>
-        <v>53788900.000000007</v>
-      </c>
-      <c r="N67" s="4">
-        <f t="shared" ref="N67" si="25">I67*1.1</f>
-        <v>53788900.000000007</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67" t="s">
-        <v>84</v>
-      </c>
-      <c r="U67" t="s">
-        <v>87</v>
-      </c>
-      <c r="V67" t="s">
-        <v>84</v>
-      </c>
-      <c r="W67" t="s">
-        <v>84</v>
-      </c>
-      <c r="X67" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>8403</v>
-      </c>
-      <c r="C68">
-        <v>983</v>
-      </c>
-      <c r="D68" t="s">
-        <v>84</v>
-      </c>
-      <c r="E68" t="s">
-        <v>85</v>
-      </c>
-      <c r="F68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G68" t="s">
-        <v>84</v>
-      </c>
-      <c r="H68" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I68" s="4">
-        <v>34464000</v>
-      </c>
-      <c r="J68" s="5">
-        <v>44579.643750000003</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68" t="s">
-        <v>84</v>
-      </c>
-      <c r="M68" s="4">
-        <f t="shared" ref="M68" si="26">I68*1.1</f>
-        <v>37910400</v>
-      </c>
-      <c r="N68" s="4">
-        <f t="shared" ref="N68" si="27">I68*1.1</f>
-        <v>37910400</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-      <c r="T68" t="s">
-        <v>84</v>
-      </c>
-      <c r="U68" t="s">
-        <v>87</v>
-      </c>
-      <c r="V68" t="s">
-        <v>84</v>
-      </c>
-      <c r="W68" t="s">
-        <v>84</v>
-      </c>
-      <c r="X68" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="5"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
+      <c r="V69" t="s">
+        <v>84</v>
+      </c>
+      <c r="W69" t="s">
+        <v>84</v>
+      </c>
+      <c r="X69" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>8409</v>
+        <v>8404</v>
       </c>
       <c r="C70">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D70" t="s">
         <v>84</v>
@@ -5999,10 +5998,10 @@
         <v>813445970452000</v>
       </c>
       <c r="I70" s="4">
-        <v>182069000</v>
+        <v>48899000</v>
       </c>
       <c r="J70" s="5">
-        <v>44580.590277777781</v>
+        <v>44579.643750000003</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -6011,12 +6010,12 @@
         <v>84</v>
       </c>
       <c r="M70" s="4">
-        <f t="shared" ref="M70" si="28">I70*1.1</f>
-        <v>200275900.00000003</v>
+        <f t="shared" ref="M70" si="24">I70*1.1</f>
+        <v>53788900.000000007</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" ref="N70" si="29">I70*1.1</f>
-        <v>200275900.00000003</v>
+        <f t="shared" ref="N70" si="25">I70*1.1</f>
+        <v>53788900.000000007</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -6053,94 +6052,94 @@
       </c>
     </row>
     <row r="71" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="5"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
+      <c r="B71">
+        <v>8403</v>
+      </c>
+      <c r="C71">
+        <v>983</v>
+      </c>
+      <c r="D71" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F71" t="s">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s">
+        <v>84</v>
+      </c>
+      <c r="H71" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I71" s="4">
+        <v>34464000</v>
+      </c>
+      <c r="J71" s="5">
+        <v>44579.643750000003</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>84</v>
+      </c>
+      <c r="M71" s="4">
+        <f t="shared" ref="M71" si="26">I71*1.1</f>
+        <v>37910400</v>
+      </c>
+      <c r="N71" s="4">
+        <f t="shared" ref="N71" si="27">I71*1.1</f>
+        <v>37910400</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71" t="s">
+        <v>84</v>
+      </c>
+      <c r="U71" t="s">
+        <v>87</v>
+      </c>
+      <c r="V71" t="s">
+        <v>84</v>
+      </c>
+      <c r="W71" t="s">
+        <v>84</v>
+      </c>
+      <c r="X71" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y71">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>8419</v>
-      </c>
-      <c r="C72">
-        <v>989</v>
-      </c>
-      <c r="D72" t="s">
-        <v>84</v>
-      </c>
-      <c r="E72" t="s">
-        <v>85</v>
-      </c>
-      <c r="F72" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72" t="s">
-        <v>84</v>
-      </c>
-      <c r="H72" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I72" s="4">
-        <v>42546000</v>
-      </c>
-      <c r="J72" s="5">
-        <v>44587.427777777775</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72" t="s">
-        <v>84</v>
-      </c>
-      <c r="M72" s="4">
-        <f t="shared" ref="M72:M74" si="30">I72*1.1</f>
-        <v>46800600.000000007</v>
-      </c>
-      <c r="N72" s="4">
-        <f t="shared" ref="N72:N74" si="31">I72*1.1</f>
-        <v>46800600.000000007</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-      <c r="T72" t="s">
-        <v>84</v>
-      </c>
-      <c r="U72" t="s">
-        <v>87</v>
-      </c>
-      <c r="V72" t="s">
-        <v>84</v>
-      </c>
-      <c r="W72" t="s">
-        <v>84</v>
-      </c>
-      <c r="X72" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y72">
-        <v>1</v>
-      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="5"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
     </row>
     <row r="73" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>8417</v>
+        <v>8409</v>
       </c>
       <c r="C73">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="D73" t="s">
         <v>84</v>
@@ -6158,260 +6157,260 @@
         <v>813445970452000</v>
       </c>
       <c r="I73" s="4">
+        <v>182069000</v>
+      </c>
+      <c r="J73" s="5">
+        <v>44580.590277777781</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" t="s">
+        <v>84</v>
+      </c>
+      <c r="M73" s="4">
+        <f t="shared" ref="M73" si="28">I73*1.1</f>
+        <v>200275900.00000003</v>
+      </c>
+      <c r="N73" s="4">
+        <f t="shared" ref="N73" si="29">I73*1.1</f>
+        <v>200275900.00000003</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73" t="s">
+        <v>84</v>
+      </c>
+      <c r="U73" t="s">
+        <v>87</v>
+      </c>
+      <c r="V73" t="s">
+        <v>84</v>
+      </c>
+      <c r="W73" t="s">
+        <v>84</v>
+      </c>
+      <c r="X73" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="5"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>8419</v>
+      </c>
+      <c r="C75">
+        <v>989</v>
+      </c>
+      <c r="D75" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" t="s">
+        <v>85</v>
+      </c>
+      <c r="F75" t="s">
+        <v>86</v>
+      </c>
+      <c r="G75" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I75" s="4">
+        <v>42546000</v>
+      </c>
+      <c r="J75" s="5">
+        <v>44587.427777777775</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>84</v>
+      </c>
+      <c r="M75" s="4">
+        <f t="shared" ref="M75:M77" si="30">I75*1.1</f>
+        <v>46800600.000000007</v>
+      </c>
+      <c r="N75" s="4">
+        <f t="shared" ref="N75:N77" si="31">I75*1.1</f>
+        <v>46800600.000000007</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75" t="s">
+        <v>84</v>
+      </c>
+      <c r="U75" t="s">
+        <v>87</v>
+      </c>
+      <c r="V75" t="s">
+        <v>84</v>
+      </c>
+      <c r="W75" t="s">
+        <v>84</v>
+      </c>
+      <c r="X75" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>8417</v>
+      </c>
+      <c r="C76">
+        <v>990</v>
+      </c>
+      <c r="D76" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76" t="s">
+        <v>85</v>
+      </c>
+      <c r="F76" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" t="s">
+        <v>84</v>
+      </c>
+      <c r="H76" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I76" s="4">
         <v>57056000</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J76" s="5">
         <v>44587.427777777775</v>
       </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73" t="s">
-        <v>84</v>
-      </c>
-      <c r="M73" s="4">
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>84</v>
+      </c>
+      <c r="M76" s="4">
         <f t="shared" si="30"/>
         <v>62761600.000000007</v>
       </c>
-      <c r="N73" s="4">
+      <c r="N76" s="4">
         <f t="shared" si="31"/>
         <v>62761600.000000007</v>
       </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-      <c r="T73" t="s">
-        <v>84</v>
-      </c>
-      <c r="U73" t="s">
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76" t="s">
+        <v>84</v>
+      </c>
+      <c r="U76" t="s">
         <v>87</v>
       </c>
-      <c r="V73" t="s">
-        <v>84</v>
-      </c>
-      <c r="W73" t="s">
-        <v>84</v>
-      </c>
-      <c r="X73" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74">
+      <c r="V76" t="s">
+        <v>84</v>
+      </c>
+      <c r="W76" t="s">
+        <v>84</v>
+      </c>
+      <c r="X76" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77">
         <v>8418</v>
       </c>
-      <c r="C74">
+      <c r="C77">
         <v>990</v>
       </c>
-      <c r="D74" t="s">
-        <v>84</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="D77" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" t="s">
         <v>85</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F77" t="s">
         <v>86</v>
       </c>
-      <c r="G74" t="s">
-        <v>84</v>
-      </c>
-      <c r="H74" s="4">
+      <c r="G77" t="s">
+        <v>84</v>
+      </c>
+      <c r="H77" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I74" s="4">
+      <c r="I77" s="4">
         <v>66218000</v>
       </c>
-      <c r="J74" s="5">
+      <c r="J77" s="5">
         <v>44587.427777777775</v>
       </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74" t="s">
-        <v>84</v>
-      </c>
-      <c r="M74" s="4">
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>84</v>
+      </c>
+      <c r="M77" s="4">
         <f t="shared" si="30"/>
         <v>72839800</v>
       </c>
-      <c r="N74" s="4">
+      <c r="N77" s="4">
         <f t="shared" si="31"/>
         <v>72839800</v>
       </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74" t="s">
-        <v>84</v>
-      </c>
-      <c r="U74" t="s">
-        <v>87</v>
-      </c>
-      <c r="V74" t="s">
-        <v>84</v>
-      </c>
-      <c r="W74" t="s">
-        <v>84</v>
-      </c>
-      <c r="X74" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>8420</v>
-      </c>
-      <c r="C75">
-        <v>990</v>
-      </c>
-      <c r="D75" t="s">
-        <v>84</v>
-      </c>
-      <c r="E75" t="s">
-        <v>85</v>
-      </c>
-      <c r="F75" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" t="s">
-        <v>84</v>
-      </c>
-      <c r="H75" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I75" s="4">
-        <v>102672000</v>
-      </c>
-      <c r="J75" s="5">
-        <v>44587.427777777775</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75" t="s">
-        <v>84</v>
-      </c>
-      <c r="M75" s="4">
-        <f>I75*1.1</f>
-        <v>112939200.00000001</v>
-      </c>
-      <c r="N75" s="4">
-        <f>I75*1.1</f>
-        <v>112939200.00000001</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75" t="s">
-        <v>84</v>
-      </c>
-      <c r="U75" t="s">
-        <v>87</v>
-      </c>
-      <c r="V75" t="s">
-        <v>84</v>
-      </c>
-      <c r="W75" t="s">
-        <v>84</v>
-      </c>
-      <c r="X75" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="5"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-    </row>
-    <row r="77" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <v>8439</v>
-      </c>
-      <c r="C77">
-        <v>999</v>
-      </c>
-      <c r="D77" t="s">
-        <v>84</v>
-      </c>
-      <c r="E77" t="s">
-        <v>85</v>
-      </c>
-      <c r="F77" t="s">
-        <v>86</v>
-      </c>
-      <c r="G77" t="s">
-        <v>84</v>
-      </c>
-      <c r="H77" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I77" s="4">
-        <v>165421000</v>
-      </c>
-      <c r="J77" s="5">
-        <v>44608.619444444441</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77" t="s">
-        <v>84</v>
-      </c>
-      <c r="M77" s="4">
-        <f>I77*1.11</f>
-        <v>183617310.00000003</v>
-      </c>
-      <c r="N77" s="4">
-        <f>I77*1.11</f>
-        <v>183617310.00000003</v>
-      </c>
       <c r="O77">
         <v>0</v>
       </c>
@@ -6448,10 +6447,10 @@
     </row>
     <row r="78" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>8444</v>
+        <v>8420</v>
       </c>
       <c r="C78">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="D78" t="s">
         <v>84</v>
@@ -6469,10 +6468,10 @@
         <v>813445970452000</v>
       </c>
       <c r="I78" s="4">
-        <v>48452000</v>
+        <v>102672000</v>
       </c>
       <c r="J78" s="5">
-        <v>44614.55972222222</v>
+        <v>44587.427777777775</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -6481,12 +6480,12 @@
         <v>84</v>
       </c>
       <c r="M78" s="4">
-        <f>I78*1.11</f>
-        <v>53781720.000000007</v>
+        <f>I78*1.1</f>
+        <v>112939200.00000001</v>
       </c>
       <c r="N78" s="4">
-        <f>I78*1.11</f>
-        <v>53781720.000000007</v>
+        <f>I78*1.1</f>
+        <v>112939200.00000001</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -6522,914 +6521,914 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="5"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>8439</v>
+      </c>
+      <c r="C80">
+        <v>999</v>
+      </c>
+      <c r="D80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" t="s">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s">
+        <v>84</v>
+      </c>
+      <c r="H80" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I80" s="4">
+        <v>165421000</v>
+      </c>
+      <c r="J80" s="5">
+        <v>44608.619444444441</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>84</v>
+      </c>
+      <c r="M80" s="4">
+        <f>I80*1.11</f>
+        <v>183617310.00000003</v>
+      </c>
+      <c r="N80" s="4">
+        <f>I80*1.11</f>
+        <v>183617310.00000003</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80" t="s">
+        <v>84</v>
+      </c>
+      <c r="U80" t="s">
+        <v>87</v>
+      </c>
+      <c r="V80" t="s">
+        <v>84</v>
+      </c>
+      <c r="W80" t="s">
+        <v>84</v>
+      </c>
+      <c r="X80" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>8444</v>
+      </c>
+      <c r="C81">
+        <v>1002</v>
+      </c>
+      <c r="D81" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" t="s">
+        <v>85</v>
+      </c>
+      <c r="F81" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" t="s">
+        <v>84</v>
+      </c>
+      <c r="H81" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I81" s="4">
+        <v>48452000</v>
+      </c>
+      <c r="J81" s="5">
+        <v>44614.55972222222</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
+        <v>84</v>
+      </c>
+      <c r="M81" s="4">
+        <f>I81*1.11</f>
+        <v>53781720.000000007</v>
+      </c>
+      <c r="N81" s="4">
+        <f>I81*1.11</f>
+        <v>53781720.000000007</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81" t="s">
+        <v>84</v>
+      </c>
+      <c r="U81" t="s">
+        <v>87</v>
+      </c>
+      <c r="V81" t="s">
+        <v>84</v>
+      </c>
+      <c r="W81" t="s">
+        <v>84</v>
+      </c>
+      <c r="X81" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82">
         <v>8446</v>
       </c>
-      <c r="C79">
+      <c r="C82">
         <v>1005</v>
       </c>
-      <c r="D79" t="s">
-        <v>84</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="D82" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" t="s">
         <v>85</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F82" t="s">
         <v>86</v>
       </c>
-      <c r="G79" t="s">
-        <v>84</v>
-      </c>
-      <c r="H79" s="4">
+      <c r="G82" t="s">
+        <v>84</v>
+      </c>
+      <c r="H82" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I82" s="4">
         <v>47365000</v>
       </c>
-      <c r="J79" s="5">
+      <c r="J82" s="5">
         <v>44626.518750000003</v>
       </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79" t="s">
-        <v>84</v>
-      </c>
-      <c r="M79" s="4">
-        <f>I79*1.11</f>
-        <v>52575150.000000007</v>
-      </c>
-      <c r="N79" s="4">
-        <f>I79*1.11</f>
-        <v>52575150.000000007</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79" t="s">
-        <v>84</v>
-      </c>
-      <c r="U79" t="s">
-        <v>87</v>
-      </c>
-      <c r="V79" t="s">
-        <v>84</v>
-      </c>
-      <c r="W79" t="s">
-        <v>84</v>
-      </c>
-      <c r="X79" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="5"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-    </row>
-    <row r="81" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="18">
-        <v>8484</v>
-      </c>
-      <c r="C81" s="18">
-        <v>1026</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G81" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H81" s="19">
-        <v>813445970452000</v>
-      </c>
-      <c r="I81" s="20">
-        <v>47365000</v>
-      </c>
-      <c r="J81" s="21">
-        <f ca="1">NOW()</f>
-        <v>44728.907056944445</v>
-      </c>
-      <c r="K81" s="18">
-        <v>1</v>
-      </c>
-      <c r="L81" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="M81" s="20">
-        <f>I81*1.11</f>
-        <v>52575150.000000007</v>
-      </c>
-      <c r="N81" s="20">
-        <f>I81*1.11</f>
-        <v>52575150.000000007</v>
-      </c>
-      <c r="O81" s="18">
-        <v>0</v>
-      </c>
-      <c r="P81" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="18">
-        <v>0</v>
-      </c>
-      <c r="R81" s="18">
-        <v>0</v>
-      </c>
-      <c r="S81" s="18">
-        <v>0</v>
-      </c>
-      <c r="T81" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="U81" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="V81" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="W81" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="X81" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y81" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="18">
-        <v>8485</v>
-      </c>
-      <c r="C82" s="18">
-        <v>1026</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F82" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G82" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H82" s="19">
-        <v>813445970452000</v>
-      </c>
-      <c r="I82" s="20">
-        <v>47365000</v>
-      </c>
-      <c r="J82" s="21">
-        <f ca="1">NOW()</f>
-        <v>44728.907056944445</v>
-      </c>
-      <c r="K82" s="18">
-        <v>1</v>
-      </c>
-      <c r="L82" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="M82" s="20">
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>84</v>
+      </c>
+      <c r="M82" s="4">
         <f>I82*1.11</f>
         <v>52575150.000000007</v>
       </c>
-      <c r="N82" s="20">
+      <c r="N82" s="4">
         <f>I82*1.11</f>
         <v>52575150.000000007</v>
       </c>
-      <c r="O82" s="18">
-        <v>0</v>
-      </c>
-      <c r="P82" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="18">
-        <v>0</v>
-      </c>
-      <c r="R82" s="18">
-        <v>0</v>
-      </c>
-      <c r="S82" s="18">
-        <v>0</v>
-      </c>
-      <c r="T82" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="U82" s="18" t="s">
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82" t="s">
+        <v>84</v>
+      </c>
+      <c r="U82" t="s">
         <v>87</v>
       </c>
-      <c r="V82" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="W82" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="X82" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y82" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="18">
+      <c r="V82" t="s">
+        <v>84</v>
+      </c>
+      <c r="W82" t="s">
+        <v>84</v>
+      </c>
+      <c r="X82" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="5"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="2:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="18">
+        <v>8484</v>
+      </c>
+      <c r="C84" s="18">
+        <v>1026</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H84" s="19">
+        <v>813445970452000</v>
+      </c>
+      <c r="I84" s="20">
+        <v>47365000</v>
+      </c>
+      <c r="J84" s="21">
+        <f ca="1">NOW()</f>
+        <v>44736.681569675929</v>
+      </c>
+      <c r="K84" s="18">
+        <v>1</v>
+      </c>
+      <c r="L84" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M84" s="20">
+        <f>I84*1.11</f>
+        <v>52575150.000000007</v>
+      </c>
+      <c r="N84" s="20">
+        <f>I84*1.11</f>
+        <v>52575150.000000007</v>
+      </c>
+      <c r="O84" s="18">
+        <v>0</v>
+      </c>
+      <c r="P84" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="18">
+        <v>0</v>
+      </c>
+      <c r="R84" s="18">
+        <v>0</v>
+      </c>
+      <c r="S84" s="18">
+        <v>0</v>
+      </c>
+      <c r="T84" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="U84" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="V84" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="W84" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="X84" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y84" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="18">
+        <v>8485</v>
+      </c>
+      <c r="C85" s="18">
+        <v>1026</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H85" s="19">
+        <v>813445970452000</v>
+      </c>
+      <c r="I85" s="20">
+        <v>47365000</v>
+      </c>
+      <c r="J85" s="21">
+        <f ca="1">NOW()</f>
+        <v>44736.681569675929</v>
+      </c>
+      <c r="K85" s="18">
+        <v>1</v>
+      </c>
+      <c r="L85" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M85" s="20">
+        <f>I85*1.11</f>
+        <v>52575150.000000007</v>
+      </c>
+      <c r="N85" s="20">
+        <f>I85*1.11</f>
+        <v>52575150.000000007</v>
+      </c>
+      <c r="O85" s="18">
+        <v>0</v>
+      </c>
+      <c r="P85" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="18">
+        <v>0</v>
+      </c>
+      <c r="R85" s="18">
+        <v>0</v>
+      </c>
+      <c r="S85" s="18">
+        <v>0</v>
+      </c>
+      <c r="T85" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="U85" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="V85" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="W85" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="X85" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y85" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="18">
         <v>8486</v>
       </c>
-      <c r="C83" s="18">
+      <c r="C86" s="18">
         <v>1025</v>
       </c>
-      <c r="D83" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E83" s="18" t="s">
+      <c r="D86" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F86" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="G83" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H83" s="19">
+      <c r="G86" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H86" s="19">
         <v>813445970452000</v>
       </c>
-      <c r="I83" s="20">
+      <c r="I86" s="20">
         <v>139934000</v>
       </c>
-      <c r="J83" s="21">
+      <c r="J86" s="21">
         <f ca="1">NOW()</f>
-        <v>44728.907056944445</v>
-      </c>
-      <c r="K83" s="18">
-        <v>1</v>
-      </c>
-      <c r="L83" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="M83" s="20">
-        <f>I83*1.11</f>
+        <v>44736.681569675929</v>
+      </c>
+      <c r="K86" s="18">
+        <v>1</v>
+      </c>
+      <c r="L86" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M86" s="20">
+        <f>I86*1.11</f>
         <v>155326740</v>
       </c>
-      <c r="N83" s="20">
-        <f>I83*1.11</f>
+      <c r="N86" s="20">
+        <f>I86*1.11</f>
         <v>155326740</v>
       </c>
-      <c r="O83" s="18">
-        <v>0</v>
-      </c>
-      <c r="P83" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="18">
-        <v>0</v>
-      </c>
-      <c r="R83" s="18">
-        <v>0</v>
-      </c>
-      <c r="S83" s="18">
-        <v>0</v>
-      </c>
-      <c r="T83" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="U83" s="18" t="s">
+      <c r="O86" s="18">
+        <v>0</v>
+      </c>
+      <c r="P86" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="18">
+        <v>0</v>
+      </c>
+      <c r="R86" s="18">
+        <v>0</v>
+      </c>
+      <c r="S86" s="18">
+        <v>0</v>
+      </c>
+      <c r="T86" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="U86" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="V83" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="W83" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="X83" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y83" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="5"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-    </row>
-    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85">
+      <c r="V86" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="W86" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="X86" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y86" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="5"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B88">
         <v>8490</v>
       </c>
-      <c r="C85">
+      <c r="C88">
         <v>1037</v>
       </c>
-      <c r="D85" t="s">
-        <v>84</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="D88" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" t="s">
         <v>85</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F88" t="s">
         <v>86</v>
       </c>
-      <c r="G85" t="s">
-        <v>84</v>
-      </c>
-      <c r="H85" s="4">
+      <c r="G88" t="s">
+        <v>84</v>
+      </c>
+      <c r="H88" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I88" s="4">
         <v>54803000</v>
       </c>
-      <c r="J85" s="5">
+      <c r="J88" s="5">
         <f ca="1">NOW()</f>
-        <v>44728.907056944445</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85" t="s">
-        <v>84</v>
-      </c>
-      <c r="M85" s="4">
-        <f t="shared" ref="M85:M90" si="32">I85*1.11</f>
+        <v>44736.681569675929</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
+        <v>84</v>
+      </c>
+      <c r="M88" s="4">
+        <f t="shared" ref="M88:M93" si="32">I88*1.11</f>
         <v>60831330.000000007</v>
       </c>
-      <c r="N85" s="4">
-        <f t="shared" ref="N85:N90" si="33">I85*1.11</f>
+      <c r="N88" s="4">
+        <f t="shared" ref="N88:N93" si="33">I88*1.11</f>
         <v>60831330.000000007</v>
       </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-      <c r="T85" t="s">
-        <v>84</v>
-      </c>
-      <c r="U85" t="s">
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88" t="s">
+        <v>84</v>
+      </c>
+      <c r="U88" t="s">
         <v>87</v>
       </c>
-      <c r="V85" t="s">
-        <v>84</v>
-      </c>
-      <c r="W85" t="s">
-        <v>84</v>
-      </c>
-      <c r="X85" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86">
+      <c r="V88" t="s">
+        <v>84</v>
+      </c>
+      <c r="W88" t="s">
+        <v>84</v>
+      </c>
+      <c r="X88" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B89">
         <v>8491</v>
       </c>
-      <c r="C86">
+      <c r="C89">
         <v>1037</v>
       </c>
-      <c r="D86" t="s">
-        <v>84</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D89" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" t="s">
         <v>85</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F89" t="s">
         <v>86</v>
       </c>
-      <c r="G86" t="s">
-        <v>84</v>
-      </c>
-      <c r="H86" s="4">
+      <c r="G89" t="s">
+        <v>84</v>
+      </c>
+      <c r="H89" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I86" s="4">
+      <c r="I89" s="4">
         <v>95844000</v>
       </c>
-      <c r="J86" s="5">
-        <f t="shared" ref="J86:J93" ca="1" si="34">NOW()</f>
-        <v>44728.907056944445</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86" t="s">
-        <v>84</v>
-      </c>
-      <c r="M86" s="4">
+      <c r="J89" s="5">
+        <f t="shared" ref="J89:J103" ca="1" si="34">NOW()</f>
+        <v>44736.681569675929</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
+        <v>84</v>
+      </c>
+      <c r="M89" s="4">
         <f t="shared" si="32"/>
         <v>106386840.00000001</v>
       </c>
-      <c r="N86" s="4">
+      <c r="N89" s="4">
         <f t="shared" si="33"/>
         <v>106386840.00000001</v>
       </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
-      <c r="T86" t="s">
-        <v>84</v>
-      </c>
-      <c r="U86" t="s">
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89" t="s">
+        <v>84</v>
+      </c>
+      <c r="U89" t="s">
         <v>87</v>
       </c>
-      <c r="V86" t="s">
-        <v>84</v>
-      </c>
-      <c r="W86" t="s">
-        <v>84</v>
-      </c>
-      <c r="X86" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87">
+      <c r="V89" t="s">
+        <v>84</v>
+      </c>
+      <c r="W89" t="s">
+        <v>84</v>
+      </c>
+      <c r="X89" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B90">
         <v>8492</v>
       </c>
-      <c r="C87">
+      <c r="C90">
         <v>1037</v>
       </c>
-      <c r="D87" t="s">
-        <v>84</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="D90" t="s">
+        <v>84</v>
+      </c>
+      <c r="E90" t="s">
         <v>85</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F90" t="s">
         <v>86</v>
       </c>
-      <c r="G87" t="s">
-        <v>84</v>
-      </c>
-      <c r="H87" s="4">
+      <c r="G90" t="s">
+        <v>84</v>
+      </c>
+      <c r="H90" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I87" s="4">
+      <c r="I90" s="4">
         <v>95844000</v>
       </c>
-      <c r="J87" s="5">
+      <c r="J90" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44728.907056944445</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87" t="s">
-        <v>84</v>
-      </c>
-      <c r="M87" s="4">
+        <v>44736.681569675929</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
+        <v>84</v>
+      </c>
+      <c r="M90" s="4">
         <f t="shared" si="32"/>
         <v>106386840.00000001</v>
       </c>
-      <c r="N87" s="4">
+      <c r="N90" s="4">
         <f t="shared" si="33"/>
         <v>106386840.00000001</v>
       </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
-      <c r="T87" t="s">
-        <v>84</v>
-      </c>
-      <c r="U87" t="s">
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90" t="s">
+        <v>84</v>
+      </c>
+      <c r="U90" t="s">
         <v>87</v>
       </c>
-      <c r="V87" t="s">
-        <v>84</v>
-      </c>
-      <c r="W87" t="s">
-        <v>84</v>
-      </c>
-      <c r="X87" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B88">
+      <c r="V90" t="s">
+        <v>84</v>
+      </c>
+      <c r="W90" t="s">
+        <v>84</v>
+      </c>
+      <c r="X90" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B91">
         <v>8493</v>
       </c>
-      <c r="C88">
+      <c r="C91">
         <v>1037</v>
       </c>
-      <c r="D88" t="s">
-        <v>84</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="D91" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" t="s">
         <v>85</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F91" t="s">
         <v>86</v>
       </c>
-      <c r="G88" t="s">
-        <v>84</v>
-      </c>
-      <c r="H88" s="4">
+      <c r="G91" t="s">
+        <v>84</v>
+      </c>
+      <c r="H91" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I88" s="4">
+      <c r="I91" s="4">
         <v>58803000</v>
       </c>
-      <c r="J88" s="5">
+      <c r="J91" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44728.907056944445</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88" t="s">
-        <v>84</v>
-      </c>
-      <c r="M88" s="4">
+        <v>44736.681569675929</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>84</v>
+      </c>
+      <c r="M91" s="4">
         <f t="shared" si="32"/>
         <v>65271330.000000007</v>
       </c>
-      <c r="N88" s="4">
+      <c r="N91" s="4">
         <f t="shared" si="33"/>
         <v>65271330.000000007</v>
       </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-      <c r="S88">
-        <v>0</v>
-      </c>
-      <c r="T88" t="s">
-        <v>84</v>
-      </c>
-      <c r="U88" t="s">
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91" t="s">
+        <v>84</v>
+      </c>
+      <c r="U91" t="s">
         <v>87</v>
       </c>
-      <c r="V88" t="s">
-        <v>84</v>
-      </c>
-      <c r="W88" t="s">
-        <v>84</v>
-      </c>
-      <c r="X88" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B89">
+      <c r="V91" t="s">
+        <v>84</v>
+      </c>
+      <c r="W91" t="s">
+        <v>84</v>
+      </c>
+      <c r="X91" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B92">
         <v>8494</v>
       </c>
-      <c r="C89">
+      <c r="C92">
         <v>1037</v>
       </c>
-      <c r="D89" t="s">
-        <v>84</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="D92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" t="s">
         <v>85</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F92" t="s">
         <v>86</v>
       </c>
-      <c r="G89" t="s">
-        <v>84</v>
-      </c>
-      <c r="H89" s="4">
+      <c r="G92" t="s">
+        <v>84</v>
+      </c>
+      <c r="H92" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I89" s="4">
+      <c r="I92" s="4">
         <v>63563000</v>
       </c>
-      <c r="J89" s="5">
+      <c r="J92" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44728.907056944445</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89" t="s">
-        <v>84</v>
-      </c>
-      <c r="M89" s="4">
+        <v>44736.681569675929</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>84</v>
+      </c>
+      <c r="M92" s="4">
         <f t="shared" si="32"/>
         <v>70554930</v>
       </c>
-      <c r="N89" s="4">
+      <c r="N92" s="4">
         <f t="shared" si="33"/>
         <v>70554930</v>
       </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
-      <c r="T89" t="s">
-        <v>84</v>
-      </c>
-      <c r="U89" t="s">
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92" t="s">
+        <v>84</v>
+      </c>
+      <c r="U92" t="s">
         <v>87</v>
       </c>
-      <c r="V89" t="s">
-        <v>84</v>
-      </c>
-      <c r="W89" t="s">
-        <v>84</v>
-      </c>
-      <c r="X89" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B90">
+      <c r="V92" t="s">
+        <v>84</v>
+      </c>
+      <c r="W92" t="s">
+        <v>84</v>
+      </c>
+      <c r="X92" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B93">
         <v>8495</v>
       </c>
-      <c r="C90">
+      <c r="C93">
         <v>1037</v>
       </c>
-      <c r="D90" t="s">
-        <v>84</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="D93" t="s">
+        <v>84</v>
+      </c>
+      <c r="E93" t="s">
         <v>85</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F93" t="s">
         <v>86</v>
       </c>
-      <c r="G90" t="s">
-        <v>84</v>
-      </c>
-      <c r="H90" s="4">
+      <c r="G93" t="s">
+        <v>84</v>
+      </c>
+      <c r="H93" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I90" s="4">
+      <c r="I93" s="4">
         <v>63563000</v>
       </c>
-      <c r="J90" s="5">
+      <c r="J93" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44728.907056944445</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90" t="s">
-        <v>84</v>
-      </c>
-      <c r="M90" s="4">
+        <v>44736.681569675929</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93" t="s">
+        <v>84</v>
+      </c>
+      <c r="M93" s="4">
         <f t="shared" si="32"/>
         <v>70554930</v>
       </c>
-      <c r="N90" s="4">
+      <c r="N93" s="4">
         <f t="shared" si="33"/>
         <v>70554930</v>
       </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-      <c r="S90">
-        <v>0</v>
-      </c>
-      <c r="T90" t="s">
-        <v>84</v>
-      </c>
-      <c r="U90" t="s">
-        <v>87</v>
-      </c>
-      <c r="V90" t="s">
-        <v>84</v>
-      </c>
-      <c r="W90" t="s">
-        <v>84</v>
-      </c>
-      <c r="X90" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="5"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B92" s="22">
-        <v>8504</v>
-      </c>
-      <c r="C92" s="22">
-        <v>1039</v>
-      </c>
-      <c r="D92" t="s">
-        <v>84</v>
-      </c>
-      <c r="E92" t="s">
-        <v>85</v>
-      </c>
-      <c r="F92" t="s">
-        <v>86</v>
-      </c>
-      <c r="G92" t="s">
-        <v>84</v>
-      </c>
-      <c r="H92" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I92" s="20">
-        <v>48042000</v>
-      </c>
-      <c r="J92" s="21">
-        <f t="shared" ca="1" si="34"/>
-        <v>44728.907056828706</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92" t="s">
-        <v>84</v>
-      </c>
-      <c r="M92" s="20">
-        <v>53326620</v>
-      </c>
-      <c r="N92" s="20">
-        <f t="shared" ref="N92:N93" si="35">I92*1.11</f>
-        <v>53326620.000000007</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-      <c r="S92">
-        <v>0</v>
-      </c>
-      <c r="T92" t="s">
-        <v>84</v>
-      </c>
-      <c r="U92" t="s">
-        <v>87</v>
-      </c>
-      <c r="V92" t="s">
-        <v>84</v>
-      </c>
-      <c r="W92" t="s">
-        <v>84</v>
-      </c>
-      <c r="X92" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B93" s="22">
-        <v>8505</v>
-      </c>
-      <c r="C93" s="22">
-        <v>1039</v>
-      </c>
-      <c r="D93" t="s">
-        <v>84</v>
-      </c>
-      <c r="E93" t="s">
-        <v>85</v>
-      </c>
-      <c r="F93" t="s">
-        <v>86</v>
-      </c>
-      <c r="G93" t="s">
-        <v>84</v>
-      </c>
-      <c r="H93" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I93" s="20">
-        <v>54803000</v>
-      </c>
-      <c r="J93" s="21">
-        <f t="shared" ca="1" si="34"/>
-        <v>44728.907056828706</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93" t="s">
-        <v>84</v>
-      </c>
-      <c r="M93" s="20">
-        <v>60831330</v>
-      </c>
-      <c r="N93" s="20">
-        <f t="shared" si="35"/>
-        <v>60831330.000000007</v>
-      </c>
       <c r="O93">
         <v>0</v>
       </c>
@@ -7464,108 +7463,589 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="5"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="5"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B95" s="22">
+        <v>8504</v>
+      </c>
+      <c r="C95" s="22">
+        <v>1039</v>
+      </c>
+      <c r="D95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" t="s">
+        <v>85</v>
+      </c>
+      <c r="F95" t="s">
+        <v>86</v>
+      </c>
+      <c r="G95" t="s">
+        <v>84</v>
+      </c>
+      <c r="H95" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I95" s="20">
+        <v>48042000</v>
+      </c>
+      <c r="J95" s="21">
+        <f t="shared" ca="1" si="34"/>
+        <v>44736.681569675929</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>84</v>
+      </c>
+      <c r="M95" s="20">
+        <v>53326620</v>
+      </c>
+      <c r="N95" s="20">
+        <f t="shared" ref="N95:N96" si="35">I95*1.11</f>
+        <v>53326620.000000007</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95" t="s">
+        <v>84</v>
+      </c>
+      <c r="U95" t="s">
+        <v>87</v>
+      </c>
+      <c r="V95" t="s">
+        <v>84</v>
+      </c>
+      <c r="W95" t="s">
+        <v>84</v>
+      </c>
+      <c r="X95" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B96" s="22">
+        <v>8505</v>
+      </c>
+      <c r="C96" s="22">
+        <v>1039</v>
+      </c>
+      <c r="D96" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" t="s">
+        <v>85</v>
+      </c>
+      <c r="F96" t="s">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s">
+        <v>84</v>
+      </c>
+      <c r="H96" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I96" s="20">
+        <v>54803000</v>
+      </c>
+      <c r="J96" s="21">
+        <f t="shared" ca="1" si="34"/>
+        <v>44736.681569675929</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96" t="s">
+        <v>84</v>
+      </c>
+      <c r="M96" s="20">
+        <v>60831330</v>
+      </c>
+      <c r="N96" s="20">
+        <f t="shared" si="35"/>
+        <v>60831330.000000007</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96" t="s">
+        <v>84</v>
+      </c>
+      <c r="U96" t="s">
+        <v>87</v>
+      </c>
+      <c r="V96" t="s">
+        <v>84</v>
+      </c>
+      <c r="W96" t="s">
+        <v>84</v>
+      </c>
+      <c r="X96" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="5"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B98" s="22">
+        <v>8509</v>
+      </c>
+      <c r="C98" s="22">
+        <v>1043</v>
+      </c>
+      <c r="D98" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" t="s">
+        <v>85</v>
+      </c>
+      <c r="F98" t="s">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s">
+        <v>84</v>
+      </c>
+      <c r="H98" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I98" s="20">
+        <v>31000000</v>
+      </c>
+      <c r="J98" s="21">
+        <f t="shared" ca="1" si="34"/>
+        <v>44736.681569675929</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98" t="s">
+        <v>84</v>
+      </c>
+      <c r="M98" s="20">
+        <f>I98*1.11</f>
+        <v>34410000</v>
+      </c>
+      <c r="N98" s="20">
+        <f t="shared" ref="N98" si="36">I98*1.11</f>
+        <v>34410000</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98" t="s">
+        <v>84</v>
+      </c>
+      <c r="U98" t="s">
+        <v>87</v>
+      </c>
+      <c r="V98" t="s">
+        <v>84</v>
+      </c>
+      <c r="W98" t="s">
+        <v>84</v>
+      </c>
+      <c r="X98" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="5"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="30">
+        <v>8510</v>
+      </c>
+      <c r="C100" s="30">
+        <v>1042</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G100" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H100" s="31">
+        <v>813445970452000</v>
+      </c>
+      <c r="I100" s="31">
+        <v>54803000</v>
+      </c>
+      <c r="J100" s="32">
+        <f t="shared" ca="1" si="34"/>
+        <v>44736.681569675929</v>
+      </c>
+      <c r="K100" s="30">
+        <v>1</v>
+      </c>
+      <c r="L100" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="M100" s="31">
+        <f>I100*1.11</f>
+        <v>60831330.000000007</v>
+      </c>
+      <c r="N100" s="31">
+        <f t="shared" ref="N100:N101" si="37">I100*1.11</f>
+        <v>60831330.000000007</v>
+      </c>
+      <c r="O100" s="30">
+        <v>0</v>
+      </c>
+      <c r="P100" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="30">
+        <v>0</v>
+      </c>
+      <c r="R100" s="30">
+        <v>0</v>
+      </c>
+      <c r="S100" s="30">
+        <v>0</v>
+      </c>
+      <c r="T100" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="U100" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="V100" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="W100" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="X100" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y100" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B101" s="22">
+        <v>8510</v>
+      </c>
+      <c r="C101" s="22">
+        <v>1042</v>
+      </c>
+      <c r="D101" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" t="s">
+        <v>85</v>
+      </c>
+      <c r="F101" t="s">
+        <v>86</v>
+      </c>
+      <c r="G101" t="s">
+        <v>84</v>
+      </c>
+      <c r="H101" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I101" s="20">
+        <v>92084000</v>
+      </c>
+      <c r="J101" s="21">
+        <f t="shared" ca="1" si="34"/>
+        <v>44736.681569675929</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101" t="s">
+        <v>84</v>
+      </c>
+      <c r="M101" s="20">
+        <f>I101*1.11</f>
+        <v>102213240.00000001</v>
+      </c>
+      <c r="N101" s="20">
+        <f t="shared" si="37"/>
+        <v>102213240.00000001</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101" t="s">
+        <v>84</v>
+      </c>
+      <c r="U101" t="s">
+        <v>87</v>
+      </c>
+      <c r="V101" t="s">
+        <v>84</v>
+      </c>
+      <c r="W101" t="s">
+        <v>84</v>
+      </c>
+      <c r="X101" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="5"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B103" s="22">
+        <v>8511</v>
+      </c>
+      <c r="C103" s="22">
+        <v>1042</v>
+      </c>
+      <c r="D103" t="s">
+        <v>84</v>
+      </c>
+      <c r="E103" t="s">
+        <v>85</v>
+      </c>
+      <c r="F103" t="s">
+        <v>86</v>
+      </c>
+      <c r="G103" t="s">
+        <v>84</v>
+      </c>
+      <c r="H103" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I103" s="20">
+        <v>92084000</v>
+      </c>
+      <c r="J103" s="21">
+        <f t="shared" ca="1" si="34"/>
+        <v>44736.681569675929</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103" t="s">
+        <v>84</v>
+      </c>
+      <c r="M103" s="20">
+        <f>I103*1.11</f>
+        <v>102213240.00000001</v>
+      </c>
+      <c r="N103" s="20">
+        <f t="shared" ref="N103" si="38">I103*1.11</f>
+        <v>102213240.00000001</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103" t="s">
+        <v>84</v>
+      </c>
+      <c r="U103" t="s">
+        <v>87</v>
+      </c>
+      <c r="V103" t="s">
+        <v>84</v>
+      </c>
+      <c r="W103" t="s">
+        <v>84</v>
+      </c>
+      <c r="X103" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="5"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>214</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I105" t="s">
         <v>192</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M105" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8161,6 +8641,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2F9CB5CC580EC46B5860198FEB9E710" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b91388b48bcd9a49e5c6bbe11f5107a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf9b6120-988b-41be-8da6-61dea16cb493" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f067a43816ef2ddba10c3d75903eac" ns2:_="">
     <xsd:import namespace="bf9b6120-988b-41be-8da6-61dea16cb493"/>
@@ -8338,22 +8833,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{960EB93A-7002-4718-9F32-8C3A4C7268F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8369,21 +8866,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
+++ b/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Primbon OLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D4C231-A308-4BE8-B6BC-A5D4866D7D00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA34FA-0967-4698-8E17-1B0C8931274F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="225">
   <si>
     <t>"no object reference"</t>
   </si>
@@ -1014,11 +1014,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1068,6 +1069,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1120,7 +1127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1128,12 +1135,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1167,6 +1189,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2128,10 +2156,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AI125"/>
+  <dimension ref="A1:AI129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="K12" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:Y107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6763,7 +6791,7 @@
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
     </row>
-    <row r="84" spans="2:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:25" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="18">
         <v>8484</v>
       </c>
@@ -6790,7 +6818,7 @@
       </c>
       <c r="J84" s="21">
         <f ca="1">NOW()</f>
-        <v>44736.681569675929</v>
+        <v>44740.581949652777</v>
       </c>
       <c r="K84" s="18">
         <v>1</v>
@@ -6840,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:25" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="18">
         <v>8485</v>
       </c>
@@ -6867,7 +6895,7 @@
       </c>
       <c r="J85" s="21">
         <f ca="1">NOW()</f>
-        <v>44736.681569675929</v>
+        <v>44740.581949652777</v>
       </c>
       <c r="K85" s="18">
         <v>1</v>
@@ -6917,7 +6945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:25" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="18">
         <v>8486</v>
       </c>
@@ -6944,7 +6972,7 @@
       </c>
       <c r="J86" s="21">
         <f ca="1">NOW()</f>
-        <v>44736.681569675929</v>
+        <v>44740.581949652777</v>
       </c>
       <c r="K86" s="18">
         <v>1</v>
@@ -6994,7 +7022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="5"/>
@@ -7028,7 +7056,7 @@
       </c>
       <c r="J88" s="5">
         <f ca="1">NOW()</f>
-        <v>44736.681569675929</v>
+        <v>44740.581949652777</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -7104,8 +7132,8 @@
         <v>95844000</v>
       </c>
       <c r="J89" s="5">
-        <f t="shared" ref="J89:J103" ca="1" si="34">NOW()</f>
-        <v>44736.681569675929</v>
+        <f t="shared" ref="J89:J107" ca="1" si="34">NOW()</f>
+        <v>44740.581949652777</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -7182,7 +7210,7 @@
       </c>
       <c r="J90" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44736.681569675929</v>
+        <v>44740.581949652777</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -7259,7 +7287,7 @@
       </c>
       <c r="J91" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44736.681569675929</v>
+        <v>44740.581949652777</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -7336,7 +7364,7 @@
       </c>
       <c r="J92" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44736.681569675929</v>
+        <v>44740.581949652777</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -7413,7 +7441,7 @@
       </c>
       <c r="J93" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44736.681569675929</v>
+        <v>44740.581949652777</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -7470,7 +7498,7 @@
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="22">
         <v>8504</v>
       </c>
@@ -7497,7 +7525,7 @@
       </c>
       <c r="J95" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44736.681569675929</v>
+        <v>44740.581949652777</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -7546,7 +7574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="22">
         <v>8505</v>
       </c>
@@ -7573,7 +7601,7 @@
       </c>
       <c r="J96" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44736.681569675929</v>
+        <v>44740.581949652777</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7622,14 +7650,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="5"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="22">
         <v>8509</v>
       </c>
@@ -7656,7 +7684,7 @@
       </c>
       <c r="J98" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44736.681569675929</v>
+        <v>44740.581949652777</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -7706,14 +7734,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="5"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="30">
         <v>8510</v>
       </c>
@@ -7740,7 +7768,7 @@
       </c>
       <c r="J100" s="32">
         <f t="shared" ca="1" si="34"/>
-        <v>44736.681569675929</v>
+        <v>44740.581949652777</v>
       </c>
       <c r="K100" s="30">
         <v>1</v>
@@ -7790,7 +7818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="22">
         <v>8510</v>
       </c>
@@ -7817,7 +7845,7 @@
       </c>
       <c r="J101" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44736.681569675929</v>
+        <v>44740.581949652777</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -7867,7 +7895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="5"/>
@@ -7901,7 +7929,7 @@
       </c>
       <c r="J103" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44736.681569675929</v>
+        <v>44740.581949652777</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -7959,93 +7987,261 @@
       <c r="N104" s="4"/>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B105">
+        <v>8514</v>
+      </c>
+      <c r="C105">
+        <v>1046</v>
+      </c>
+      <c r="D105" t="s">
+        <v>84</v>
+      </c>
+      <c r="E105" t="s">
+        <v>85</v>
+      </c>
+      <c r="F105" t="s">
+        <v>86</v>
+      </c>
+      <c r="G105" t="s">
+        <v>84</v>
+      </c>
+      <c r="H105" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I105" s="20">
+        <v>95844000</v>
+      </c>
+      <c r="J105" s="21">
+        <f t="shared" ca="1" si="34"/>
+        <v>44740.581949652777</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105" t="s">
+        <v>84</v>
+      </c>
+      <c r="M105" s="20">
+        <f>I105*1.11</f>
+        <v>106386840.00000001</v>
+      </c>
+      <c r="N105" s="20">
+        <f t="shared" ref="N105" si="39">I105*1.11</f>
+        <v>106386840.00000001</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105" t="s">
+        <v>84</v>
+      </c>
+      <c r="U105" t="s">
+        <v>87</v>
+      </c>
+      <c r="V105" t="s">
+        <v>84</v>
+      </c>
+      <c r="W105" t="s">
+        <v>84</v>
+      </c>
+      <c r="X105" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="5"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B107" s="33">
+        <v>8515</v>
+      </c>
+      <c r="C107">
+        <v>1047</v>
+      </c>
+      <c r="D107" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" t="s">
+        <v>85</v>
+      </c>
+      <c r="F107" t="s">
+        <v>86</v>
+      </c>
+      <c r="G107" t="s">
+        <v>84</v>
+      </c>
+      <c r="H107" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I107" s="34">
+        <v>63000000</v>
+      </c>
+      <c r="J107" s="21">
+        <f t="shared" ca="1" si="34"/>
+        <v>44740.581949652777</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107" t="s">
+        <v>84</v>
+      </c>
+      <c r="M107" s="20">
+        <f>I107*1.11</f>
+        <v>69930000</v>
+      </c>
+      <c r="N107" s="20">
+        <f t="shared" ref="N107" si="40">I107*1.11</f>
+        <v>69930000</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107" t="s">
+        <v>84</v>
+      </c>
+      <c r="U107" t="s">
+        <v>87</v>
+      </c>
+      <c r="V107" t="s">
+        <v>84</v>
+      </c>
+      <c r="W107" t="s">
+        <v>84</v>
+      </c>
+      <c r="X107" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="5"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>214</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I109" t="s">
         <v>192</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M109" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>126</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8641,21 +8837,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2F9CB5CC580EC46B5860198FEB9E710" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b91388b48bcd9a49e5c6bbe11f5107a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf9b6120-988b-41be-8da6-61dea16cb493" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f067a43816ef2ddba10c3d75903eac" ns2:_="">
     <xsd:import namespace="bf9b6120-988b-41be-8da6-61dea16cb493"/>
@@ -8833,24 +9014,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{960EB93A-7002-4718-9F32-8C3A4C7268F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8866,4 +9045,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
+++ b/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Primbon OLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA34FA-0967-4698-8E17-1B0C8931274F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE08DF2-697D-4B01-B6FB-F02D5EBAD1C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="225">
   <si>
     <t>"no object reference"</t>
   </si>
@@ -1014,12 +1014,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,12 +1068,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6.5"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1127,7 +1120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1135,27 +1128,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1192,8 +1170,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2156,10 +2137,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AI129"/>
+  <dimension ref="A1:AI136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K12" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:Y107"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3267,7 +3248,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>212</v>
       </c>
@@ -3276,6 +3257,12 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
+      <c r="I23" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -6549,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="5"/>
@@ -6818,7 +6805,7 @@
       </c>
       <c r="J84" s="21">
         <f ca="1">NOW()</f>
-        <v>44740.581949652777</v>
+        <v>44748.710076620373</v>
       </c>
       <c r="K84" s="18">
         <v>1</v>
@@ -6895,7 +6882,7 @@
       </c>
       <c r="J85" s="21">
         <f ca="1">NOW()</f>
-        <v>44740.581949652777</v>
+        <v>44748.710076620373</v>
       </c>
       <c r="K85" s="18">
         <v>1</v>
@@ -6972,7 +6959,7 @@
       </c>
       <c r="J86" s="21">
         <f ca="1">NOW()</f>
-        <v>44740.581949652777</v>
+        <v>44748.710076620373</v>
       </c>
       <c r="K86" s="18">
         <v>1</v>
@@ -7056,7 +7043,7 @@
       </c>
       <c r="J88" s="5">
         <f ca="1">NOW()</f>
-        <v>44740.581949652777</v>
+        <v>44748.710076620373</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -7132,8 +7119,8 @@
         <v>95844000</v>
       </c>
       <c r="J89" s="5">
-        <f t="shared" ref="J89:J107" ca="1" si="34">NOW()</f>
-        <v>44740.581949652777</v>
+        <f t="shared" ref="J89:J111" ca="1" si="34">NOW()</f>
+        <v>44748.710076620373</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -7210,7 +7197,7 @@
       </c>
       <c r="J90" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44740.581949652777</v>
+        <v>44748.710076620373</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -7287,7 +7274,7 @@
       </c>
       <c r="J91" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44740.581949652777</v>
+        <v>44748.710076620373</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -7364,7 +7351,7 @@
       </c>
       <c r="J92" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44740.581949652777</v>
+        <v>44748.710076620373</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -7441,7 +7428,7 @@
       </c>
       <c r="J93" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44740.581949652777</v>
+        <v>44748.710076620373</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -7525,7 +7512,7 @@
       </c>
       <c r="J95" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44740.581949652777</v>
+        <v>44748.710076620373</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -7601,7 +7588,7 @@
       </c>
       <c r="J96" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44740.581949652777</v>
+        <v>44748.710076620373</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7650,14 +7637,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="5"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
     </row>
-    <row r="98" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="22">
         <v>8509</v>
       </c>
@@ -7684,7 +7671,7 @@
       </c>
       <c r="J98" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44740.581949652777</v>
+        <v>44748.710076620373</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -7734,14 +7721,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="5"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" spans="1:25" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:25" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="30">
         <v>8510</v>
       </c>
@@ -7768,7 +7755,7 @@
       </c>
       <c r="J100" s="32">
         <f t="shared" ca="1" si="34"/>
-        <v>44740.581949652777</v>
+        <v>44748.710076620373</v>
       </c>
       <c r="K100" s="30">
         <v>1</v>
@@ -7818,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="22">
         <v>8510</v>
       </c>
@@ -7845,7 +7832,7 @@
       </c>
       <c r="J101" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44740.581949652777</v>
+        <v>44748.710076620373</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -7895,14 +7882,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="5"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="22">
         <v>8511</v>
       </c>
@@ -7929,7 +7916,7 @@
       </c>
       <c r="J103" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44740.581949652777</v>
+        <v>44748.710076620373</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -7979,14 +7966,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="5"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>8514</v>
       </c>
@@ -8013,7 +8000,7 @@
       </c>
       <c r="J105" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44740.581949652777</v>
+        <v>44748.710076620373</v>
       </c>
       <c r="K105">
         <v>1</v>
@@ -8063,14 +8050,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="5"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="33">
         <v>8515</v>
       </c>
@@ -8092,12 +8079,12 @@
       <c r="H107" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I107" s="34">
+      <c r="I107" s="20">
         <v>63000000</v>
       </c>
       <c r="J107" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44740.581949652777</v>
+        <v>44748.710076620373</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -8147,67 +8134,295 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="5"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>8520</v>
+      </c>
+      <c r="C109">
+        <v>1048</v>
+      </c>
+      <c r="D109" t="s">
+        <v>84</v>
+      </c>
+      <c r="E109" t="s">
+        <v>85</v>
+      </c>
+      <c r="F109" t="s">
+        <v>86</v>
+      </c>
+      <c r="G109" t="s">
+        <v>84</v>
+      </c>
+      <c r="H109" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I109" s="20">
+        <v>45722000</v>
+      </c>
+      <c r="J109" s="21">
+        <f t="shared" ca="1" si="34"/>
+        <v>44748.710076620373</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109" t="s">
+        <v>84</v>
+      </c>
+      <c r="M109" s="20">
+        <f>I109*1.11</f>
+        <v>50751420.000000007</v>
+      </c>
+      <c r="N109" s="20">
+        <f t="shared" ref="N109" si="41">I109*1.11</f>
+        <v>50751420.000000007</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109" t="s">
+        <v>84</v>
+      </c>
+      <c r="U109" t="s">
+        <v>87</v>
+      </c>
+      <c r="V109" t="s">
+        <v>84</v>
+      </c>
+      <c r="W109" t="s">
+        <v>84</v>
+      </c>
+      <c r="X109" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>8521</v>
+      </c>
+      <c r="C110">
+        <v>1048</v>
+      </c>
+      <c r="D110" t="s">
+        <v>84</v>
+      </c>
+      <c r="E110" t="s">
+        <v>85</v>
+      </c>
+      <c r="F110" t="s">
+        <v>86</v>
+      </c>
+      <c r="G110" t="s">
+        <v>84</v>
+      </c>
+      <c r="H110" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I110" s="20">
+        <v>43580000</v>
+      </c>
+      <c r="J110" s="21">
+        <f t="shared" ca="1" si="34"/>
+        <v>44748.710076620373</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110" t="s">
+        <v>84</v>
+      </c>
+      <c r="M110" s="20">
+        <f>I110*1.11</f>
+        <v>48373800.000000007</v>
+      </c>
+      <c r="N110" s="20">
+        <f t="shared" ref="N110" si="42">I110*1.11</f>
+        <v>48373800.000000007</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110" t="s">
+        <v>84</v>
+      </c>
+      <c r="U110" t="s">
+        <v>87</v>
+      </c>
+      <c r="V110" t="s">
+        <v>84</v>
+      </c>
+      <c r="W110" t="s">
+        <v>84</v>
+      </c>
+      <c r="X110" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>8519</v>
+      </c>
+      <c r="C111">
+        <v>1049</v>
+      </c>
+      <c r="D111" t="s">
+        <v>84</v>
+      </c>
+      <c r="E111" t="s">
+        <v>85</v>
+      </c>
+      <c r="F111" t="s">
+        <v>86</v>
+      </c>
+      <c r="G111" t="s">
+        <v>84</v>
+      </c>
+      <c r="H111" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I111" s="20">
+        <v>84433000</v>
+      </c>
+      <c r="J111" s="21">
+        <f t="shared" ca="1" si="34"/>
+        <v>44748.710076620373</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111" t="s">
+        <v>84</v>
+      </c>
+      <c r="M111" s="20">
+        <f>I111*1.11</f>
+        <v>93720630.000000015</v>
+      </c>
+      <c r="N111" s="20">
+        <f t="shared" ref="N111" si="43">I111*1.11</f>
+        <v>93720630.000000015</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111" t="s">
+        <v>84</v>
+      </c>
+      <c r="U111" t="s">
+        <v>87</v>
+      </c>
+      <c r="V111" t="s">
+        <v>84</v>
+      </c>
+      <c r="W111" t="s">
+        <v>84</v>
+      </c>
+      <c r="X111" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="5"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="5"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="5"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="5"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>214</v>
       </c>
-      <c r="I109" t="s">
-        <v>192</v>
-      </c>
-      <c r="M109" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -8215,33 +8430,58 @@
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>140</v>
-      </c>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8837,6 +9077,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2F9CB5CC580EC46B5860198FEB9E710" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b91388b48bcd9a49e5c6bbe11f5107a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf9b6120-988b-41be-8da6-61dea16cb493" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f067a43816ef2ddba10c3d75903eac" ns2:_="">
     <xsd:import namespace="bf9b6120-988b-41be-8da6-61dea16cb493"/>
@@ -9014,12 +9260,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9030,6 +9270,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{960EB93A-7002-4718-9F32-8C3A4C7268F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9047,15 +9296,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
   <ds:schemaRefs>

--- a/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
+++ b/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Primbon OLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE08DF2-697D-4B01-B6FB-F02D5EBAD1C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8695D0-6BDF-472C-9DB8-8A4A100FBF6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="225">
   <si>
     <t>"no object reference"</t>
   </si>
@@ -1070,7 +1070,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1119,6 +1119,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1133,7 +1145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1175,6 +1187,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2137,10 +2156,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AI136"/>
+  <dimension ref="A1:AI137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,10 +3308,10 @@
       <c r="H24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="36" t="s">
         <v>68</v>
       </c>
       <c r="K24" s="2" t="s">
@@ -3301,10 +3320,10 @@
       <c r="L24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="N24" s="23" t="s">
+      <c r="N24" s="36" t="s">
         <v>72</v>
       </c>
       <c r="O24" s="2" t="s">
@@ -6805,7 +6824,7 @@
       </c>
       <c r="J84" s="21">
         <f ca="1">NOW()</f>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K84" s="18">
         <v>1</v>
@@ -6882,7 +6901,7 @@
       </c>
       <c r="J85" s="21">
         <f ca="1">NOW()</f>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K85" s="18">
         <v>1</v>
@@ -6959,7 +6978,7 @@
       </c>
       <c r="J86" s="21">
         <f ca="1">NOW()</f>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K86" s="18">
         <v>1</v>
@@ -7043,7 +7062,7 @@
       </c>
       <c r="J88" s="5">
         <f ca="1">NOW()</f>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -7119,8 +7138,8 @@
         <v>95844000</v>
       </c>
       <c r="J89" s="5">
-        <f t="shared" ref="J89:J111" ca="1" si="34">NOW()</f>
-        <v>44748.710076620373</v>
+        <f t="shared" ref="J89:J114" ca="1" si="34">NOW()</f>
+        <v>44753.687519328705</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -7197,7 +7216,7 @@
       </c>
       <c r="J90" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -7274,7 +7293,7 @@
       </c>
       <c r="J91" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -7351,7 +7370,7 @@
       </c>
       <c r="J92" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -7428,7 +7447,7 @@
       </c>
       <c r="J93" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -7512,7 +7531,7 @@
       </c>
       <c r="J95" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -7588,7 +7607,7 @@
       </c>
       <c r="J96" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7671,7 +7690,7 @@
       </c>
       <c r="J98" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -7755,7 +7774,7 @@
       </c>
       <c r="J100" s="32">
         <f t="shared" ca="1" si="34"/>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K100" s="30">
         <v>1</v>
@@ -7832,7 +7851,7 @@
       </c>
       <c r="J101" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -7916,7 +7935,7 @@
       </c>
       <c r="J103" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -8000,7 +8019,7 @@
       </c>
       <c r="J105" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K105">
         <v>1</v>
@@ -8084,7 +8103,7 @@
       </c>
       <c r="J107" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -8141,7 +8160,7 @@
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>8520</v>
       </c>
@@ -8168,7 +8187,7 @@
       </c>
       <c r="J109" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -8218,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>8521</v>
       </c>
@@ -8245,7 +8264,7 @@
       </c>
       <c r="J110" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K110">
         <v>1</v>
@@ -8295,7 +8314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>8519</v>
       </c>
@@ -8322,7 +8341,7 @@
       </c>
       <c r="J111" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44748.710076620373</v>
+        <v>44753.687519328705</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -8372,116 +8391,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="5"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="5"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="5"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="4"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B113" s="40">
+        <v>8522</v>
+      </c>
+      <c r="C113" s="39">
+        <v>1053</v>
+      </c>
+      <c r="D113" t="s">
+        <v>84</v>
+      </c>
+      <c r="E113" t="s">
+        <v>85</v>
+      </c>
+      <c r="F113" t="s">
+        <v>86</v>
+      </c>
+      <c r="G113" t="s">
+        <v>84</v>
+      </c>
+      <c r="H113" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I113" s="37">
+        <v>72754000</v>
+      </c>
+      <c r="J113" s="38">
+        <f t="shared" ca="1" si="34"/>
+        <v>44753.687519212966</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113" t="s">
+        <v>84</v>
+      </c>
+      <c r="M113" s="37">
+        <f>I113*1.11</f>
+        <v>80756940</v>
+      </c>
+      <c r="N113" s="37">
+        <f t="shared" ref="N113:N114" si="44">I113*1.11</f>
+        <v>80756940</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113" t="s">
+        <v>84</v>
+      </c>
+      <c r="U113" t="s">
+        <v>87</v>
+      </c>
+      <c r="V113" t="s">
+        <v>84</v>
+      </c>
+      <c r="W113" t="s">
+        <v>84</v>
+      </c>
+      <c r="X113" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B114" s="40">
+        <v>8523</v>
+      </c>
+      <c r="C114" s="39">
+        <v>1053</v>
+      </c>
+      <c r="D114" t="s">
+        <v>84</v>
+      </c>
+      <c r="E114" t="s">
+        <v>85</v>
+      </c>
+      <c r="F114" t="s">
+        <v>86</v>
+      </c>
+      <c r="G114" t="s">
+        <v>84</v>
+      </c>
+      <c r="H114" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I114" s="37">
+        <v>91433000</v>
+      </c>
+      <c r="J114" s="38">
+        <f t="shared" ca="1" si="34"/>
+        <v>44753.687519212966</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114" t="s">
+        <v>84</v>
+      </c>
+      <c r="M114" s="37">
+        <f>I114*1.11</f>
+        <v>101490630.00000001</v>
+      </c>
+      <c r="N114" s="37">
+        <f t="shared" si="44"/>
+        <v>101490630.00000001</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114" t="s">
+        <v>84</v>
+      </c>
+      <c r="U114" t="s">
+        <v>87</v>
+      </c>
+      <c r="V114" t="s">
+        <v>84</v>
+      </c>
+      <c r="W114" t="s">
+        <v>84</v>
+      </c>
+      <c r="X114" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="5"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="5"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9083,6 +9249,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2F9CB5CC580EC46B5860198FEB9E710" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b91388b48bcd9a49e5c6bbe11f5107a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf9b6120-988b-41be-8da6-61dea16cb493" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f067a43816ef2ddba10c3d75903eac" ns2:_="">
     <xsd:import namespace="bf9b6120-988b-41be-8da6-61dea16cb493"/>
@@ -9260,15 +9435,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
   <ds:schemaRefs>
@@ -9279,6 +9445,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{960EB93A-7002-4718-9F32-8C3A4C7268F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9294,12 +9468,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
+++ b/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Primbon OLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8695D0-6BDF-472C-9DB8-8A4A100FBF6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42D1148-2C51-4CF0-930D-E461408A748D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="225">
   <si>
     <t>"no object reference"</t>
   </si>
@@ -1145,7 +1145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1193,6 +1193,9 @@
     <xf numFmtId="22" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2156,10 +2159,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AI137"/>
+  <dimension ref="A1:AI139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6824,7 +6827,7 @@
       </c>
       <c r="J84" s="21">
         <f ca="1">NOW()</f>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K84" s="18">
         <v>1</v>
@@ -6901,7 +6904,7 @@
       </c>
       <c r="J85" s="21">
         <f ca="1">NOW()</f>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K85" s="18">
         <v>1</v>
@@ -6978,7 +6981,7 @@
       </c>
       <c r="J86" s="21">
         <f ca="1">NOW()</f>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K86" s="18">
         <v>1</v>
@@ -7062,7 +7065,7 @@
       </c>
       <c r="J88" s="5">
         <f ca="1">NOW()</f>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -7138,8 +7141,8 @@
         <v>95844000</v>
       </c>
       <c r="J89" s="5">
-        <f t="shared" ref="J89:J114" ca="1" si="34">NOW()</f>
-        <v>44753.687519328705</v>
+        <f t="shared" ref="J89:J116" ca="1" si="34">NOW()</f>
+        <v>44760.598400810188</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -7216,7 +7219,7 @@
       </c>
       <c r="J90" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -7293,7 +7296,7 @@
       </c>
       <c r="J91" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -7370,7 +7373,7 @@
       </c>
       <c r="J92" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -7447,7 +7450,7 @@
       </c>
       <c r="J93" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -7531,7 +7534,7 @@
       </c>
       <c r="J95" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -7607,7 +7610,7 @@
       </c>
       <c r="J96" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7690,7 +7693,7 @@
       </c>
       <c r="J98" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -7774,7 +7777,7 @@
       </c>
       <c r="J100" s="32">
         <f t="shared" ca="1" si="34"/>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K100" s="30">
         <v>1</v>
@@ -7851,7 +7854,7 @@
       </c>
       <c r="J101" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -7935,7 +7938,7 @@
       </c>
       <c r="J103" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -8019,7 +8022,7 @@
       </c>
       <c r="J105" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K105">
         <v>1</v>
@@ -8103,7 +8106,7 @@
       </c>
       <c r="J107" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -8187,7 +8190,7 @@
       </c>
       <c r="J109" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -8264,7 +8267,7 @@
       </c>
       <c r="J110" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K110">
         <v>1</v>
@@ -8341,7 +8344,7 @@
       </c>
       <c r="J111" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44753.687519328705</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -8425,7 +8428,7 @@
       </c>
       <c r="J113" s="38">
         <f t="shared" ca="1" si="34"/>
-        <v>44753.687519212966</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K113">
         <v>1</v>
@@ -8502,7 +8505,7 @@
       </c>
       <c r="J114" s="38">
         <f t="shared" ca="1" si="34"/>
-        <v>44753.687519212966</v>
+        <v>44760.598400810188</v>
       </c>
       <c r="K114">
         <v>1</v>
@@ -8560,94 +8563,178 @@
       <c r="N115" s="4"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="5"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
+      <c r="B116" s="40">
+        <v>8527</v>
+      </c>
+      <c r="C116" s="41">
+        <v>1057</v>
+      </c>
+      <c r="D116" t="s">
+        <v>84</v>
+      </c>
+      <c r="E116" t="s">
+        <v>85</v>
+      </c>
+      <c r="F116" t="s">
+        <v>86</v>
+      </c>
+      <c r="G116" t="s">
+        <v>84</v>
+      </c>
+      <c r="H116" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I116" s="37">
+        <v>43580000</v>
+      </c>
+      <c r="J116" s="38">
+        <f t="shared" ca="1" si="34"/>
+        <v>44760.598400810188</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116" t="s">
+        <v>84</v>
+      </c>
+      <c r="M116" s="37">
+        <f>I116*1.11</f>
+        <v>48373800.000000007</v>
+      </c>
+      <c r="N116" s="37">
+        <f t="shared" ref="N116" si="45">I116*1.11</f>
+        <v>48373800.000000007</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116" t="s">
+        <v>84</v>
+      </c>
+      <c r="U116" t="s">
+        <v>87</v>
+      </c>
+      <c r="V116" t="s">
+        <v>84</v>
+      </c>
+      <c r="W116" t="s">
+        <v>84</v>
+      </c>
+      <c r="X116" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y116">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>214</v>
-      </c>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="5"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>215</v>
-      </c>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="5"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9243,21 +9330,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2F9CB5CC580EC46B5860198FEB9E710" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b91388b48bcd9a49e5c6bbe11f5107a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf9b6120-988b-41be-8da6-61dea16cb493" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f067a43816ef2ddba10c3d75903eac" ns2:_="">
     <xsd:import namespace="bf9b6120-988b-41be-8da6-61dea16cb493"/>
@@ -9435,24 +9507,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{960EB93A-7002-4718-9F32-8C3A4C7268F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9468,4 +9538,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
+++ b/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Primbon OLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42D1148-2C51-4CF0-930D-E461408A748D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1B9482-3839-4F1C-81CA-EF68CABB8B77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="225">
   <si>
     <t>"no object reference"</t>
   </si>
@@ -637,9 +637,6 @@
   </si>
   <si>
     <t>-- di delete yang isdelete = 1, karena ada bugs disitu</t>
-  </si>
-  <si>
-    <t>dari excel pak anton (Harga Jual)</t>
   </si>
   <si>
     <t>0000815/4/01/07/2021</t>
@@ -1008,6 +1005,9 @@
   </si>
   <si>
     <t>2022-05-20 00:00:00.000</t>
+  </si>
+  <si>
+    <t>Dari Excel Pak Anton (Harga Jual)</t>
   </si>
 </sst>
 </file>
@@ -2159,10 +2159,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AI139"/>
+  <dimension ref="A1:AI141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2422,11 +2422,11 @@
         <v>2.02111041012E+16</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2528,13 +2528,13 @@
         <v>2.02111290905E+16</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="7">
         <v>4120036566</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2629,13 +2629,13 @@
         <v>2.02111290905E+16</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="7">
         <v>4120037786</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2737,13 +2737,13 @@
         <v>2.02112061145484E+16</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D11" s="7">
         <v>4120034070</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F11">
         <v>36020846</v>
@@ -2845,13 +2845,13 @@
         <v>2.02201060907484E+16</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" s="7">
         <v>4120035319</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2946,13 +2946,13 @@
         <v>2.02201060907484E+16</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" s="7">
         <v>4120035411</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3047,13 +3047,13 @@
         <v>2.02201060951504E+16</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D15" s="7">
         <v>4120034067</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3152,16 +3152,16 @@
     </row>
     <row r="17" spans="1:35" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="D17" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="E17" s="24" t="s">
         <v>220</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>221</v>
       </c>
       <c r="F17" s="24">
         <v>0</v>
@@ -3209,46 +3209,46 @@
         <v>84</v>
       </c>
       <c r="U17" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V17" s="24" t="s">
         <v>123</v>
       </c>
       <c r="W17" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="X17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y17" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="29" t="s">
         <v>223</v>
-      </c>
-      <c r="X17" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y17" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z17" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA17" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC17" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE17" s="24">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG17" s="24">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="29" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
@@ -3272,7 +3272,7 @@
     </row>
     <row r="23" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -3280,10 +3280,10 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="I23" s="35" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="M23" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
@@ -6827,7 +6827,7 @@
       </c>
       <c r="J84" s="21">
         <f ca="1">NOW()</f>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K84" s="18">
         <v>1</v>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="J85" s="21">
         <f ca="1">NOW()</f>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K85" s="18">
         <v>1</v>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="J86" s="21">
         <f ca="1">NOW()</f>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K86" s="18">
         <v>1</v>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="J88" s="5">
         <f ca="1">NOW()</f>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -7141,8 +7141,8 @@
         <v>95844000</v>
       </c>
       <c r="J89" s="5">
-        <f t="shared" ref="J89:J116" ca="1" si="34">NOW()</f>
-        <v>44760.598400810188</v>
+        <f t="shared" ref="J89:J118" ca="1" si="34">NOW()</f>
+        <v>44763.585548379633</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="J90" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -7296,7 +7296,7 @@
       </c>
       <c r="J91" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="J92" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="J93" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="J95" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="J96" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="J98" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="J100" s="32">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K100" s="30">
         <v>1</v>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="J101" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="J103" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -8022,7 +8022,7 @@
       </c>
       <c r="J105" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K105">
         <v>1</v>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="J107" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="J109" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -8267,7 +8267,7 @@
       </c>
       <c r="J110" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K110">
         <v>1</v>
@@ -8344,7 +8344,7 @@
       </c>
       <c r="J111" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="J113" s="38">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K113">
         <v>1</v>
@@ -8505,7 +8505,7 @@
       </c>
       <c r="J114" s="38">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K114">
         <v>1</v>
@@ -8562,7 +8562,7 @@
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="40">
         <v>8527</v>
       </c>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="J116" s="38">
         <f t="shared" ca="1" si="34"/>
-        <v>44760.598400810188</v>
+        <v>44763.585548379633</v>
       </c>
       <c r="K116">
         <v>1</v>
@@ -8639,7 +8639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="5"/>
@@ -8647,94 +8647,178 @@
       <c r="N117" s="4"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="5"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
+      <c r="B118" s="40">
+        <v>8531</v>
+      </c>
+      <c r="C118" s="41">
+        <v>1060</v>
+      </c>
+      <c r="D118" t="s">
+        <v>84</v>
+      </c>
+      <c r="E118" t="s">
+        <v>85</v>
+      </c>
+      <c r="F118" t="s">
+        <v>86</v>
+      </c>
+      <c r="G118" t="s">
+        <v>84</v>
+      </c>
+      <c r="H118" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I118" s="37">
+        <v>103590000</v>
+      </c>
+      <c r="J118" s="38">
+        <f t="shared" ca="1" si="34"/>
+        <v>44763.585548379633</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118" t="s">
+        <v>84</v>
+      </c>
+      <c r="M118" s="37">
+        <f>I118*1.11</f>
+        <v>114984900.00000001</v>
+      </c>
+      <c r="N118" s="37">
+        <f t="shared" ref="N118" si="46">I118*1.11</f>
+        <v>114984900.00000001</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118" t="s">
+        <v>84</v>
+      </c>
+      <c r="U118" t="s">
+        <v>87</v>
+      </c>
+      <c r="V118" t="s">
+        <v>84</v>
+      </c>
+      <c r="W118" t="s">
+        <v>84</v>
+      </c>
+      <c r="X118" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y118">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>214</v>
-      </c>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="5"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>215</v>
-      </c>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="5"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
+      <c r="A124" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B124" s="9"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9285,42 +9369,42 @@
   <sheetData>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -9330,6 +9414,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2F9CB5CC580EC46B5860198FEB9E710" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b91388b48bcd9a49e5c6bbe11f5107a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf9b6120-988b-41be-8da6-61dea16cb493" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f067a43816ef2ddba10c3d75903eac" ns2:_="">
     <xsd:import namespace="bf9b6120-988b-41be-8da6-61dea16cb493"/>
@@ -9507,22 +9606,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{960EB93A-7002-4718-9F32-8C3A4C7268F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9538,21 +9639,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
+++ b/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Primbon OLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1B9482-3839-4F1C-81CA-EF68CABB8B77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BBFDA9-2AB4-4F5D-8C34-A5B2EDBBB5D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="230">
   <si>
     <t>"no object reference"</t>
   </si>
@@ -1008,6 +1008,21 @@
   </si>
   <si>
     <t>Dari Excel Pak Anton (Harga Jual)</t>
+  </si>
+  <si>
+    <t>thn/bln/tgl/jam/detik</t>
+  </si>
+  <si>
+    <t>20220811152950000</t>
+  </si>
+  <si>
+    <t>4120033607</t>
+  </si>
+  <si>
+    <t>2KDAD24337</t>
+  </si>
+  <si>
+    <t>BSI ARYO BUDI</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1198,6 +1213,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2159,10 +2177,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AI141"/>
+  <dimension ref="A1:AI147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,9 +2189,9 @@
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -2187,8 +2205,8 @@
     <col min="18" max="19" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -3259,3043 +3277,2854 @@
       <c r="AI18" s="17"/>
     </row>
     <row r="19" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>225</v>
+      </c>
       <c r="D19" s="7"/>
       <c r="U19" s="17"/>
       <c r="W19" s="17"/>
       <c r="AI19" s="17"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="U20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="AI20" s="17"/>
+    </row>
+    <row r="21" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="18">
+        <v>105000000</v>
+      </c>
+      <c r="J21" s="18">
+        <v>0</v>
+      </c>
+      <c r="K21" s="18">
+        <v>0</v>
+      </c>
+      <c r="L21" s="18">
+        <v>0</v>
+      </c>
+      <c r="M21" s="18">
+        <v>0</v>
+      </c>
+      <c r="N21" s="18">
+        <v>0</v>
+      </c>
+      <c r="O21" s="18">
+        <v>0</v>
+      </c>
+      <c r="P21" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>0</v>
+      </c>
+      <c r="R21" s="18">
+        <v>0</v>
+      </c>
+      <c r="S21" s="18">
+        <v>0</v>
+      </c>
+      <c r="T21" s="18"/>
+      <c r="U21" s="44">
+        <f ca="1">NOW()</f>
+        <v>44785.675982523149</v>
+      </c>
+      <c r="V21" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="W21" s="44">
+        <f ca="1">NOW()</f>
+        <v>44785.675982523149</v>
+      </c>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="44">
+        <f ca="1">NOW()</f>
+        <v>44785.675982523149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="U22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="AI22" s="17"/>
+    </row>
+    <row r="23" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="U23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="AI23" s="17"/>
+    </row>
+    <row r="24" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="U24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="AI24" s="17"/>
+    </row>
+    <row r="25" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="U25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="AI25" s="17"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="29" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="I23" s="35" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="I29" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="M23" s="34" t="s">
+      <c r="M29" s="34" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B30" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C30" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="36" t="s">
+      <c r="I30" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="36" t="s">
+      <c r="J30" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M24" s="36" t="s">
+      <c r="M30" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="N24" s="36" t="s">
+      <c r="N30" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="P30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="R30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="S30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="T24" s="2" t="s">
+      <c r="T30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="U30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="V24" s="2" t="s">
+      <c r="V30" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="W24" s="2" t="s">
+      <c r="W30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="X24" s="2" t="s">
+      <c r="X30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Y24" s="2" t="s">
+      <c r="Y30" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:35" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="14">
+    <row r="31" spans="1:35" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="14">
         <v>8146</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C31" s="14">
         <v>902</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="D31" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F31" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="15">
+      <c r="G31" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="15">
         <v>813445970452000</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I31" s="15">
         <v>138648000</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J31" s="16">
         <v>44496.595138888886</v>
       </c>
-      <c r="K25" s="14">
-        <v>1</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" s="15">
-        <f>I25*1.1</f>
+      <c r="K31" s="14">
+        <v>1</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="15">
+        <f>I31*1.1</f>
         <v>152512800</v>
       </c>
-      <c r="N25" s="15">
-        <f>I25*1.1</f>
+      <c r="N31" s="15">
+        <f>I31*1.1</f>
         <v>152512800</v>
       </c>
-      <c r="O25" s="14">
-        <v>0</v>
-      </c>
-      <c r="P25" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="14">
-        <v>0</v>
-      </c>
-      <c r="R25" s="14">
-        <v>0</v>
-      </c>
-      <c r="S25" s="14">
-        <v>0</v>
-      </c>
-      <c r="T25" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="U25" s="14" t="s">
+      <c r="O31" s="14">
+        <v>0</v>
+      </c>
+      <c r="P31" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>0</v>
+      </c>
+      <c r="R31" s="14">
+        <v>0</v>
+      </c>
+      <c r="S31" s="14">
+        <v>0</v>
+      </c>
+      <c r="T31" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U31" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="V25" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="W25" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="X25" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y25" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="14">
+      <c r="V31" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="W31" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X31" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y31" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="14">
         <v>8147</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C32" s="14">
         <v>903</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="D32" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F32" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="15">
+      <c r="G32" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="15">
         <v>813445970452000</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I32" s="15">
         <v>72899000</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J32" s="16">
         <v>44496.595138888886</v>
       </c>
-      <c r="K26" s="14">
-        <v>1</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="M26" s="15">
-        <f>I26*1.1</f>
+      <c r="K32" s="14">
+        <v>1</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" s="15">
+        <f>I32*1.1</f>
         <v>80188900</v>
       </c>
-      <c r="N26" s="15">
-        <f>I26*1.1</f>
+      <c r="N32" s="15">
+        <f>I32*1.1</f>
         <v>80188900</v>
       </c>
-      <c r="O26" s="14">
-        <v>0</v>
-      </c>
-      <c r="P26" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>0</v>
-      </c>
-      <c r="R26" s="14">
-        <v>0</v>
-      </c>
-      <c r="S26" s="14">
-        <v>0</v>
-      </c>
-      <c r="T26" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="U26" s="14" t="s">
+      <c r="O32" s="14">
+        <v>0</v>
+      </c>
+      <c r="P32" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>0</v>
+      </c>
+      <c r="R32" s="14">
+        <v>0</v>
+      </c>
+      <c r="S32" s="14">
+        <v>0</v>
+      </c>
+      <c r="T32" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U32" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="V26" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="W26" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="X26" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y26" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="V32" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="W32" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X32" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y32" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>8225</v>
       </c>
-      <c r="C28">
+      <c r="C34">
         <v>931</v>
       </c>
-      <c r="D28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" t="s">
         <v>85</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F34" t="s">
         <v>86</v>
       </c>
-      <c r="G28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I34" s="4">
         <v>47526000</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J34" s="5">
         <v>44529.378472222219</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28" t="s">
-        <v>84</v>
-      </c>
-      <c r="M28" s="4">
-        <f t="shared" ref="M28" si="0">I28*1.1</f>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" ref="M34" si="0">I34*1.1</f>
         <v>52278600.000000007</v>
       </c>
-      <c r="N28" s="4">
-        <f t="shared" ref="N28" si="1">I28*1.1</f>
+      <c r="N34" s="4">
+        <f t="shared" ref="N34" si="1">I34*1.1</f>
         <v>52278600.000000007</v>
       </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28" t="s">
-        <v>84</v>
-      </c>
-      <c r="U28" t="s">
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>84</v>
+      </c>
+      <c r="U34" t="s">
         <v>87</v>
       </c>
-      <c r="V28" t="s">
-        <v>84</v>
-      </c>
-      <c r="W28" t="s">
-        <v>84</v>
-      </c>
-      <c r="X28" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="5"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="V34" t="s">
+        <v>84</v>
+      </c>
+      <c r="W34" t="s">
+        <v>84</v>
+      </c>
+      <c r="X34" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>8226</v>
       </c>
-      <c r="C30">
+      <c r="C36">
         <v>932</v>
       </c>
-      <c r="D30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
         <v>85</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F36" t="s">
         <v>86</v>
       </c>
-      <c r="G30" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="G36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I36" s="4">
         <v>43687000</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J36" s="5">
         <v>44529.378472222219</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
-        <v>84</v>
-      </c>
-      <c r="M30" s="4">
-        <f t="shared" ref="M30:M31" si="2">I30*1.1</f>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>84</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" ref="M36:M37" si="2">I36*1.1</f>
         <v>48055700.000000007</v>
       </c>
-      <c r="N30" s="4">
-        <f t="shared" ref="N30:N31" si="3">I30*1.1</f>
+      <c r="N36" s="4">
+        <f t="shared" ref="N36:N37" si="3">I36*1.1</f>
         <v>48055700.000000007</v>
       </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30" t="s">
-        <v>84</v>
-      </c>
-      <c r="U30" t="s">
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36" t="s">
+        <v>84</v>
+      </c>
+      <c r="U36" t="s">
         <v>87</v>
       </c>
-      <c r="V30" t="s">
-        <v>84</v>
-      </c>
-      <c r="W30" t="s">
-        <v>84</v>
-      </c>
-      <c r="X30" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="V36" t="s">
+        <v>84</v>
+      </c>
+      <c r="W36" t="s">
+        <v>84</v>
+      </c>
+      <c r="X36" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>8227</v>
       </c>
-      <c r="C31">
+      <c r="C37">
         <v>932</v>
       </c>
-      <c r="D31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" t="s">
         <v>85</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F37" t="s">
         <v>86</v>
       </c>
-      <c r="G31" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I37" s="4">
         <v>48418000</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J37" s="5">
         <v>44529.378472222219</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" t="s">
-        <v>84</v>
-      </c>
-      <c r="M31" s="4">
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>84</v>
+      </c>
+      <c r="M37" s="4">
         <f t="shared" si="2"/>
         <v>53259800.000000007</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N37" s="4">
         <f t="shared" si="3"/>
         <v>53259800.000000007</v>
       </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31" t="s">
-        <v>84</v>
-      </c>
-      <c r="U31" t="s">
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>84</v>
+      </c>
+      <c r="U37" t="s">
         <v>87</v>
       </c>
-      <c r="V31" t="s">
-        <v>84</v>
-      </c>
-      <c r="W31" t="s">
-        <v>84</v>
-      </c>
-      <c r="X31" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="5"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33">
+      <c r="V37" t="s">
+        <v>84</v>
+      </c>
+      <c r="W37" t="s">
+        <v>84</v>
+      </c>
+      <c r="X37" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>8232</v>
       </c>
-      <c r="C33">
+      <c r="C39">
         <v>934</v>
       </c>
-      <c r="D33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
         <v>85</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F39" t="s">
         <v>86</v>
       </c>
-      <c r="G33" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="4">
+      <c r="G39" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I39" s="4">
         <v>77014000</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J39" s="5">
         <v>44537.375694444447</v>
       </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33" t="s">
-        <v>84</v>
-      </c>
-      <c r="M33" s="4">
-        <f t="shared" ref="M33" si="4">I33*1.1</f>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" ref="M39" si="4">I39*1.1</f>
         <v>84715400</v>
       </c>
-      <c r="N33" s="4">
-        <f t="shared" ref="N33" si="5">I33*1.1</f>
+      <c r="N39" s="4">
+        <f t="shared" ref="N39" si="5">I39*1.1</f>
         <v>84715400</v>
       </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33" t="s">
-        <v>84</v>
-      </c>
-      <c r="U33" t="s">
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39" t="s">
+        <v>84</v>
+      </c>
+      <c r="U39" t="s">
         <v>87</v>
       </c>
-      <c r="V33" t="s">
-        <v>84</v>
-      </c>
-      <c r="W33" t="s">
-        <v>84</v>
-      </c>
-      <c r="X33" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="5"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35">
+      <c r="V39" t="s">
+        <v>84</v>
+      </c>
+      <c r="W39" t="s">
+        <v>84</v>
+      </c>
+      <c r="X39" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41">
         <v>8231</v>
       </c>
-      <c r="C35">
+      <c r="C41">
         <v>935</v>
       </c>
-      <c r="D35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
         <v>85</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F41" t="s">
         <v>86</v>
       </c>
-      <c r="G35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="G41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I41" s="4">
         <v>47000000</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J41" s="5">
         <v>44537.375694444447</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35" t="s">
-        <v>84</v>
-      </c>
-      <c r="M35" s="4">
-        <f t="shared" ref="M35:M38" si="6">I35*1.1</f>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>84</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" ref="M41:M44" si="6">I41*1.1</f>
         <v>51700000.000000007</v>
       </c>
-      <c r="N35" s="4">
-        <f t="shared" ref="N35:N38" si="7">I35*1.1</f>
+      <c r="N41" s="4">
+        <f t="shared" ref="N41:N44" si="7">I41*1.1</f>
         <v>51700000.000000007</v>
       </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35" t="s">
-        <v>84</v>
-      </c>
-      <c r="U35" t="s">
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41" t="s">
+        <v>84</v>
+      </c>
+      <c r="U41" t="s">
         <v>87</v>
       </c>
-      <c r="V35" t="s">
-        <v>84</v>
-      </c>
-      <c r="W35" t="s">
-        <v>84</v>
-      </c>
-      <c r="X35" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36">
+      <c r="V41" t="s">
+        <v>84</v>
+      </c>
+      <c r="W41" t="s">
+        <v>84</v>
+      </c>
+      <c r="X41" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42">
         <v>8233</v>
       </c>
-      <c r="C36">
+      <c r="C42">
         <v>935</v>
       </c>
-      <c r="D36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" t="s">
         <v>85</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F42" t="s">
         <v>86</v>
       </c>
-      <c r="G36" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="G42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I42" s="4">
         <v>47000000</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J42" s="5">
         <v>44537.375694444447</v>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" t="s">
-        <v>84</v>
-      </c>
-      <c r="M36" s="4">
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>84</v>
+      </c>
+      <c r="M42" s="4">
         <f t="shared" si="6"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N42" s="4">
         <f t="shared" si="7"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36" t="s">
-        <v>84</v>
-      </c>
-      <c r="U36" t="s">
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42" t="s">
+        <v>84</v>
+      </c>
+      <c r="U42" t="s">
         <v>87</v>
       </c>
-      <c r="V36" t="s">
-        <v>84</v>
-      </c>
-      <c r="W36" t="s">
-        <v>84</v>
-      </c>
-      <c r="X36" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37">
+      <c r="V42" t="s">
+        <v>84</v>
+      </c>
+      <c r="W42" t="s">
+        <v>84</v>
+      </c>
+      <c r="X42" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43">
         <v>8234</v>
       </c>
-      <c r="C37">
+      <c r="C43">
         <v>935</v>
       </c>
-      <c r="D37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" t="s">
         <v>85</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F43" t="s">
         <v>86</v>
       </c>
-      <c r="G37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="G43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I43" s="4">
         <v>47000000</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J43" s="5">
         <v>44537.375694444447</v>
       </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37" t="s">
-        <v>84</v>
-      </c>
-      <c r="M37" s="4">
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>84</v>
+      </c>
+      <c r="M43" s="4">
         <f t="shared" si="6"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N43" s="4">
         <f t="shared" si="7"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37" t="s">
-        <v>84</v>
-      </c>
-      <c r="U37" t="s">
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43" t="s">
+        <v>84</v>
+      </c>
+      <c r="U43" t="s">
         <v>87</v>
       </c>
-      <c r="V37" t="s">
-        <v>84</v>
-      </c>
-      <c r="W37" t="s">
-        <v>84</v>
-      </c>
-      <c r="X37" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38">
+      <c r="V43" t="s">
+        <v>84</v>
+      </c>
+      <c r="W43" t="s">
+        <v>84</v>
+      </c>
+      <c r="X43" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>8238</v>
       </c>
-      <c r="C38">
+      <c r="C44">
         <v>935</v>
       </c>
-      <c r="D38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" t="s">
         <v>85</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F44" t="s">
         <v>86</v>
       </c>
-      <c r="G38" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="4">
+      <c r="G44" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I44" s="4">
         <v>47000000</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J44" s="5">
         <v>44537.375694444447</v>
       </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" t="s">
-        <v>84</v>
-      </c>
-      <c r="M38" s="4">
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>84</v>
+      </c>
+      <c r="M44" s="4">
         <f t="shared" si="6"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N44" s="4">
         <f t="shared" si="7"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38" t="s">
-        <v>84</v>
-      </c>
-      <c r="U38" t="s">
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44" t="s">
+        <v>84</v>
+      </c>
+      <c r="U44" t="s">
         <v>87</v>
       </c>
-      <c r="V38" t="s">
-        <v>84</v>
-      </c>
-      <c r="W38" t="s">
-        <v>84</v>
-      </c>
-      <c r="X38" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="5"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40">
+      <c r="V44" t="s">
+        <v>84</v>
+      </c>
+      <c r="W44" t="s">
+        <v>84</v>
+      </c>
+      <c r="X44" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>8250</v>
       </c>
-      <c r="C40">
+      <c r="C46">
         <v>945</v>
       </c>
-      <c r="D40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
         <v>85</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F46" t="s">
         <v>86</v>
       </c>
-      <c r="G40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H40" s="4">
+      <c r="G46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I46" s="4">
         <v>66818000</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J46" s="5">
         <v>44543.326388888891</v>
       </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40" t="s">
-        <v>84</v>
-      </c>
-      <c r="M40" s="4">
-        <f t="shared" ref="M40:M41" si="8">I40*1.1</f>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>84</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" ref="M46:M47" si="8">I46*1.1</f>
         <v>73499800</v>
       </c>
-      <c r="N40" s="4">
-        <f t="shared" ref="N40:N41" si="9">I40*1.1</f>
+      <c r="N46" s="4">
+        <f t="shared" ref="N46:N47" si="9">I46*1.1</f>
         <v>73499800</v>
       </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40" t="s">
-        <v>84</v>
-      </c>
-      <c r="U40" t="s">
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46" t="s">
+        <v>84</v>
+      </c>
+      <c r="U46" t="s">
         <v>87</v>
       </c>
-      <c r="V40" t="s">
-        <v>84</v>
-      </c>
-      <c r="W40" t="s">
-        <v>84</v>
-      </c>
-      <c r="X40" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41">
+      <c r="V46" t="s">
+        <v>84</v>
+      </c>
+      <c r="W46" t="s">
+        <v>84</v>
+      </c>
+      <c r="X46" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>8251</v>
       </c>
-      <c r="C41">
+      <c r="C47">
         <v>946</v>
       </c>
-      <c r="D41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" t="s">
         <v>85</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F47" t="s">
         <v>86</v>
       </c>
-      <c r="G41" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="4">
+      <c r="G47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I47" s="4">
         <v>87000000</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J47" s="5">
         <v>44543.326388888891</v>
       </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41" t="s">
-        <v>84</v>
-      </c>
-      <c r="M41" s="4">
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>84</v>
+      </c>
+      <c r="M47" s="4">
         <f t="shared" si="8"/>
         <v>95700000.000000015</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N47" s="4">
         <f t="shared" si="9"/>
         <v>95700000.000000015</v>
       </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41" t="s">
-        <v>84</v>
-      </c>
-      <c r="U41" t="s">
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47" t="s">
+        <v>84</v>
+      </c>
+      <c r="U47" t="s">
         <v>87</v>
       </c>
-      <c r="V41" t="s">
-        <v>84</v>
-      </c>
-      <c r="W41" t="s">
-        <v>84</v>
-      </c>
-      <c r="X41" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="5"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="5"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44">
+      <c r="V47" t="s">
+        <v>84</v>
+      </c>
+      <c r="W47" t="s">
+        <v>84</v>
+      </c>
+      <c r="X47" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="5"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="5"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50">
         <v>8263</v>
       </c>
-      <c r="C44">
+      <c r="C50">
         <v>959</v>
       </c>
-      <c r="D44" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" t="s">
         <v>85</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F50" t="s">
         <v>86</v>
       </c>
-      <c r="G44" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" s="4">
+      <c r="G50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I50" s="4">
         <v>137502000</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J50" s="5">
         <v>44550.377083333333</v>
       </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44" t="s">
-        <v>84</v>
-      </c>
-      <c r="M44" s="4">
-        <f t="shared" ref="M44:M51" si="10">I44*1.1</f>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>84</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" ref="M50:M57" si="10">I50*1.1</f>
         <v>151252200</v>
       </c>
-      <c r="N44" s="4">
-        <f t="shared" ref="N44:N51" si="11">I44*1.1</f>
+      <c r="N50" s="4">
+        <f t="shared" ref="N50:N57" si="11">I50*1.1</f>
         <v>151252200</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44" t="s">
-        <v>84</v>
-      </c>
-      <c r="U44" t="s">
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50" t="s">
+        <v>84</v>
+      </c>
+      <c r="U50" t="s">
         <v>87</v>
       </c>
-      <c r="V44" t="s">
-        <v>84</v>
-      </c>
-      <c r="W44" t="s">
-        <v>84</v>
-      </c>
-      <c r="X44" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45">
+      <c r="V50" t="s">
+        <v>84</v>
+      </c>
+      <c r="W50" t="s">
+        <v>84</v>
+      </c>
+      <c r="X50" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>8264</v>
       </c>
-      <c r="C45">
+      <c r="C51">
         <v>959</v>
       </c>
-      <c r="D45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" t="s">
         <v>85</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F51" t="s">
         <v>86</v>
       </c>
-      <c r="G45" t="s">
-        <v>84</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="G51" t="s">
+        <v>84</v>
+      </c>
+      <c r="H51" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I51" s="4">
         <v>78924000</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J51" s="5">
         <v>44550.377083333333</v>
       </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45" t="s">
-        <v>84</v>
-      </c>
-      <c r="M45" s="4">
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>84</v>
+      </c>
+      <c r="M51" s="4">
         <f t="shared" si="10"/>
         <v>86816400</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N51" s="4">
         <f t="shared" si="11"/>
         <v>86816400</v>
       </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45" t="s">
-        <v>84</v>
-      </c>
-      <c r="U45" t="s">
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51" t="s">
+        <v>84</v>
+      </c>
+      <c r="U51" t="s">
         <v>87</v>
       </c>
-      <c r="V45" t="s">
-        <v>84</v>
-      </c>
-      <c r="W45" t="s">
-        <v>84</v>
-      </c>
-      <c r="X45" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46">
+      <c r="V51" t="s">
+        <v>84</v>
+      </c>
+      <c r="W51" t="s">
+        <v>84</v>
+      </c>
+      <c r="X51" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52">
         <v>8267</v>
       </c>
-      <c r="C46">
+      <c r="C52">
         <v>960</v>
       </c>
-      <c r="D46" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" t="s">
         <v>85</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F52" t="s">
         <v>86</v>
       </c>
-      <c r="G46" t="s">
-        <v>84</v>
-      </c>
-      <c r="H46" s="4">
+      <c r="G52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I52" s="4">
         <v>229663000</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J52" s="5">
         <v>44550.377083333333</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46" t="s">
-        <v>84</v>
-      </c>
-      <c r="M46" s="4">
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>84</v>
+      </c>
+      <c r="M52" s="4">
         <f t="shared" si="10"/>
         <v>252629300.00000003</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N52" s="4">
         <f t="shared" si="11"/>
         <v>252629300.00000003</v>
       </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46" t="s">
-        <v>84</v>
-      </c>
-      <c r="U46" t="s">
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52" t="s">
+        <v>84</v>
+      </c>
+      <c r="U52" t="s">
         <v>87</v>
       </c>
-      <c r="V46" t="s">
-        <v>84</v>
-      </c>
-      <c r="W46" t="s">
-        <v>84</v>
-      </c>
-      <c r="X46" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47">
+      <c r="V52" t="s">
+        <v>84</v>
+      </c>
+      <c r="W52" t="s">
+        <v>84</v>
+      </c>
+      <c r="X52" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53">
         <v>8268</v>
       </c>
-      <c r="C47">
+      <c r="C53">
         <v>960</v>
       </c>
-      <c r="D47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" t="s">
         <v>85</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F53" t="s">
         <v>86</v>
       </c>
-      <c r="G47" t="s">
-        <v>84</v>
-      </c>
-      <c r="H47" s="4">
+      <c r="G53" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I53" s="4">
         <v>89121000</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J53" s="5">
         <v>44550.377083333333</v>
       </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47" t="s">
-        <v>84</v>
-      </c>
-      <c r="M47" s="4">
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>84</v>
+      </c>
+      <c r="M53" s="4">
         <f t="shared" si="10"/>
         <v>98033100.000000015</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N53" s="4">
         <f t="shared" si="11"/>
         <v>98033100.000000015</v>
       </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47" t="s">
-        <v>84</v>
-      </c>
-      <c r="U47" t="s">
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53" t="s">
+        <v>84</v>
+      </c>
+      <c r="U53" t="s">
         <v>87</v>
       </c>
-      <c r="V47" t="s">
-        <v>84</v>
-      </c>
-      <c r="W47" t="s">
-        <v>84</v>
-      </c>
-      <c r="X47" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48">
+      <c r="V53" t="s">
+        <v>84</v>
+      </c>
+      <c r="W53" t="s">
+        <v>84</v>
+      </c>
+      <c r="X53" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54">
         <v>8269</v>
       </c>
-      <c r="C48">
+      <c r="C54">
         <v>960</v>
       </c>
-      <c r="D48" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" t="s">
         <v>85</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F54" t="s">
         <v>86</v>
       </c>
-      <c r="G48" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="4">
+      <c r="G54" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I54" s="4">
         <v>77014000</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J54" s="5">
         <v>44550.377083333333</v>
       </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48" t="s">
-        <v>84</v>
-      </c>
-      <c r="M48" s="4">
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>84</v>
+      </c>
+      <c r="M54" s="4">
         <f t="shared" si="10"/>
         <v>84715400</v>
       </c>
-      <c r="N48" s="4">
+      <c r="N54" s="4">
         <f t="shared" si="11"/>
         <v>84715400</v>
       </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48" t="s">
-        <v>84</v>
-      </c>
-      <c r="U48" t="s">
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54" t="s">
+        <v>84</v>
+      </c>
+      <c r="U54" t="s">
         <v>87</v>
       </c>
-      <c r="V48" t="s">
-        <v>84</v>
-      </c>
-      <c r="W48" t="s">
-        <v>84</v>
-      </c>
-      <c r="X48" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49">
+      <c r="V54" t="s">
+        <v>84</v>
+      </c>
+      <c r="W54" t="s">
+        <v>84</v>
+      </c>
+      <c r="X54" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55">
         <v>8270</v>
       </c>
-      <c r="C49">
+      <c r="C55">
         <v>960</v>
       </c>
-      <c r="D49" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" t="s">
         <v>85</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F55" t="s">
         <v>86</v>
       </c>
-      <c r="G49" t="s">
-        <v>84</v>
-      </c>
-      <c r="H49" s="4">
+      <c r="G55" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I55" s="4">
         <v>61612000</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J55" s="5">
         <v>44550.377083333333</v>
       </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49" t="s">
-        <v>84</v>
-      </c>
-      <c r="M49" s="4">
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>84</v>
+      </c>
+      <c r="M55" s="4">
         <f t="shared" si="10"/>
         <v>67773200</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N55" s="4">
         <f t="shared" si="11"/>
         <v>67773200</v>
       </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49" t="s">
-        <v>84</v>
-      </c>
-      <c r="U49" t="s">
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55" t="s">
+        <v>84</v>
+      </c>
+      <c r="U55" t="s">
         <v>87</v>
       </c>
-      <c r="V49" t="s">
-        <v>84</v>
-      </c>
-      <c r="W49" t="s">
-        <v>84</v>
-      </c>
-      <c r="X49" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50">
+      <c r="V55" t="s">
+        <v>84</v>
+      </c>
+      <c r="W55" t="s">
+        <v>84</v>
+      </c>
+      <c r="X55" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56">
         <v>8265</v>
       </c>
-      <c r="C50">
+      <c r="C56">
         <v>961</v>
       </c>
-      <c r="D50" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" t="s">
         <v>85</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F56" t="s">
         <v>86</v>
       </c>
-      <c r="G50" t="s">
-        <v>84</v>
-      </c>
-      <c r="H50" s="4">
+      <c r="G56" t="s">
+        <v>84</v>
+      </c>
+      <c r="H56" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I56" s="4">
         <v>47000000</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J56" s="5">
         <v>44550.377083333333</v>
       </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" t="s">
-        <v>84</v>
-      </c>
-      <c r="M50" s="4">
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>84</v>
+      </c>
+      <c r="M56" s="4">
         <f t="shared" si="10"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N56" s="4">
         <f t="shared" si="11"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50" t="s">
-        <v>84</v>
-      </c>
-      <c r="U50" t="s">
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56" t="s">
+        <v>84</v>
+      </c>
+      <c r="U56" t="s">
         <v>87</v>
       </c>
-      <c r="V50" t="s">
-        <v>84</v>
-      </c>
-      <c r="W50" t="s">
-        <v>84</v>
-      </c>
-      <c r="X50" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51">
+      <c r="V56" t="s">
+        <v>84</v>
+      </c>
+      <c r="W56" t="s">
+        <v>84</v>
+      </c>
+      <c r="X56" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57">
         <v>8266</v>
       </c>
-      <c r="C51">
+      <c r="C57">
         <v>961</v>
       </c>
-      <c r="D51" t="s">
-        <v>84</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" t="s">
         <v>85</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F57" t="s">
         <v>86</v>
       </c>
-      <c r="G51" t="s">
-        <v>84</v>
-      </c>
-      <c r="H51" s="4">
+      <c r="G57" t="s">
+        <v>84</v>
+      </c>
+      <c r="H57" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I57" s="4">
         <v>49342000</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J57" s="5">
         <v>44550.377083333333</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51" t="s">
-        <v>84</v>
-      </c>
-      <c r="M51" s="4">
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>84</v>
+      </c>
+      <c r="M57" s="4">
         <f t="shared" si="10"/>
         <v>54276200.000000007</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N57" s="4">
         <f t="shared" si="11"/>
         <v>54276200.000000007</v>
       </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51" t="s">
-        <v>84</v>
-      </c>
-      <c r="U51" t="s">
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57" t="s">
+        <v>84</v>
+      </c>
+      <c r="U57" t="s">
         <v>87</v>
       </c>
-      <c r="V51" t="s">
-        <v>84</v>
-      </c>
-      <c r="W51" t="s">
-        <v>84</v>
-      </c>
-      <c r="X51" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52">
+      <c r="V57" t="s">
+        <v>84</v>
+      </c>
+      <c r="W57" t="s">
+        <v>84</v>
+      </c>
+      <c r="X57" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58">
         <v>8271</v>
       </c>
-      <c r="C52">
+      <c r="C58">
         <v>961</v>
       </c>
-      <c r="D52" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" t="s">
         <v>85</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F58" t="s">
         <v>86</v>
       </c>
-      <c r="G52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H52" s="4">
+      <c r="G58" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I58" s="4">
         <v>44000000</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J58" s="5">
         <v>44550.377083333333</v>
       </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52" t="s">
-        <v>84</v>
-      </c>
-      <c r="M52" s="4">
-        <f t="shared" ref="M52" si="12">I52*1.1</f>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>84</v>
+      </c>
+      <c r="M58" s="4">
+        <f t="shared" ref="M58" si="12">I58*1.1</f>
         <v>48400000.000000007</v>
       </c>
-      <c r="N52" s="4">
-        <f t="shared" ref="N52" si="13">I52*1.1</f>
+      <c r="N58" s="4">
+        <f t="shared" ref="N58" si="13">I58*1.1</f>
         <v>48400000.000000007</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52" t="s">
-        <v>84</v>
-      </c>
-      <c r="U52" t="s">
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58" t="s">
+        <v>84</v>
+      </c>
+      <c r="U58" t="s">
         <v>87</v>
       </c>
-      <c r="V52" t="s">
-        <v>84</v>
-      </c>
-      <c r="W52" t="s">
-        <v>84</v>
-      </c>
-      <c r="X52" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:25" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54">
+      <c r="V58" t="s">
+        <v>84</v>
+      </c>
+      <c r="W58" t="s">
+        <v>84</v>
+      </c>
+      <c r="X58" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60">
         <v>8383</v>
       </c>
-      <c r="C54">
+      <c r="C60">
         <v>968</v>
       </c>
-      <c r="D54" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" t="s">
         <v>85</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F60" t="s">
         <v>86</v>
       </c>
-      <c r="G54" t="s">
-        <v>84</v>
-      </c>
-      <c r="H54" s="4">
+      <c r="G60" t="s">
+        <v>84</v>
+      </c>
+      <c r="H60" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I60" s="4">
         <v>77014000</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J60" s="5">
         <v>44558.439583333333</v>
       </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54" t="s">
-        <v>84</v>
-      </c>
-      <c r="M54" s="4">
-        <f t="shared" ref="M54:M55" si="14">I54*1.1</f>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
+        <v>84</v>
+      </c>
+      <c r="M60" s="4">
+        <f t="shared" ref="M60:M61" si="14">I60*1.1</f>
         <v>84715400</v>
       </c>
-      <c r="N54" s="4">
-        <f t="shared" ref="N54:N55" si="15">I54*1.1</f>
+      <c r="N60" s="4">
+        <f t="shared" ref="N60:N61" si="15">I60*1.1</f>
         <v>84715400</v>
       </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54" t="s">
-        <v>84</v>
-      </c>
-      <c r="U54" t="s">
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60" t="s">
+        <v>84</v>
+      </c>
+      <c r="U60" t="s">
         <v>87</v>
       </c>
-      <c r="V54" t="s">
-        <v>84</v>
-      </c>
-      <c r="W54" t="s">
-        <v>84</v>
-      </c>
-      <c r="X54" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55">
+      <c r="V60" t="s">
+        <v>84</v>
+      </c>
+      <c r="W60" t="s">
+        <v>84</v>
+      </c>
+      <c r="X60" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61">
         <v>8384</v>
       </c>
-      <c r="C55">
+      <c r="C61">
         <v>968</v>
       </c>
-      <c r="D55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" t="s">
         <v>85</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F61" t="s">
         <v>86</v>
       </c>
-      <c r="G55" t="s">
-        <v>84</v>
-      </c>
-      <c r="H55" s="4">
+      <c r="G61" t="s">
+        <v>84</v>
+      </c>
+      <c r="H61" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I61" s="4">
         <v>63737000</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J61" s="5">
         <v>44558.439583333333</v>
       </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55" t="s">
-        <v>84</v>
-      </c>
-      <c r="M55" s="4">
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>84</v>
+      </c>
+      <c r="M61" s="4">
         <f t="shared" si="14"/>
         <v>70110700</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N61" s="4">
         <f t="shared" si="15"/>
         <v>70110700</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55" t="s">
-        <v>84</v>
-      </c>
-      <c r="U55" t="s">
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61" t="s">
+        <v>84</v>
+      </c>
+      <c r="U61" t="s">
         <v>87</v>
       </c>
-      <c r="V55" t="s">
-        <v>84</v>
-      </c>
-      <c r="W55" t="s">
-        <v>84</v>
-      </c>
-      <c r="X55" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:25" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57">
+      <c r="V61" t="s">
+        <v>84</v>
+      </c>
+      <c r="W61" t="s">
+        <v>84</v>
+      </c>
+      <c r="X61" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63">
         <v>8387</v>
       </c>
-      <c r="C57">
+      <c r="C63">
         <v>970</v>
       </c>
-      <c r="D57" t="s">
-        <v>84</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" t="s">
         <v>85</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F63" t="s">
         <v>86</v>
       </c>
-      <c r="G57" t="s">
-        <v>84</v>
-      </c>
-      <c r="H57" s="4">
+      <c r="G63" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I63" s="4">
         <v>99667000</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J63" s="5">
         <v>44567.619444444441</v>
       </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57" t="s">
-        <v>84</v>
-      </c>
-      <c r="M57" s="4">
-        <f t="shared" ref="M57:M59" si="16">I57*1.1</f>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>84</v>
+      </c>
+      <c r="M63" s="4">
+        <f t="shared" ref="M63:M65" si="16">I63*1.1</f>
         <v>109633700.00000001</v>
       </c>
-      <c r="N57" s="4">
-        <f t="shared" ref="N57:N59" si="17">I57*1.1</f>
+      <c r="N63" s="4">
+        <f t="shared" ref="N63:N65" si="17">I63*1.1</f>
         <v>109633700.00000001</v>
       </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57" t="s">
-        <v>84</v>
-      </c>
-      <c r="U57" t="s">
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63" t="s">
+        <v>84</v>
+      </c>
+      <c r="U63" t="s">
         <v>87</v>
       </c>
-      <c r="V57" t="s">
-        <v>84</v>
-      </c>
-      <c r="W57" t="s">
-        <v>84</v>
-      </c>
-      <c r="X57" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58">
+      <c r="V63" t="s">
+        <v>84</v>
+      </c>
+      <c r="W63" t="s">
+        <v>84</v>
+      </c>
+      <c r="X63" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64">
         <v>8388</v>
       </c>
-      <c r="C58">
+      <c r="C64">
         <v>970</v>
       </c>
-      <c r="D58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" t="s">
         <v>85</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F64" t="s">
         <v>86</v>
       </c>
-      <c r="G58" t="s">
-        <v>84</v>
-      </c>
-      <c r="H58" s="4">
+      <c r="G64" t="s">
+        <v>84</v>
+      </c>
+      <c r="H64" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I64" s="4">
         <v>73295000</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J64" s="5">
         <v>44567.619444444441</v>
       </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58" t="s">
-        <v>84</v>
-      </c>
-      <c r="M58" s="4">
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>84</v>
+      </c>
+      <c r="M64" s="4">
         <f t="shared" si="16"/>
         <v>80624500</v>
       </c>
-      <c r="N58" s="4">
+      <c r="N64" s="4">
         <f t="shared" si="17"/>
         <v>80624500</v>
       </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58" t="s">
-        <v>84</v>
-      </c>
-      <c r="U58" t="s">
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64" t="s">
+        <v>84</v>
+      </c>
+      <c r="U64" t="s">
         <v>87</v>
       </c>
-      <c r="V58" t="s">
-        <v>84</v>
-      </c>
-      <c r="W58" t="s">
-        <v>84</v>
-      </c>
-      <c r="X58" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59">
+      <c r="V64" t="s">
+        <v>84</v>
+      </c>
+      <c r="W64" t="s">
+        <v>84</v>
+      </c>
+      <c r="X64" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65">
         <v>8389</v>
       </c>
-      <c r="C59">
+      <c r="C65">
         <v>971</v>
       </c>
-      <c r="D59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D65" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65" t="s">
         <v>85</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F65" t="s">
         <v>86</v>
       </c>
-      <c r="G59" t="s">
-        <v>84</v>
-      </c>
-      <c r="H59" s="4">
+      <c r="G65" t="s">
+        <v>84</v>
+      </c>
+      <c r="H65" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I65" s="4">
         <v>47000000</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J65" s="5">
         <v>44567.619444444441</v>
       </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59" t="s">
-        <v>84</v>
-      </c>
-      <c r="M59" s="4">
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>84</v>
+      </c>
+      <c r="M65" s="4">
         <f t="shared" si="16"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="N59" s="4">
+      <c r="N65" s="4">
         <f t="shared" si="17"/>
         <v>51700000.000000007</v>
       </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59" t="s">
-        <v>84</v>
-      </c>
-      <c r="U59" t="s">
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65" t="s">
+        <v>84</v>
+      </c>
+      <c r="U65" t="s">
         <v>87</v>
       </c>
-      <c r="V59" t="s">
-        <v>84</v>
-      </c>
-      <c r="W59" t="s">
-        <v>84</v>
-      </c>
-      <c r="X59" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="5"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-    </row>
-    <row r="61" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61">
+      <c r="V65" t="s">
+        <v>84</v>
+      </c>
+      <c r="W65" t="s">
+        <v>84</v>
+      </c>
+      <c r="X65" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="5"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67">
         <v>8397</v>
       </c>
-      <c r="C61">
+      <c r="C67">
         <v>976</v>
       </c>
-      <c r="D61" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D67" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" t="s">
         <v>85</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F67" t="s">
         <v>86</v>
       </c>
-      <c r="G61" t="s">
-        <v>84</v>
-      </c>
-      <c r="H61" s="4">
+      <c r="G67" t="s">
+        <v>84</v>
+      </c>
+      <c r="H67" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I67" s="4">
         <v>83414000</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J67" s="5">
         <v>44573.599999999999</v>
       </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
-        <v>84</v>
-      </c>
-      <c r="M61" s="4">
-        <f t="shared" ref="M61" si="18">I61*1.1</f>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>84</v>
+      </c>
+      <c r="M67" s="4">
+        <f t="shared" ref="M67" si="18">I67*1.1</f>
         <v>91755400</v>
       </c>
-      <c r="N61" s="4">
-        <f t="shared" ref="N61" si="19">I61*1.1</f>
+      <c r="N67" s="4">
+        <f t="shared" ref="N67" si="19">I67*1.1</f>
         <v>91755400</v>
       </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61" t="s">
-        <v>84</v>
-      </c>
-      <c r="U61" t="s">
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67" t="s">
+        <v>84</v>
+      </c>
+      <c r="U67" t="s">
         <v>87</v>
       </c>
-      <c r="V61" t="s">
-        <v>84</v>
-      </c>
-      <c r="W61" t="s">
-        <v>84</v>
-      </c>
-      <c r="X61" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62">
+      <c r="V67" t="s">
+        <v>84</v>
+      </c>
+      <c r="W67" t="s">
+        <v>84</v>
+      </c>
+      <c r="X67" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68">
         <v>8394</v>
       </c>
-      <c r="C62">
+      <c r="C68">
         <v>977</v>
       </c>
-      <c r="D62" t="s">
-        <v>84</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D68" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" t="s">
         <v>85</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F68" t="s">
         <v>86</v>
       </c>
-      <c r="G62" t="s">
-        <v>84</v>
-      </c>
-      <c r="H62" s="4">
+      <c r="G68" t="s">
+        <v>84</v>
+      </c>
+      <c r="H68" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I68" s="4">
         <v>49834000</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J68" s="5">
         <v>44573.599999999999</v>
       </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62" t="s">
-        <v>84</v>
-      </c>
-      <c r="M62" s="4">
-        <f t="shared" ref="M62:M64" si="20">I62*1.1</f>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>84</v>
+      </c>
+      <c r="M68" s="4">
+        <f t="shared" ref="M68:M70" si="20">I68*1.1</f>
         <v>54817400.000000007</v>
       </c>
-      <c r="N62" s="4">
-        <f t="shared" ref="N62:N64" si="21">I62*1.1</f>
+      <c r="N68" s="4">
+        <f t="shared" ref="N68:N70" si="21">I68*1.1</f>
         <v>54817400.000000007</v>
       </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62" t="s">
-        <v>84</v>
-      </c>
-      <c r="U62" t="s">
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68" t="s">
+        <v>84</v>
+      </c>
+      <c r="U68" t="s">
         <v>87</v>
       </c>
-      <c r="V62" t="s">
-        <v>84</v>
-      </c>
-      <c r="W62" t="s">
-        <v>84</v>
-      </c>
-      <c r="X62" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63">
+      <c r="V68" t="s">
+        <v>84</v>
+      </c>
+      <c r="W68" t="s">
+        <v>84</v>
+      </c>
+      <c r="X68" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69">
         <v>8395</v>
       </c>
-      <c r="C63">
+      <c r="C69">
         <v>977</v>
       </c>
-      <c r="D63" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D69" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" t="s">
         <v>85</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F69" t="s">
         <v>86</v>
       </c>
-      <c r="G63" t="s">
-        <v>84</v>
-      </c>
-      <c r="H63" s="4">
+      <c r="G69" t="s">
+        <v>84</v>
+      </c>
+      <c r="H69" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I69" s="4">
         <v>76349000</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J69" s="5">
         <v>44573.599999999999</v>
       </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63" t="s">
-        <v>84</v>
-      </c>
-      <c r="M63" s="4">
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>84</v>
+      </c>
+      <c r="M69" s="4">
         <f t="shared" si="20"/>
         <v>83983900</v>
       </c>
-      <c r="N63" s="4">
+      <c r="N69" s="4">
         <f t="shared" si="21"/>
         <v>83983900</v>
       </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63" t="s">
-        <v>84</v>
-      </c>
-      <c r="U63" t="s">
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69" t="s">
+        <v>84</v>
+      </c>
+      <c r="U69" t="s">
         <v>87</v>
       </c>
-      <c r="V63" t="s">
-        <v>84</v>
-      </c>
-      <c r="W63" t="s">
-        <v>84</v>
-      </c>
-      <c r="X63" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64">
+      <c r="V69" t="s">
+        <v>84</v>
+      </c>
+      <c r="W69" t="s">
+        <v>84</v>
+      </c>
+      <c r="X69" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70">
         <v>8396</v>
       </c>
-      <c r="C64">
+      <c r="C70">
         <v>977</v>
       </c>
-      <c r="D64" t="s">
-        <v>84</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D70" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" t="s">
         <v>85</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F70" t="s">
         <v>86</v>
       </c>
-      <c r="G64" t="s">
-        <v>84</v>
-      </c>
-      <c r="H64" s="4">
+      <c r="G70" t="s">
+        <v>84</v>
+      </c>
+      <c r="H70" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I70" s="4">
         <v>73295000</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J70" s="5">
         <v>44573.599999999999</v>
       </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64" t="s">
-        <v>84</v>
-      </c>
-      <c r="M64" s="4">
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
+        <v>84</v>
+      </c>
+      <c r="M70" s="4">
         <f t="shared" si="20"/>
         <v>80624500</v>
       </c>
-      <c r="N64" s="4">
+      <c r="N70" s="4">
         <f t="shared" si="21"/>
         <v>80624500</v>
       </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="T64" t="s">
-        <v>84</v>
-      </c>
-      <c r="U64" t="s">
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70" t="s">
+        <v>84</v>
+      </c>
+      <c r="U70" t="s">
         <v>87</v>
       </c>
-      <c r="V64" t="s">
-        <v>84</v>
-      </c>
-      <c r="W64" t="s">
-        <v>84</v>
-      </c>
-      <c r="X64" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="5"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-    </row>
-    <row r="66" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66">
+      <c r="V70" t="s">
+        <v>84</v>
+      </c>
+      <c r="W70" t="s">
+        <v>84</v>
+      </c>
+      <c r="X70" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="5"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72">
         <v>8405</v>
       </c>
-      <c r="C66">
+      <c r="C72">
         <v>981</v>
       </c>
-      <c r="D66" t="s">
-        <v>84</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" t="s">
         <v>85</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F72" t="s">
         <v>86</v>
       </c>
-      <c r="G66" t="s">
-        <v>84</v>
-      </c>
-      <c r="H66" s="4">
+      <c r="G72" t="s">
+        <v>84</v>
+      </c>
+      <c r="H72" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I72" s="4">
         <v>140362000</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J72" s="5">
         <v>44579.643750000003</v>
       </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66" t="s">
-        <v>84</v>
-      </c>
-      <c r="M66" s="4">
-        <f t="shared" ref="M66:M69" si="22">I66*1.1</f>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>84</v>
+      </c>
+      <c r="M72" s="4">
+        <f t="shared" ref="M72:M75" si="22">I72*1.1</f>
         <v>154398200</v>
       </c>
-      <c r="N66" s="4">
-        <f t="shared" ref="N66:N69" si="23">I66*1.1</f>
+      <c r="N72" s="4">
+        <f t="shared" ref="N72:N75" si="23">I72*1.1</f>
         <v>154398200</v>
       </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66" t="s">
-        <v>84</v>
-      </c>
-      <c r="U66" t="s">
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72" t="s">
+        <v>84</v>
+      </c>
+      <c r="U72" t="s">
         <v>87</v>
       </c>
-      <c r="V66" t="s">
-        <v>84</v>
-      </c>
-      <c r="W66" t="s">
-        <v>84</v>
-      </c>
-      <c r="X66" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67">
+      <c r="V72" t="s">
+        <v>84</v>
+      </c>
+      <c r="W72" t="s">
+        <v>84</v>
+      </c>
+      <c r="X72" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73">
         <v>8406</v>
       </c>
-      <c r="C67">
+      <c r="C73">
         <v>981</v>
       </c>
-      <c r="D67" t="s">
-        <v>84</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="D73" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" t="s">
         <v>85</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F73" t="s">
         <v>86</v>
       </c>
-      <c r="G67" t="s">
-        <v>84</v>
-      </c>
-      <c r="H67" s="4">
+      <c r="G73" t="s">
+        <v>84</v>
+      </c>
+      <c r="H73" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I73" s="4">
         <v>227793000</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J73" s="5">
         <v>44579.643750000003</v>
       </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67" t="s">
-        <v>84</v>
-      </c>
-      <c r="M67" s="4">
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" t="s">
+        <v>84</v>
+      </c>
+      <c r="M73" s="4">
         <f t="shared" si="22"/>
         <v>250572300.00000003</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N73" s="4">
         <f t="shared" si="23"/>
         <v>250572300.00000003</v>
       </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67" t="s">
-        <v>84</v>
-      </c>
-      <c r="U67" t="s">
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73" t="s">
+        <v>84</v>
+      </c>
+      <c r="U73" t="s">
         <v>87</v>
       </c>
-      <c r="V67" t="s">
-        <v>84</v>
-      </c>
-      <c r="W67" t="s">
-        <v>84</v>
-      </c>
-      <c r="X67" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68">
+      <c r="V73" t="s">
+        <v>84</v>
+      </c>
+      <c r="W73" t="s">
+        <v>84</v>
+      </c>
+      <c r="X73" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74">
         <v>8407</v>
       </c>
-      <c r="C68">
+      <c r="C74">
         <v>981</v>
       </c>
-      <c r="D68" t="s">
-        <v>84</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D74" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" t="s">
         <v>85</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F74" t="s">
         <v>86</v>
       </c>
-      <c r="G68" t="s">
-        <v>84</v>
-      </c>
-      <c r="H68" s="4">
+      <c r="G74" t="s">
+        <v>84</v>
+      </c>
+      <c r="H74" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I74" s="4">
         <v>73295000</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J74" s="5">
         <v>44579.643750000003</v>
       </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68" t="s">
-        <v>84</v>
-      </c>
-      <c r="M68" s="4">
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>84</v>
+      </c>
+      <c r="M74" s="4">
         <f t="shared" si="22"/>
         <v>80624500</v>
       </c>
-      <c r="N68" s="4">
+      <c r="N74" s="4">
         <f t="shared" si="23"/>
         <v>80624500</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-      <c r="T68" t="s">
-        <v>84</v>
-      </c>
-      <c r="U68" t="s">
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74" t="s">
+        <v>84</v>
+      </c>
+      <c r="U74" t="s">
         <v>87</v>
       </c>
-      <c r="V68" t="s">
-        <v>84</v>
-      </c>
-      <c r="W68" t="s">
-        <v>84</v>
-      </c>
-      <c r="X68" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69">
+      <c r="V74" t="s">
+        <v>84</v>
+      </c>
+      <c r="W74" t="s">
+        <v>84</v>
+      </c>
+      <c r="X74" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75">
         <v>8408</v>
       </c>
-      <c r="C69">
+      <c r="C75">
         <v>981</v>
       </c>
-      <c r="D69" t="s">
-        <v>84</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="D75" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" t="s">
         <v>85</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F75" t="s">
         <v>86</v>
       </c>
-      <c r="G69" t="s">
-        <v>84</v>
-      </c>
-      <c r="H69" s="4">
+      <c r="G75" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I75" s="4">
         <v>70097000</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J75" s="5">
         <v>44579.643750000003</v>
       </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69" t="s">
-        <v>84</v>
-      </c>
-      <c r="M69" s="4">
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>84</v>
+      </c>
+      <c r="M75" s="4">
         <f t="shared" si="22"/>
         <v>77106700</v>
       </c>
-      <c r="N69" s="4">
+      <c r="N75" s="4">
         <f t="shared" si="23"/>
         <v>77106700</v>
       </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-      <c r="T69" t="s">
-        <v>84</v>
-      </c>
-      <c r="U69" t="s">
-        <v>87</v>
-      </c>
-      <c r="V69" t="s">
-        <v>84</v>
-      </c>
-      <c r="W69" t="s">
-        <v>84</v>
-      </c>
-      <c r="X69" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>8404</v>
-      </c>
-      <c r="C70">
-        <v>982</v>
-      </c>
-      <c r="D70" t="s">
-        <v>84</v>
-      </c>
-      <c r="E70" t="s">
-        <v>85</v>
-      </c>
-      <c r="F70" t="s">
-        <v>86</v>
-      </c>
-      <c r="G70" t="s">
-        <v>84</v>
-      </c>
-      <c r="H70" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I70" s="4">
-        <v>48899000</v>
-      </c>
-      <c r="J70" s="5">
-        <v>44579.643750000003</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70" t="s">
-        <v>84</v>
-      </c>
-      <c r="M70" s="4">
-        <f t="shared" ref="M70" si="24">I70*1.1</f>
-        <v>53788900.000000007</v>
-      </c>
-      <c r="N70" s="4">
-        <f t="shared" ref="N70" si="25">I70*1.1</f>
-        <v>53788900.000000007</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70" t="s">
-        <v>84</v>
-      </c>
-      <c r="U70" t="s">
-        <v>87</v>
-      </c>
-      <c r="V70" t="s">
-        <v>84</v>
-      </c>
-      <c r="W70" t="s">
-        <v>84</v>
-      </c>
-      <c r="X70" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>8403</v>
-      </c>
-      <c r="C71">
-        <v>983</v>
-      </c>
-      <c r="D71" t="s">
-        <v>84</v>
-      </c>
-      <c r="E71" t="s">
-        <v>85</v>
-      </c>
-      <c r="F71" t="s">
-        <v>86</v>
-      </c>
-      <c r="G71" t="s">
-        <v>84</v>
-      </c>
-      <c r="H71" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I71" s="4">
-        <v>34464000</v>
-      </c>
-      <c r="J71" s="5">
-        <v>44579.643750000003</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71" t="s">
-        <v>84</v>
-      </c>
-      <c r="M71" s="4">
-        <f t="shared" ref="M71" si="26">I71*1.1</f>
-        <v>37910400</v>
-      </c>
-      <c r="N71" s="4">
-        <f t="shared" ref="N71" si="27">I71*1.1</f>
-        <v>37910400</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-      <c r="T71" t="s">
-        <v>84</v>
-      </c>
-      <c r="U71" t="s">
-        <v>87</v>
-      </c>
-      <c r="V71" t="s">
-        <v>84</v>
-      </c>
-      <c r="W71" t="s">
-        <v>84</v>
-      </c>
-      <c r="X71" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="5"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-    </row>
-    <row r="73" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>8409</v>
-      </c>
-      <c r="C73">
-        <v>984</v>
-      </c>
-      <c r="D73" t="s">
-        <v>84</v>
-      </c>
-      <c r="E73" t="s">
-        <v>85</v>
-      </c>
-      <c r="F73" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73" t="s">
-        <v>84</v>
-      </c>
-      <c r="H73" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I73" s="4">
-        <v>182069000</v>
-      </c>
-      <c r="J73" s="5">
-        <v>44580.590277777781</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73" t="s">
-        <v>84</v>
-      </c>
-      <c r="M73" s="4">
-        <f t="shared" ref="M73" si="28">I73*1.1</f>
-        <v>200275900.00000003</v>
-      </c>
-      <c r="N73" s="4">
-        <f t="shared" ref="N73" si="29">I73*1.1</f>
-        <v>200275900.00000003</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-      <c r="T73" t="s">
-        <v>84</v>
-      </c>
-      <c r="U73" t="s">
-        <v>87</v>
-      </c>
-      <c r="V73" t="s">
-        <v>84</v>
-      </c>
-      <c r="W73" t="s">
-        <v>84</v>
-      </c>
-      <c r="X73" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="5"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-    </row>
-    <row r="75" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>8419</v>
-      </c>
-      <c r="C75">
-        <v>989</v>
-      </c>
-      <c r="D75" t="s">
-        <v>84</v>
-      </c>
-      <c r="E75" t="s">
-        <v>85</v>
-      </c>
-      <c r="F75" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" t="s">
-        <v>84</v>
-      </c>
-      <c r="H75" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I75" s="4">
-        <v>42546000</v>
-      </c>
-      <c r="J75" s="5">
-        <v>44587.427777777775</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75" t="s">
-        <v>84</v>
-      </c>
-      <c r="M75" s="4">
-        <f t="shared" ref="M75:M77" si="30">I75*1.1</f>
-        <v>46800600.000000007</v>
-      </c>
-      <c r="N75" s="4">
-        <f t="shared" ref="N75:N77" si="31">I75*1.1</f>
-        <v>46800600.000000007</v>
-      </c>
       <c r="O75">
         <v>0</v>
       </c>
@@ -6332,10 +6161,10 @@
     </row>
     <row r="76" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76">
-        <v>8417</v>
+        <v>8404</v>
       </c>
       <c r="C76">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="D76" t="s">
         <v>84</v>
@@ -6353,697 +6182,694 @@
         <v>813445970452000</v>
       </c>
       <c r="I76" s="4">
+        <v>48899000</v>
+      </c>
+      <c r="J76" s="5">
+        <v>44579.643750000003</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>84</v>
+      </c>
+      <c r="M76" s="4">
+        <f t="shared" ref="M76" si="24">I76*1.1</f>
+        <v>53788900.000000007</v>
+      </c>
+      <c r="N76" s="4">
+        <f t="shared" ref="N76" si="25">I76*1.1</f>
+        <v>53788900.000000007</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76" t="s">
+        <v>84</v>
+      </c>
+      <c r="U76" t="s">
+        <v>87</v>
+      </c>
+      <c r="V76" t="s">
+        <v>84</v>
+      </c>
+      <c r="W76" t="s">
+        <v>84</v>
+      </c>
+      <c r="X76" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>8403</v>
+      </c>
+      <c r="C77">
+        <v>983</v>
+      </c>
+      <c r="D77" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77" t="s">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s">
+        <v>84</v>
+      </c>
+      <c r="H77" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I77" s="4">
+        <v>34464000</v>
+      </c>
+      <c r="J77" s="5">
+        <v>44579.643750000003</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>84</v>
+      </c>
+      <c r="M77" s="4">
+        <f t="shared" ref="M77" si="26">I77*1.1</f>
+        <v>37910400</v>
+      </c>
+      <c r="N77" s="4">
+        <f t="shared" ref="N77" si="27">I77*1.1</f>
+        <v>37910400</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77" t="s">
+        <v>84</v>
+      </c>
+      <c r="U77" t="s">
+        <v>87</v>
+      </c>
+      <c r="V77" t="s">
+        <v>84</v>
+      </c>
+      <c r="W77" t="s">
+        <v>84</v>
+      </c>
+      <c r="X77" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="5"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>8409</v>
+      </c>
+      <c r="C79">
+        <v>984</v>
+      </c>
+      <c r="D79" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" t="s">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s">
+        <v>84</v>
+      </c>
+      <c r="H79" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I79" s="4">
+        <v>182069000</v>
+      </c>
+      <c r="J79" s="5">
+        <v>44580.590277777781</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
+        <v>84</v>
+      </c>
+      <c r="M79" s="4">
+        <f t="shared" ref="M79" si="28">I79*1.1</f>
+        <v>200275900.00000003</v>
+      </c>
+      <c r="N79" s="4">
+        <f t="shared" ref="N79" si="29">I79*1.1</f>
+        <v>200275900.00000003</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79" t="s">
+        <v>84</v>
+      </c>
+      <c r="U79" t="s">
+        <v>87</v>
+      </c>
+      <c r="V79" t="s">
+        <v>84</v>
+      </c>
+      <c r="W79" t="s">
+        <v>84</v>
+      </c>
+      <c r="X79" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="5"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>8419</v>
+      </c>
+      <c r="C81">
+        <v>989</v>
+      </c>
+      <c r="D81" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" t="s">
+        <v>85</v>
+      </c>
+      <c r="F81" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" t="s">
+        <v>84</v>
+      </c>
+      <c r="H81" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I81" s="4">
+        <v>42546000</v>
+      </c>
+      <c r="J81" s="5">
+        <v>44587.427777777775</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
+        <v>84</v>
+      </c>
+      <c r="M81" s="4">
+        <f t="shared" ref="M81:M83" si="30">I81*1.1</f>
+        <v>46800600.000000007</v>
+      </c>
+      <c r="N81" s="4">
+        <f t="shared" ref="N81:N83" si="31">I81*1.1</f>
+        <v>46800600.000000007</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81" t="s">
+        <v>84</v>
+      </c>
+      <c r="U81" t="s">
+        <v>87</v>
+      </c>
+      <c r="V81" t="s">
+        <v>84</v>
+      </c>
+      <c r="W81" t="s">
+        <v>84</v>
+      </c>
+      <c r="X81" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>8417</v>
+      </c>
+      <c r="C82">
+        <v>990</v>
+      </c>
+      <c r="D82" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" t="s">
+        <v>85</v>
+      </c>
+      <c r="F82" t="s">
+        <v>86</v>
+      </c>
+      <c r="G82" t="s">
+        <v>84</v>
+      </c>
+      <c r="H82" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I82" s="4">
         <v>57056000</v>
       </c>
-      <c r="J76" s="5">
+      <c r="J82" s="5">
         <v>44587.427777777775</v>
       </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76" t="s">
-        <v>84</v>
-      </c>
-      <c r="M76" s="4">
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>84</v>
+      </c>
+      <c r="M82" s="4">
         <f t="shared" si="30"/>
         <v>62761600.000000007</v>
       </c>
-      <c r="N76" s="4">
+      <c r="N82" s="4">
         <f t="shared" si="31"/>
         <v>62761600.000000007</v>
       </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-      <c r="T76" t="s">
-        <v>84</v>
-      </c>
-      <c r="U76" t="s">
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82" t="s">
+        <v>84</v>
+      </c>
+      <c r="U82" t="s">
         <v>87</v>
       </c>
-      <c r="V76" t="s">
-        <v>84</v>
-      </c>
-      <c r="W76" t="s">
-        <v>84</v>
-      </c>
-      <c r="X76" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77">
+      <c r="V82" t="s">
+        <v>84</v>
+      </c>
+      <c r="W82" t="s">
+        <v>84</v>
+      </c>
+      <c r="X82" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83">
         <v>8418</v>
       </c>
-      <c r="C77">
+      <c r="C83">
         <v>990</v>
       </c>
-      <c r="D77" t="s">
-        <v>84</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D83" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" t="s">
         <v>85</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F83" t="s">
         <v>86</v>
       </c>
-      <c r="G77" t="s">
-        <v>84</v>
-      </c>
-      <c r="H77" s="4">
+      <c r="G83" t="s">
+        <v>84</v>
+      </c>
+      <c r="H83" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I83" s="4">
         <v>66218000</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J83" s="5">
         <v>44587.427777777775</v>
       </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77" t="s">
-        <v>84</v>
-      </c>
-      <c r="M77" s="4">
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>84</v>
+      </c>
+      <c r="M83" s="4">
         <f t="shared" si="30"/>
         <v>72839800</v>
       </c>
-      <c r="N77" s="4">
+      <c r="N83" s="4">
         <f t="shared" si="31"/>
         <v>72839800</v>
       </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-      <c r="T77" t="s">
-        <v>84</v>
-      </c>
-      <c r="U77" t="s">
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83" t="s">
+        <v>84</v>
+      </c>
+      <c r="U83" t="s">
         <v>87</v>
       </c>
-      <c r="V77" t="s">
-        <v>84</v>
-      </c>
-      <c r="W77" t="s">
-        <v>84</v>
-      </c>
-      <c r="X77" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78">
+      <c r="V83" t="s">
+        <v>84</v>
+      </c>
+      <c r="W83" t="s">
+        <v>84</v>
+      </c>
+      <c r="X83" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84">
         <v>8420</v>
       </c>
-      <c r="C78">
+      <c r="C84">
         <v>990</v>
       </c>
-      <c r="D78" t="s">
-        <v>84</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="D84" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84" t="s">
         <v>85</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F84" t="s">
         <v>86</v>
       </c>
-      <c r="G78" t="s">
-        <v>84</v>
-      </c>
-      <c r="H78" s="4">
+      <c r="G84" t="s">
+        <v>84</v>
+      </c>
+      <c r="H84" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I78" s="4">
+      <c r="I84" s="4">
         <v>102672000</v>
       </c>
-      <c r="J78" s="5">
+      <c r="J84" s="5">
         <v>44587.427777777775</v>
       </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78" t="s">
-        <v>84</v>
-      </c>
-      <c r="M78" s="4">
-        <f>I78*1.1</f>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s">
+        <v>84</v>
+      </c>
+      <c r="M84" s="4">
+        <f>I84*1.1</f>
         <v>112939200.00000001</v>
       </c>
-      <c r="N78" s="4">
-        <f>I78*1.1</f>
+      <c r="N84" s="4">
+        <f>I84*1.1</f>
         <v>112939200.00000001</v>
       </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-      <c r="T78" t="s">
-        <v>84</v>
-      </c>
-      <c r="U78" t="s">
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84" t="s">
+        <v>84</v>
+      </c>
+      <c r="U84" t="s">
         <v>87</v>
       </c>
-      <c r="V78" t="s">
-        <v>84</v>
-      </c>
-      <c r="W78" t="s">
-        <v>84</v>
-      </c>
-      <c r="X78" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="5"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-    </row>
-    <row r="80" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80">
+      <c r="V84" t="s">
+        <v>84</v>
+      </c>
+      <c r="W84" t="s">
+        <v>84</v>
+      </c>
+      <c r="X84" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="5"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86">
         <v>8439</v>
       </c>
-      <c r="C80">
+      <c r="C86">
         <v>999</v>
       </c>
-      <c r="D80" t="s">
-        <v>84</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D86" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" t="s">
         <v>85</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F86" t="s">
         <v>86</v>
       </c>
-      <c r="G80" t="s">
-        <v>84</v>
-      </c>
-      <c r="H80" s="4">
+      <c r="G86" t="s">
+        <v>84</v>
+      </c>
+      <c r="H86" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I86" s="4">
         <v>165421000</v>
       </c>
-      <c r="J80" s="5">
+      <c r="J86" s="5">
         <v>44608.619444444441</v>
       </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80" t="s">
-        <v>84</v>
-      </c>
-      <c r="M80" s="4">
-        <f>I80*1.11</f>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" t="s">
+        <v>84</v>
+      </c>
+      <c r="M86" s="4">
+        <f>I86*1.11</f>
         <v>183617310.00000003</v>
       </c>
-      <c r="N80" s="4">
-        <f>I80*1.11</f>
+      <c r="N86" s="4">
+        <f>I86*1.11</f>
         <v>183617310.00000003</v>
       </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-      <c r="T80" t="s">
-        <v>84</v>
-      </c>
-      <c r="U80" t="s">
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86" t="s">
+        <v>84</v>
+      </c>
+      <c r="U86" t="s">
         <v>87</v>
       </c>
-      <c r="V80" t="s">
-        <v>84</v>
-      </c>
-      <c r="W80" t="s">
-        <v>84</v>
-      </c>
-      <c r="X80" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81">
+      <c r="V86" t="s">
+        <v>84</v>
+      </c>
+      <c r="W86" t="s">
+        <v>84</v>
+      </c>
+      <c r="X86" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B87">
         <v>8444</v>
       </c>
-      <c r="C81">
+      <c r="C87">
         <v>1002</v>
       </c>
-      <c r="D81" t="s">
-        <v>84</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="D87" t="s">
+        <v>84</v>
+      </c>
+      <c r="E87" t="s">
         <v>85</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F87" t="s">
         <v>86</v>
       </c>
-      <c r="G81" t="s">
-        <v>84</v>
-      </c>
-      <c r="H81" s="4">
+      <c r="G87" t="s">
+        <v>84</v>
+      </c>
+      <c r="H87" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I87" s="4">
         <v>48452000</v>
       </c>
-      <c r="J81" s="5">
+      <c r="J87" s="5">
         <v>44614.55972222222</v>
       </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81" t="s">
-        <v>84</v>
-      </c>
-      <c r="M81" s="4">
-        <f>I81*1.11</f>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>84</v>
+      </c>
+      <c r="M87" s="4">
+        <f>I87*1.11</f>
         <v>53781720.000000007</v>
       </c>
-      <c r="N81" s="4">
-        <f>I81*1.11</f>
+      <c r="N87" s="4">
+        <f>I87*1.11</f>
         <v>53781720.000000007</v>
       </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81" t="s">
-        <v>84</v>
-      </c>
-      <c r="U81" t="s">
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87" t="s">
+        <v>84</v>
+      </c>
+      <c r="U87" t="s">
         <v>87</v>
       </c>
-      <c r="V81" t="s">
-        <v>84</v>
-      </c>
-      <c r="W81" t="s">
-        <v>84</v>
-      </c>
-      <c r="X81" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <v>8446</v>
-      </c>
-      <c r="C82">
-        <v>1005</v>
-      </c>
-      <c r="D82" t="s">
-        <v>84</v>
-      </c>
-      <c r="E82" t="s">
-        <v>85</v>
-      </c>
-      <c r="F82" t="s">
-        <v>86</v>
-      </c>
-      <c r="G82" t="s">
-        <v>84</v>
-      </c>
-      <c r="H82" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I82" s="4">
-        <v>47365000</v>
-      </c>
-      <c r="J82" s="5">
-        <v>44626.518750000003</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82" t="s">
-        <v>84</v>
-      </c>
-      <c r="M82" s="4">
-        <f>I82*1.11</f>
-        <v>52575150.000000007</v>
-      </c>
-      <c r="N82" s="4">
-        <f>I82*1.11</f>
-        <v>52575150.000000007</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-      <c r="T82" t="s">
-        <v>84</v>
-      </c>
-      <c r="U82" t="s">
-        <v>87</v>
-      </c>
-      <c r="V82" t="s">
-        <v>84</v>
-      </c>
-      <c r="W82" t="s">
-        <v>84</v>
-      </c>
-      <c r="X82" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="5"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-    </row>
-    <row r="84" spans="2:25" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="18">
-        <v>8484</v>
-      </c>
-      <c r="C84" s="18">
-        <v>1026</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F84" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G84" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H84" s="19">
-        <v>813445970452000</v>
-      </c>
-      <c r="I84" s="20">
-        <v>47365000</v>
-      </c>
-      <c r="J84" s="21">
-        <f ca="1">NOW()</f>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K84" s="18">
-        <v>1</v>
-      </c>
-      <c r="L84" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="M84" s="20">
-        <f>I84*1.11</f>
-        <v>52575150.000000007</v>
-      </c>
-      <c r="N84" s="20">
-        <f>I84*1.11</f>
-        <v>52575150.000000007</v>
-      </c>
-      <c r="O84" s="18">
-        <v>0</v>
-      </c>
-      <c r="P84" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="18">
-        <v>0</v>
-      </c>
-      <c r="R84" s="18">
-        <v>0</v>
-      </c>
-      <c r="S84" s="18">
-        <v>0</v>
-      </c>
-      <c r="T84" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="U84" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="V84" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="W84" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="X84" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y84" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:25" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="18">
-        <v>8485</v>
-      </c>
-      <c r="C85" s="18">
-        <v>1026</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F85" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G85" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H85" s="19">
-        <v>813445970452000</v>
-      </c>
-      <c r="I85" s="20">
-        <v>47365000</v>
-      </c>
-      <c r="J85" s="21">
-        <f ca="1">NOW()</f>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K85" s="18">
-        <v>1</v>
-      </c>
-      <c r="L85" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="M85" s="20">
-        <f>I85*1.11</f>
-        <v>52575150.000000007</v>
-      </c>
-      <c r="N85" s="20">
-        <f>I85*1.11</f>
-        <v>52575150.000000007</v>
-      </c>
-      <c r="O85" s="18">
-        <v>0</v>
-      </c>
-      <c r="P85" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="18">
-        <v>0</v>
-      </c>
-      <c r="R85" s="18">
-        <v>0</v>
-      </c>
-      <c r="S85" s="18">
-        <v>0</v>
-      </c>
-      <c r="T85" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="U85" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="V85" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="W85" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="X85" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y85" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:25" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="18">
-        <v>8486</v>
-      </c>
-      <c r="C86" s="18">
-        <v>1025</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F86" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G86" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H86" s="19">
-        <v>813445970452000</v>
-      </c>
-      <c r="I86" s="20">
-        <v>139934000</v>
-      </c>
-      <c r="J86" s="21">
-        <f ca="1">NOW()</f>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K86" s="18">
-        <v>1</v>
-      </c>
-      <c r="L86" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="M86" s="20">
-        <f>I86*1.11</f>
-        <v>155326740</v>
-      </c>
-      <c r="N86" s="20">
-        <f>I86*1.11</f>
-        <v>155326740</v>
-      </c>
-      <c r="O86" s="18">
-        <v>0</v>
-      </c>
-      <c r="P86" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="18">
-        <v>0</v>
-      </c>
-      <c r="R86" s="18">
-        <v>0</v>
-      </c>
-      <c r="S86" s="18">
-        <v>0</v>
-      </c>
-      <c r="T86" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="U86" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="V86" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="W86" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="X86" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y86" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="5"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
+      <c r="V87" t="s">
+        <v>84</v>
+      </c>
+      <c r="W87" t="s">
+        <v>84</v>
+      </c>
+      <c r="X87" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88">
-        <v>8490</v>
+        <v>8446</v>
       </c>
       <c r="C88">
-        <v>1037</v>
+        <v>1005</v>
       </c>
       <c r="D88" t="s">
         <v>84</v>
@@ -7061,11 +6887,10 @@
         <v>813445970452000</v>
       </c>
       <c r="I88" s="4">
-        <v>54803000</v>
+        <v>47365000</v>
       </c>
       <c r="J88" s="5">
-        <f ca="1">NOW()</f>
-        <v>44763.585548379633</v>
+        <v>44626.518750000003</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -7074,12 +6899,12 @@
         <v>84</v>
       </c>
       <c r="M88" s="4">
-        <f t="shared" ref="M88:M93" si="32">I88*1.11</f>
-        <v>60831330.000000007</v>
+        <f>I88*1.11</f>
+        <v>52575150.000000007</v>
       </c>
       <c r="N88" s="4">
-        <f t="shared" ref="N88:N93" si="33">I88*1.11</f>
-        <v>60831330.000000007</v>
+        <f>I88*1.11</f>
+        <v>52575150.000000007</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -7116,1011 +6941,1081 @@
       </c>
     </row>
     <row r="89" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B89">
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="5"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="2:25" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="18">
+        <v>8484</v>
+      </c>
+      <c r="C90" s="18">
+        <v>1026</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H90" s="19">
+        <v>813445970452000</v>
+      </c>
+      <c r="I90" s="20">
+        <v>47365000</v>
+      </c>
+      <c r="J90" s="21">
+        <f ca="1">NOW()</f>
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K90" s="18">
+        <v>1</v>
+      </c>
+      <c r="L90" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M90" s="20">
+        <f>I90*1.11</f>
+        <v>52575150.000000007</v>
+      </c>
+      <c r="N90" s="20">
+        <f>I90*1.11</f>
+        <v>52575150.000000007</v>
+      </c>
+      <c r="O90" s="18">
+        <v>0</v>
+      </c>
+      <c r="P90" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="18">
+        <v>0</v>
+      </c>
+      <c r="R90" s="18">
+        <v>0</v>
+      </c>
+      <c r="S90" s="18">
+        <v>0</v>
+      </c>
+      <c r="T90" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="U90" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="V90" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="W90" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="X90" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y90" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:25" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="18">
+        <v>8485</v>
+      </c>
+      <c r="C91" s="18">
+        <v>1026</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H91" s="19">
+        <v>813445970452000</v>
+      </c>
+      <c r="I91" s="20">
+        <v>47365000</v>
+      </c>
+      <c r="J91" s="21">
+        <f ca="1">NOW()</f>
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K91" s="18">
+        <v>1</v>
+      </c>
+      <c r="L91" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M91" s="20">
+        <f>I91*1.11</f>
+        <v>52575150.000000007</v>
+      </c>
+      <c r="N91" s="20">
+        <f>I91*1.11</f>
+        <v>52575150.000000007</v>
+      </c>
+      <c r="O91" s="18">
+        <v>0</v>
+      </c>
+      <c r="P91" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="18">
+        <v>0</v>
+      </c>
+      <c r="R91" s="18">
+        <v>0</v>
+      </c>
+      <c r="S91" s="18">
+        <v>0</v>
+      </c>
+      <c r="T91" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="U91" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="V91" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="W91" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="X91" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y91" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:25" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="18">
+        <v>8486</v>
+      </c>
+      <c r="C92" s="18">
+        <v>1025</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H92" s="19">
+        <v>813445970452000</v>
+      </c>
+      <c r="I92" s="20">
+        <v>139934000</v>
+      </c>
+      <c r="J92" s="21">
+        <f ca="1">NOW()</f>
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K92" s="18">
+        <v>1</v>
+      </c>
+      <c r="L92" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M92" s="20">
+        <f>I92*1.11</f>
+        <v>155326740</v>
+      </c>
+      <c r="N92" s="20">
+        <f>I92*1.11</f>
+        <v>155326740</v>
+      </c>
+      <c r="O92" s="18">
+        <v>0</v>
+      </c>
+      <c r="P92" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="18">
+        <v>0</v>
+      </c>
+      <c r="R92" s="18">
+        <v>0</v>
+      </c>
+      <c r="S92" s="18">
+        <v>0</v>
+      </c>
+      <c r="T92" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="U92" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="V92" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="W92" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="X92" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y92" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="5"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>8490</v>
+      </c>
+      <c r="C94">
+        <v>1037</v>
+      </c>
+      <c r="D94" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" t="s">
+        <v>85</v>
+      </c>
+      <c r="F94" t="s">
+        <v>86</v>
+      </c>
+      <c r="G94" t="s">
+        <v>84</v>
+      </c>
+      <c r="H94" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I94" s="4">
+        <v>54803000</v>
+      </c>
+      <c r="J94" s="5">
+        <f ca="1">NOW()</f>
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>84</v>
+      </c>
+      <c r="M94" s="4">
+        <f t="shared" ref="M94:M99" si="32">I94*1.11</f>
+        <v>60831330.000000007</v>
+      </c>
+      <c r="N94" s="4">
+        <f t="shared" ref="N94:N99" si="33">I94*1.11</f>
+        <v>60831330.000000007</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94" t="s">
+        <v>84</v>
+      </c>
+      <c r="U94" t="s">
+        <v>87</v>
+      </c>
+      <c r="V94" t="s">
+        <v>84</v>
+      </c>
+      <c r="W94" t="s">
+        <v>84</v>
+      </c>
+      <c r="X94" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B95">
         <v>8491</v>
       </c>
-      <c r="C89">
+      <c r="C95">
         <v>1037</v>
       </c>
-      <c r="D89" t="s">
-        <v>84</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="D95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" t="s">
         <v>85</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F95" t="s">
         <v>86</v>
       </c>
-      <c r="G89" t="s">
-        <v>84</v>
-      </c>
-      <c r="H89" s="4">
+      <c r="G95" t="s">
+        <v>84</v>
+      </c>
+      <c r="H95" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I89" s="4">
+      <c r="I95" s="4">
         <v>95844000</v>
       </c>
-      <c r="J89" s="5">
-        <f t="shared" ref="J89:J118" ca="1" si="34">NOW()</f>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89" t="s">
-        <v>84</v>
-      </c>
-      <c r="M89" s="4">
+      <c r="J95" s="5">
+        <f t="shared" ref="J95:J124" ca="1" si="34">NOW()</f>
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>84</v>
+      </c>
+      <c r="M95" s="4">
         <f t="shared" si="32"/>
         <v>106386840.00000001</v>
       </c>
-      <c r="N89" s="4">
+      <c r="N95" s="4">
         <f t="shared" si="33"/>
         <v>106386840.00000001</v>
       </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
-      <c r="T89" t="s">
-        <v>84</v>
-      </c>
-      <c r="U89" t="s">
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95" t="s">
+        <v>84</v>
+      </c>
+      <c r="U95" t="s">
         <v>87</v>
       </c>
-      <c r="V89" t="s">
-        <v>84</v>
-      </c>
-      <c r="W89" t="s">
-        <v>84</v>
-      </c>
-      <c r="X89" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B90">
+      <c r="V95" t="s">
+        <v>84</v>
+      </c>
+      <c r="W95" t="s">
+        <v>84</v>
+      </c>
+      <c r="X95" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B96">
         <v>8492</v>
       </c>
-      <c r="C90">
+      <c r="C96">
         <v>1037</v>
       </c>
-      <c r="D90" t="s">
-        <v>84</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="D96" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" t="s">
         <v>85</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F96" t="s">
         <v>86</v>
       </c>
-      <c r="G90" t="s">
-        <v>84</v>
-      </c>
-      <c r="H90" s="4">
+      <c r="G96" t="s">
+        <v>84</v>
+      </c>
+      <c r="H96" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I90" s="4">
+      <c r="I96" s="4">
         <v>95844000</v>
       </c>
-      <c r="J90" s="5">
+      <c r="J96" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90" t="s">
-        <v>84</v>
-      </c>
-      <c r="M90" s="4">
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96" t="s">
+        <v>84</v>
+      </c>
+      <c r="M96" s="4">
         <f t="shared" si="32"/>
         <v>106386840.00000001</v>
       </c>
-      <c r="N90" s="4">
+      <c r="N96" s="4">
         <f t="shared" si="33"/>
         <v>106386840.00000001</v>
       </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-      <c r="S90">
-        <v>0</v>
-      </c>
-      <c r="T90" t="s">
-        <v>84</v>
-      </c>
-      <c r="U90" t="s">
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96" t="s">
+        <v>84</v>
+      </c>
+      <c r="U96" t="s">
         <v>87</v>
       </c>
-      <c r="V90" t="s">
-        <v>84</v>
-      </c>
-      <c r="W90" t="s">
-        <v>84</v>
-      </c>
-      <c r="X90" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B91">
+      <c r="V96" t="s">
+        <v>84</v>
+      </c>
+      <c r="W96" t="s">
+        <v>84</v>
+      </c>
+      <c r="X96" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B97">
         <v>8493</v>
       </c>
-      <c r="C91">
+      <c r="C97">
         <v>1037</v>
       </c>
-      <c r="D91" t="s">
-        <v>84</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D97" t="s">
+        <v>84</v>
+      </c>
+      <c r="E97" t="s">
         <v>85</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F97" t="s">
         <v>86</v>
       </c>
-      <c r="G91" t="s">
-        <v>84</v>
-      </c>
-      <c r="H91" s="4">
+      <c r="G97" t="s">
+        <v>84</v>
+      </c>
+      <c r="H97" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I91" s="4">
+      <c r="I97" s="4">
         <v>58803000</v>
       </c>
-      <c r="J91" s="5">
+      <c r="J97" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="L91" t="s">
-        <v>84</v>
-      </c>
-      <c r="M91" s="4">
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>84</v>
+      </c>
+      <c r="M97" s="4">
         <f t="shared" si="32"/>
         <v>65271330.000000007</v>
       </c>
-      <c r="N91" s="4">
+      <c r="N97" s="4">
         <f t="shared" si="33"/>
         <v>65271330.000000007</v>
       </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-      <c r="S91">
-        <v>0</v>
-      </c>
-      <c r="T91" t="s">
-        <v>84</v>
-      </c>
-      <c r="U91" t="s">
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97" t="s">
+        <v>84</v>
+      </c>
+      <c r="U97" t="s">
         <v>87</v>
       </c>
-      <c r="V91" t="s">
-        <v>84</v>
-      </c>
-      <c r="W91" t="s">
-        <v>84</v>
-      </c>
-      <c r="X91" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B92">
+      <c r="V97" t="s">
+        <v>84</v>
+      </c>
+      <c r="W97" t="s">
+        <v>84</v>
+      </c>
+      <c r="X97" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B98">
         <v>8494</v>
       </c>
-      <c r="C92">
+      <c r="C98">
         <v>1037</v>
       </c>
-      <c r="D92" t="s">
-        <v>84</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="D98" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" t="s">
         <v>85</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F98" t="s">
         <v>86</v>
       </c>
-      <c r="G92" t="s">
-        <v>84</v>
-      </c>
-      <c r="H92" s="4">
+      <c r="G98" t="s">
+        <v>84</v>
+      </c>
+      <c r="H98" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I92" s="4">
+      <c r="I98" s="4">
         <v>63563000</v>
       </c>
-      <c r="J92" s="5">
+      <c r="J98" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92" t="s">
-        <v>84</v>
-      </c>
-      <c r="M92" s="4">
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98" t="s">
+        <v>84</v>
+      </c>
+      <c r="M98" s="4">
         <f t="shared" si="32"/>
         <v>70554930</v>
       </c>
-      <c r="N92" s="4">
+      <c r="N98" s="4">
         <f t="shared" si="33"/>
         <v>70554930</v>
       </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-      <c r="S92">
-        <v>0</v>
-      </c>
-      <c r="T92" t="s">
-        <v>84</v>
-      </c>
-      <c r="U92" t="s">
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98" t="s">
+        <v>84</v>
+      </c>
+      <c r="U98" t="s">
         <v>87</v>
       </c>
-      <c r="V92" t="s">
-        <v>84</v>
-      </c>
-      <c r="W92" t="s">
-        <v>84</v>
-      </c>
-      <c r="X92" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B93">
+      <c r="V98" t="s">
+        <v>84</v>
+      </c>
+      <c r="W98" t="s">
+        <v>84</v>
+      </c>
+      <c r="X98" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B99">
         <v>8495</v>
       </c>
-      <c r="C93">
+      <c r="C99">
         <v>1037</v>
       </c>
-      <c r="D93" t="s">
-        <v>84</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="D99" t="s">
+        <v>84</v>
+      </c>
+      <c r="E99" t="s">
         <v>85</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F99" t="s">
         <v>86</v>
       </c>
-      <c r="G93" t="s">
-        <v>84</v>
-      </c>
-      <c r="H93" s="4">
+      <c r="G99" t="s">
+        <v>84</v>
+      </c>
+      <c r="H99" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I93" s="4">
+      <c r="I99" s="4">
         <v>63563000</v>
       </c>
-      <c r="J93" s="5">
+      <c r="J99" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93" t="s">
-        <v>84</v>
-      </c>
-      <c r="M93" s="4">
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99" t="s">
+        <v>84</v>
+      </c>
+      <c r="M99" s="4">
         <f t="shared" si="32"/>
         <v>70554930</v>
       </c>
-      <c r="N93" s="4">
+      <c r="N99" s="4">
         <f t="shared" si="33"/>
         <v>70554930</v>
       </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-      <c r="S93">
-        <v>0</v>
-      </c>
-      <c r="T93" t="s">
-        <v>84</v>
-      </c>
-      <c r="U93" t="s">
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99" t="s">
+        <v>84</v>
+      </c>
+      <c r="U99" t="s">
         <v>87</v>
       </c>
-      <c r="V93" t="s">
-        <v>84</v>
-      </c>
-      <c r="W93" t="s">
-        <v>84</v>
-      </c>
-      <c r="X93" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="5"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-    </row>
-    <row r="95" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="22">
+      <c r="V99" t="s">
+        <v>84</v>
+      </c>
+      <c r="W99" t="s">
+        <v>84</v>
+      </c>
+      <c r="X99" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="5"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+    </row>
+    <row r="101" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="22">
         <v>8504</v>
       </c>
-      <c r="C95" s="22">
+      <c r="C101" s="22">
         <v>1039</v>
       </c>
-      <c r="D95" t="s">
-        <v>84</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="D101" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" t="s">
         <v>85</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F101" t="s">
         <v>86</v>
       </c>
-      <c r="G95" t="s">
-        <v>84</v>
-      </c>
-      <c r="H95" s="4">
+      <c r="G101" t="s">
+        <v>84</v>
+      </c>
+      <c r="H101" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I95" s="20">
+      <c r="I101" s="20">
         <v>48042000</v>
       </c>
-      <c r="J95" s="21">
+      <c r="J101" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95" t="s">
-        <v>84</v>
-      </c>
-      <c r="M95" s="20">
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101" t="s">
+        <v>84</v>
+      </c>
+      <c r="M101" s="20">
         <v>53326620</v>
       </c>
-      <c r="N95" s="20">
-        <f t="shared" ref="N95:N96" si="35">I95*1.11</f>
+      <c r="N101" s="20">
+        <f t="shared" ref="N101:N102" si="35">I101*1.11</f>
         <v>53326620.000000007</v>
       </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-      <c r="S95">
-        <v>0</v>
-      </c>
-      <c r="T95" t="s">
-        <v>84</v>
-      </c>
-      <c r="U95" t="s">
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101" t="s">
+        <v>84</v>
+      </c>
+      <c r="U101" t="s">
         <v>87</v>
       </c>
-      <c r="V95" t="s">
-        <v>84</v>
-      </c>
-      <c r="W95" t="s">
-        <v>84</v>
-      </c>
-      <c r="X95" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="22">
+      <c r="V101" t="s">
+        <v>84</v>
+      </c>
+      <c r="W101" t="s">
+        <v>84</v>
+      </c>
+      <c r="X101" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="22">
         <v>8505</v>
       </c>
-      <c r="C96" s="22">
+      <c r="C102" s="22">
         <v>1039</v>
       </c>
-      <c r="D96" t="s">
-        <v>84</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="D102" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102" t="s">
         <v>85</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F102" t="s">
         <v>86</v>
       </c>
-      <c r="G96" t="s">
-        <v>84</v>
-      </c>
-      <c r="H96" s="4">
+      <c r="G102" t="s">
+        <v>84</v>
+      </c>
+      <c r="H102" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I96" s="20">
+      <c r="I102" s="20">
         <v>54803000</v>
       </c>
-      <c r="J96" s="21">
+      <c r="J102" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96" t="s">
-        <v>84</v>
-      </c>
-      <c r="M96" s="20">
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102" t="s">
+        <v>84</v>
+      </c>
+      <c r="M102" s="20">
         <v>60831330</v>
       </c>
-      <c r="N96" s="20">
+      <c r="N102" s="20">
         <f t="shared" si="35"/>
         <v>60831330.000000007</v>
       </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-      <c r="S96">
-        <v>0</v>
-      </c>
-      <c r="T96" t="s">
-        <v>84</v>
-      </c>
-      <c r="U96" t="s">
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102" t="s">
+        <v>84</v>
+      </c>
+      <c r="U102" t="s">
         <v>87</v>
       </c>
-      <c r="V96" t="s">
-        <v>84</v>
-      </c>
-      <c r="W96" t="s">
-        <v>84</v>
-      </c>
-      <c r="X96" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="5"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-    </row>
-    <row r="98" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="22">
+      <c r="V102" t="s">
+        <v>84</v>
+      </c>
+      <c r="W102" t="s">
+        <v>84</v>
+      </c>
+      <c r="X102" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="5"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+    </row>
+    <row r="104" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="22">
         <v>8509</v>
       </c>
-      <c r="C98" s="22">
+      <c r="C104" s="22">
         <v>1043</v>
       </c>
-      <c r="D98" t="s">
-        <v>84</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D104" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" t="s">
         <v>85</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F104" t="s">
         <v>86</v>
       </c>
-      <c r="G98" t="s">
-        <v>84</v>
-      </c>
-      <c r="H98" s="4">
+      <c r="G104" t="s">
+        <v>84</v>
+      </c>
+      <c r="H104" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I98" s="20">
+      <c r="I104" s="20">
         <v>31000000</v>
       </c>
-      <c r="J98" s="21">
+      <c r="J104" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98" t="s">
-        <v>84</v>
-      </c>
-      <c r="M98" s="20">
-        <f>I98*1.11</f>
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104" t="s">
+        <v>84</v>
+      </c>
+      <c r="M104" s="20">
+        <f>I104*1.11</f>
         <v>34410000</v>
       </c>
-      <c r="N98" s="20">
-        <f t="shared" ref="N98" si="36">I98*1.11</f>
+      <c r="N104" s="20">
+        <f t="shared" ref="N104" si="36">I104*1.11</f>
         <v>34410000</v>
       </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
-      <c r="S98">
-        <v>0</v>
-      </c>
-      <c r="T98" t="s">
-        <v>84</v>
-      </c>
-      <c r="U98" t="s">
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104" t="s">
+        <v>84</v>
+      </c>
+      <c r="U104" t="s">
         <v>87</v>
       </c>
-      <c r="V98" t="s">
-        <v>84</v>
-      </c>
-      <c r="W98" t="s">
-        <v>84</v>
-      </c>
-      <c r="X98" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="5"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-    </row>
-    <row r="100" spans="2:25" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="30">
+      <c r="V104" t="s">
+        <v>84</v>
+      </c>
+      <c r="W104" t="s">
+        <v>84</v>
+      </c>
+      <c r="X104" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="5"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+    </row>
+    <row r="106" spans="2:25" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="30">
         <v>8510</v>
       </c>
-      <c r="C100" s="30">
+      <c r="C106" s="30">
         <v>1042</v>
       </c>
-      <c r="D100" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E100" s="30" t="s">
+      <c r="D106" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E106" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="F100" s="30" t="s">
+      <c r="F106" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="G100" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="H100" s="31">
+      <c r="G106" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H106" s="31">
         <v>813445970452000</v>
       </c>
-      <c r="I100" s="31">
+      <c r="I106" s="31">
         <v>54803000</v>
       </c>
-      <c r="J100" s="32">
+      <c r="J106" s="32">
         <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K100" s="30">
-        <v>1</v>
-      </c>
-      <c r="L100" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="M100" s="31">
-        <f>I100*1.11</f>
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K106" s="30">
+        <v>1</v>
+      </c>
+      <c r="L106" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="M106" s="31">
+        <f>I106*1.11</f>
         <v>60831330.000000007</v>
       </c>
-      <c r="N100" s="31">
-        <f t="shared" ref="N100:N101" si="37">I100*1.11</f>
+      <c r="N106" s="31">
+        <f t="shared" ref="N106:N107" si="37">I106*1.11</f>
         <v>60831330.000000007</v>
       </c>
-      <c r="O100" s="30">
-        <v>0</v>
-      </c>
-      <c r="P100" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="30">
-        <v>0</v>
-      </c>
-      <c r="R100" s="30">
-        <v>0</v>
-      </c>
-      <c r="S100" s="30">
-        <v>0</v>
-      </c>
-      <c r="T100" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="U100" s="30" t="s">
+      <c r="O106" s="30">
+        <v>0</v>
+      </c>
+      <c r="P106" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="30">
+        <v>0</v>
+      </c>
+      <c r="R106" s="30">
+        <v>0</v>
+      </c>
+      <c r="S106" s="30">
+        <v>0</v>
+      </c>
+      <c r="T106" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="U106" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="V100" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="W100" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="X100" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y100" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="22">
+      <c r="V106" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="W106" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="X106" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y106" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="22">
         <v>8510</v>
       </c>
-      <c r="C101" s="22">
+      <c r="C107" s="22">
         <v>1042</v>
       </c>
-      <c r="D101" t="s">
-        <v>84</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="D107" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" t="s">
         <v>85</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F107" t="s">
         <v>86</v>
       </c>
-      <c r="G101" t="s">
-        <v>84</v>
-      </c>
-      <c r="H101" s="4">
+      <c r="G107" t="s">
+        <v>84</v>
+      </c>
+      <c r="H107" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I101" s="20">
+      <c r="I107" s="20">
         <v>92084000</v>
       </c>
-      <c r="J101" s="21">
+      <c r="J107" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-      <c r="L101" t="s">
-        <v>84</v>
-      </c>
-      <c r="M101" s="20">
-        <f>I101*1.11</f>
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107" t="s">
+        <v>84</v>
+      </c>
+      <c r="M107" s="20">
+        <f>I107*1.11</f>
         <v>102213240.00000001</v>
       </c>
-      <c r="N101" s="20">
+      <c r="N107" s="20">
         <f t="shared" si="37"/>
         <v>102213240.00000001</v>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>0</v>
-      </c>
-      <c r="S101">
-        <v>0</v>
-      </c>
-      <c r="T101" t="s">
-        <v>84</v>
-      </c>
-      <c r="U101" t="s">
-        <v>87</v>
-      </c>
-      <c r="V101" t="s">
-        <v>84</v>
-      </c>
-      <c r="W101" t="s">
-        <v>84</v>
-      </c>
-      <c r="X101" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="5"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-    </row>
-    <row r="103" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="22">
-        <v>8511</v>
-      </c>
-      <c r="C103" s="22">
-        <v>1042</v>
-      </c>
-      <c r="D103" t="s">
-        <v>84</v>
-      </c>
-      <c r="E103" t="s">
-        <v>85</v>
-      </c>
-      <c r="F103" t="s">
-        <v>86</v>
-      </c>
-      <c r="G103" t="s">
-        <v>84</v>
-      </c>
-      <c r="H103" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I103" s="20">
-        <v>92084000</v>
-      </c>
-      <c r="J103" s="21">
-        <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="L103" t="s">
-        <v>84</v>
-      </c>
-      <c r="M103" s="20">
-        <f>I103*1.11</f>
-        <v>102213240.00000001</v>
-      </c>
-      <c r="N103" s="20">
-        <f t="shared" ref="N103" si="38">I103*1.11</f>
-        <v>102213240.00000001</v>
-      </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103">
-        <v>0</v>
-      </c>
-      <c r="S103">
-        <v>0</v>
-      </c>
-      <c r="T103" t="s">
-        <v>84</v>
-      </c>
-      <c r="U103" t="s">
-        <v>87</v>
-      </c>
-      <c r="V103" t="s">
-        <v>84</v>
-      </c>
-      <c r="W103" t="s">
-        <v>84</v>
-      </c>
-      <c r="X103" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="5"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-    </row>
-    <row r="105" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B105">
-        <v>8514</v>
-      </c>
-      <c r="C105">
-        <v>1046</v>
-      </c>
-      <c r="D105" t="s">
-        <v>84</v>
-      </c>
-      <c r="E105" t="s">
-        <v>85</v>
-      </c>
-      <c r="F105" t="s">
-        <v>86</v>
-      </c>
-      <c r="G105" t="s">
-        <v>84</v>
-      </c>
-      <c r="H105" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I105" s="20">
-        <v>95844000</v>
-      </c>
-      <c r="J105" s="21">
-        <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="L105" t="s">
-        <v>84</v>
-      </c>
-      <c r="M105" s="20">
-        <f>I105*1.11</f>
-        <v>106386840.00000001</v>
-      </c>
-      <c r="N105" s="20">
-        <f t="shared" ref="N105" si="39">I105*1.11</f>
-        <v>106386840.00000001</v>
-      </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>0</v>
-      </c>
-      <c r="S105">
-        <v>0</v>
-      </c>
-      <c r="T105" t="s">
-        <v>84</v>
-      </c>
-      <c r="U105" t="s">
-        <v>87</v>
-      </c>
-      <c r="V105" t="s">
-        <v>84</v>
-      </c>
-      <c r="W105" t="s">
-        <v>84</v>
-      </c>
-      <c r="X105" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="5"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-    </row>
-    <row r="107" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="33">
-        <v>8515</v>
-      </c>
-      <c r="C107">
-        <v>1047</v>
-      </c>
-      <c r="D107" t="s">
-        <v>84</v>
-      </c>
-      <c r="E107" t="s">
-        <v>85</v>
-      </c>
-      <c r="F107" t="s">
-        <v>86</v>
-      </c>
-      <c r="G107" t="s">
-        <v>84</v>
-      </c>
-      <c r="H107" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I107" s="20">
-        <v>63000000</v>
-      </c>
-      <c r="J107" s="21">
-        <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-      <c r="L107" t="s">
-        <v>84</v>
-      </c>
-      <c r="M107" s="20">
-        <f>I107*1.11</f>
-        <v>69930000</v>
-      </c>
-      <c r="N107" s="20">
-        <f t="shared" ref="N107" si="40">I107*1.11</f>
-        <v>69930000</v>
       </c>
       <c r="O107">
         <v>0</v>
@@ -8164,11 +8059,11 @@
       <c r="N108" s="4"/>
     </row>
     <row r="109" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B109">
-        <v>8520</v>
-      </c>
-      <c r="C109">
-        <v>1048</v>
+      <c r="B109" s="22">
+        <v>8511</v>
+      </c>
+      <c r="C109" s="22">
+        <v>1042</v>
       </c>
       <c r="D109" t="s">
         <v>84</v>
@@ -8186,11 +8081,11 @@
         <v>813445970452000</v>
       </c>
       <c r="I109" s="20">
-        <v>45722000</v>
+        <v>92084000</v>
       </c>
       <c r="J109" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
+        <v>44785.675982523149</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -8200,11 +8095,11 @@
       </c>
       <c r="M109" s="20">
         <f>I109*1.11</f>
-        <v>50751420.000000007</v>
+        <v>102213240.00000001</v>
       </c>
       <c r="N109" s="20">
-        <f t="shared" ref="N109" si="41">I109*1.11</f>
-        <v>50751420.000000007</v>
+        <f t="shared" ref="N109" si="38">I109*1.11</f>
+        <v>102213240.00000001</v>
       </c>
       <c r="O109">
         <v>0</v>
@@ -8241,88 +8136,18 @@
       </c>
     </row>
     <row r="110" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B110">
-        <v>8521</v>
-      </c>
-      <c r="C110">
-        <v>1048</v>
-      </c>
-      <c r="D110" t="s">
-        <v>84</v>
-      </c>
-      <c r="E110" t="s">
-        <v>85</v>
-      </c>
-      <c r="F110" t="s">
-        <v>86</v>
-      </c>
-      <c r="G110" t="s">
-        <v>84</v>
-      </c>
-      <c r="H110" s="4">
-        <v>813445970452000</v>
-      </c>
-      <c r="I110" s="20">
-        <v>43580000</v>
-      </c>
-      <c r="J110" s="21">
-        <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-      <c r="L110" t="s">
-        <v>84</v>
-      </c>
-      <c r="M110" s="20">
-        <f>I110*1.11</f>
-        <v>48373800.000000007</v>
-      </c>
-      <c r="N110" s="20">
-        <f t="shared" ref="N110" si="42">I110*1.11</f>
-        <v>48373800.000000007</v>
-      </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
-        <v>0</v>
-      </c>
-      <c r="S110">
-        <v>0</v>
-      </c>
-      <c r="T110" t="s">
-        <v>84</v>
-      </c>
-      <c r="U110" t="s">
-        <v>87</v>
-      </c>
-      <c r="V110" t="s">
-        <v>84</v>
-      </c>
-      <c r="W110" t="s">
-        <v>84</v>
-      </c>
-      <c r="X110" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y110">
-        <v>1</v>
-      </c>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="5"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
     </row>
     <row r="111" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111">
-        <v>8519</v>
+        <v>8514</v>
       </c>
       <c r="C111">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D111" t="s">
         <v>84</v>
@@ -8340,11 +8165,11 @@
         <v>813445970452000</v>
       </c>
       <c r="I111" s="20">
-        <v>84433000</v>
+        <v>95844000</v>
       </c>
       <c r="J111" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
+        <v>44785.675982523149</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -8354,11 +8179,11 @@
       </c>
       <c r="M111" s="20">
         <f>I111*1.11</f>
-        <v>93720630.000000015</v>
+        <v>106386840.00000001</v>
       </c>
       <c r="N111" s="20">
-        <f t="shared" ref="N111" si="43">I111*1.11</f>
-        <v>93720630.000000015</v>
+        <f t="shared" ref="N111" si="39">I111*1.11</f>
+        <v>106386840.00000001</v>
       </c>
       <c r="O111">
         <v>0</v>
@@ -8394,19 +8219,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="5"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B113" s="40">
-        <v>8522</v>
-      </c>
-      <c r="C113" s="39">
-        <v>1053</v>
+    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="33">
+        <v>8515</v>
+      </c>
+      <c r="C113">
+        <v>1047</v>
       </c>
       <c r="D113" t="s">
         <v>84</v>
@@ -8423,12 +8248,12 @@
       <c r="H113" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I113" s="37">
-        <v>72754000</v>
-      </c>
-      <c r="J113" s="38">
+      <c r="I113" s="20">
+        <v>63000000</v>
+      </c>
+      <c r="J113" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
+        <v>44785.675982523149</v>
       </c>
       <c r="K113">
         <v>1</v>
@@ -8436,13 +8261,13 @@
       <c r="L113" t="s">
         <v>84</v>
       </c>
-      <c r="M113" s="37">
+      <c r="M113" s="20">
         <f>I113*1.11</f>
-        <v>80756940</v>
-      </c>
-      <c r="N113" s="37">
-        <f t="shared" ref="N113:N114" si="44">I113*1.11</f>
-        <v>80756940</v>
+        <v>69930000</v>
+      </c>
+      <c r="N113" s="20">
+        <f t="shared" ref="N113" si="40">I113*1.11</f>
+        <v>69930000</v>
       </c>
       <c r="O113">
         <v>0</v>
@@ -8478,347 +8303,669 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B114" s="40">
+    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="5"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+    </row>
+    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>8520</v>
+      </c>
+      <c r="C115">
+        <v>1048</v>
+      </c>
+      <c r="D115" t="s">
+        <v>84</v>
+      </c>
+      <c r="E115" t="s">
+        <v>85</v>
+      </c>
+      <c r="F115" t="s">
+        <v>86</v>
+      </c>
+      <c r="G115" t="s">
+        <v>84</v>
+      </c>
+      <c r="H115" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I115" s="20">
+        <v>45722000</v>
+      </c>
+      <c r="J115" s="21">
+        <f t="shared" ca="1" si="34"/>
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115" t="s">
+        <v>84</v>
+      </c>
+      <c r="M115" s="20">
+        <f>I115*1.11</f>
+        <v>50751420.000000007</v>
+      </c>
+      <c r="N115" s="20">
+        <f t="shared" ref="N115" si="41">I115*1.11</f>
+        <v>50751420.000000007</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115" t="s">
+        <v>84</v>
+      </c>
+      <c r="U115" t="s">
+        <v>87</v>
+      </c>
+      <c r="V115" t="s">
+        <v>84</v>
+      </c>
+      <c r="W115" t="s">
+        <v>84</v>
+      </c>
+      <c r="X115" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>8521</v>
+      </c>
+      <c r="C116">
+        <v>1048</v>
+      </c>
+      <c r="D116" t="s">
+        <v>84</v>
+      </c>
+      <c r="E116" t="s">
+        <v>85</v>
+      </c>
+      <c r="F116" t="s">
+        <v>86</v>
+      </c>
+      <c r="G116" t="s">
+        <v>84</v>
+      </c>
+      <c r="H116" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I116" s="20">
+        <v>43580000</v>
+      </c>
+      <c r="J116" s="21">
+        <f t="shared" ca="1" si="34"/>
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116" t="s">
+        <v>84</v>
+      </c>
+      <c r="M116" s="20">
+        <f>I116*1.11</f>
+        <v>48373800.000000007</v>
+      </c>
+      <c r="N116" s="20">
+        <f t="shared" ref="N116" si="42">I116*1.11</f>
+        <v>48373800.000000007</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116" t="s">
+        <v>84</v>
+      </c>
+      <c r="U116" t="s">
+        <v>87</v>
+      </c>
+      <c r="V116" t="s">
+        <v>84</v>
+      </c>
+      <c r="W116" t="s">
+        <v>84</v>
+      </c>
+      <c r="X116" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>8519</v>
+      </c>
+      <c r="C117">
+        <v>1049</v>
+      </c>
+      <c r="D117" t="s">
+        <v>84</v>
+      </c>
+      <c r="E117" t="s">
+        <v>85</v>
+      </c>
+      <c r="F117" t="s">
+        <v>86</v>
+      </c>
+      <c r="G117" t="s">
+        <v>84</v>
+      </c>
+      <c r="H117" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I117" s="20">
+        <v>84433000</v>
+      </c>
+      <c r="J117" s="21">
+        <f t="shared" ca="1" si="34"/>
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117" t="s">
+        <v>84</v>
+      </c>
+      <c r="M117" s="20">
+        <f>I117*1.11</f>
+        <v>93720630.000000015</v>
+      </c>
+      <c r="N117" s="20">
+        <f t="shared" ref="N117" si="43">I117*1.11</f>
+        <v>93720630.000000015</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117" t="s">
+        <v>84</v>
+      </c>
+      <c r="U117" t="s">
+        <v>87</v>
+      </c>
+      <c r="V117" t="s">
+        <v>84</v>
+      </c>
+      <c r="W117" t="s">
+        <v>84</v>
+      </c>
+      <c r="X117" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="5"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B119" s="40">
+        <v>8522</v>
+      </c>
+      <c r="C119" s="39">
+        <v>1053</v>
+      </c>
+      <c r="D119" t="s">
+        <v>84</v>
+      </c>
+      <c r="E119" t="s">
+        <v>85</v>
+      </c>
+      <c r="F119" t="s">
+        <v>86</v>
+      </c>
+      <c r="G119" t="s">
+        <v>84</v>
+      </c>
+      <c r="H119" s="4">
+        <v>813445970452000</v>
+      </c>
+      <c r="I119" s="37">
+        <v>72754000</v>
+      </c>
+      <c r="J119" s="38">
+        <f t="shared" ca="1" si="34"/>
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119" t="s">
+        <v>84</v>
+      </c>
+      <c r="M119" s="37">
+        <f>I119*1.11</f>
+        <v>80756940</v>
+      </c>
+      <c r="N119" s="37">
+        <f t="shared" ref="N119:N120" si="44">I119*1.11</f>
+        <v>80756940</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119" t="s">
+        <v>84</v>
+      </c>
+      <c r="U119" t="s">
+        <v>87</v>
+      </c>
+      <c r="V119" t="s">
+        <v>84</v>
+      </c>
+      <c r="W119" t="s">
+        <v>84</v>
+      </c>
+      <c r="X119" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B120" s="40">
         <v>8523</v>
       </c>
-      <c r="C114" s="39">
+      <c r="C120" s="39">
         <v>1053</v>
       </c>
-      <c r="D114" t="s">
-        <v>84</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="D120" t="s">
+        <v>84</v>
+      </c>
+      <c r="E120" t="s">
         <v>85</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F120" t="s">
         <v>86</v>
       </c>
-      <c r="G114" t="s">
-        <v>84</v>
-      </c>
-      <c r="H114" s="4">
+      <c r="G120" t="s">
+        <v>84</v>
+      </c>
+      <c r="H120" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I114" s="37">
+      <c r="I120" s="37">
         <v>91433000</v>
       </c>
-      <c r="J114" s="38">
+      <c r="J120" s="38">
         <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-      <c r="L114" t="s">
-        <v>84</v>
-      </c>
-      <c r="M114" s="37">
-        <f>I114*1.11</f>
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120" t="s">
+        <v>84</v>
+      </c>
+      <c r="M120" s="37">
+        <f>I120*1.11</f>
         <v>101490630.00000001</v>
       </c>
-      <c r="N114" s="37">
+      <c r="N120" s="37">
         <f t="shared" si="44"/>
         <v>101490630.00000001</v>
       </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-      <c r="P114">
-        <v>0</v>
-      </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <v>0</v>
-      </c>
-      <c r="S114">
-        <v>0</v>
-      </c>
-      <c r="T114" t="s">
-        <v>84</v>
-      </c>
-      <c r="U114" t="s">
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120" t="s">
+        <v>84</v>
+      </c>
+      <c r="U120" t="s">
         <v>87</v>
       </c>
-      <c r="V114" t="s">
-        <v>84</v>
-      </c>
-      <c r="W114" t="s">
-        <v>84</v>
-      </c>
-      <c r="X114" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="5"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-    </row>
-    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="40">
+      <c r="V120" t="s">
+        <v>84</v>
+      </c>
+      <c r="W120" t="s">
+        <v>84</v>
+      </c>
+      <c r="X120" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="5"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+    </row>
+    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="40">
         <v>8527</v>
       </c>
-      <c r="C116" s="41">
+      <c r="C122" s="41">
         <v>1057</v>
       </c>
-      <c r="D116" t="s">
-        <v>84</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="D122" t="s">
+        <v>84</v>
+      </c>
+      <c r="E122" t="s">
         <v>85</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F122" t="s">
         <v>86</v>
       </c>
-      <c r="G116" t="s">
-        <v>84</v>
-      </c>
-      <c r="H116" s="4">
+      <c r="G122" t="s">
+        <v>84</v>
+      </c>
+      <c r="H122" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I116" s="37">
+      <c r="I122" s="37">
         <v>43580000</v>
       </c>
-      <c r="J116" s="38">
+      <c r="J122" s="38">
         <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K116">
-        <v>1</v>
-      </c>
-      <c r="L116" t="s">
-        <v>84</v>
-      </c>
-      <c r="M116" s="37">
-        <f>I116*1.11</f>
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122" t="s">
+        <v>84</v>
+      </c>
+      <c r="M122" s="37">
+        <f>I122*1.11</f>
         <v>48373800.000000007</v>
       </c>
-      <c r="N116" s="37">
-        <f t="shared" ref="N116" si="45">I116*1.11</f>
+      <c r="N122" s="37">
+        <f t="shared" ref="N122" si="45">I122*1.11</f>
         <v>48373800.000000007</v>
       </c>
-      <c r="O116">
-        <v>0</v>
-      </c>
-      <c r="P116">
-        <v>0</v>
-      </c>
-      <c r="Q116">
-        <v>0</v>
-      </c>
-      <c r="R116">
-        <v>0</v>
-      </c>
-      <c r="S116">
-        <v>0</v>
-      </c>
-      <c r="T116" t="s">
-        <v>84</v>
-      </c>
-      <c r="U116" t="s">
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122" t="s">
+        <v>84</v>
+      </c>
+      <c r="U122" t="s">
         <v>87</v>
       </c>
-      <c r="V116" t="s">
-        <v>84</v>
-      </c>
-      <c r="W116" t="s">
-        <v>84</v>
-      </c>
-      <c r="X116" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="5"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B118" s="40">
+      <c r="V122" t="s">
+        <v>84</v>
+      </c>
+      <c r="W122" t="s">
+        <v>84</v>
+      </c>
+      <c r="X122" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="5"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B124" s="40">
         <v>8531</v>
       </c>
-      <c r="C118" s="41">
+      <c r="C124" s="41">
         <v>1060</v>
       </c>
-      <c r="D118" t="s">
-        <v>84</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="D124" t="s">
+        <v>84</v>
+      </c>
+      <c r="E124" t="s">
         <v>85</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F124" t="s">
         <v>86</v>
       </c>
-      <c r="G118" t="s">
-        <v>84</v>
-      </c>
-      <c r="H118" s="4">
+      <c r="G124" t="s">
+        <v>84</v>
+      </c>
+      <c r="H124" s="4">
         <v>813445970452000</v>
       </c>
-      <c r="I118" s="37">
+      <c r="I124" s="37">
         <v>103590000</v>
       </c>
-      <c r="J118" s="38">
+      <c r="J124" s="38">
         <f t="shared" ca="1" si="34"/>
-        <v>44763.585548379633</v>
-      </c>
-      <c r="K118">
-        <v>1</v>
-      </c>
-      <c r="L118" t="s">
-        <v>84</v>
-      </c>
-      <c r="M118" s="37">
-        <f>I118*1.11</f>
+        <v>44785.675982523149</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124" t="s">
+        <v>84</v>
+      </c>
+      <c r="M124" s="37">
+        <f>I124*1.11</f>
         <v>114984900.00000001</v>
       </c>
-      <c r="N118" s="37">
-        <f t="shared" ref="N118" si="46">I118*1.11</f>
+      <c r="N124" s="37">
+        <f t="shared" ref="N124" si="46">I124*1.11</f>
         <v>114984900.00000001</v>
       </c>
-      <c r="O118">
-        <v>0</v>
-      </c>
-      <c r="P118">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>0</v>
-      </c>
-      <c r="S118">
-        <v>0</v>
-      </c>
-      <c r="T118" t="s">
-        <v>84</v>
-      </c>
-      <c r="U118" t="s">
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124" t="s">
+        <v>84</v>
+      </c>
+      <c r="U124" t="s">
         <v>87</v>
       </c>
-      <c r="V118" t="s">
-        <v>84</v>
-      </c>
-      <c r="W118" t="s">
-        <v>84</v>
-      </c>
-      <c r="X118" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="5"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="5"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>215</v>
-      </c>
+      <c r="V124" t="s">
+        <v>84</v>
+      </c>
+      <c r="W124" t="s">
+        <v>84</v>
+      </c>
+      <c r="X124" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="5"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="5"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>129</v>
-      </c>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
+      <c r="A133" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>139</v>
-      </c>
+      <c r="A139" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9414,21 +9561,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2F9CB5CC580EC46B5860198FEB9E710" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b91388b48bcd9a49e5c6bbe11f5107a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf9b6120-988b-41be-8da6-61dea16cb493" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f067a43816ef2ddba10c3d75903eac" ns2:_="">
     <xsd:import namespace="bf9b6120-988b-41be-8da6-61dea16cb493"/>
@@ -9606,24 +9738,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{960EB93A-7002-4718-9F32-8C3A4C7268F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9639,4 +9769,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
+++ b/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Primbon OLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BBFDA9-2AB4-4F5D-8C34-A5B2EDBBB5D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135E1847-48B7-4146-8068-3BFBC1846580}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2179,8 +2179,8 @@
   </sheetPr>
   <dimension ref="A1:AI147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3351,14 +3351,14 @@
       <c r="T21" s="18"/>
       <c r="U21" s="44">
         <f ca="1">NOW()</f>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="V21" s="18" t="s">
         <v>229</v>
       </c>
       <c r="W21" s="44">
         <f ca="1">NOW()</f>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
@@ -3381,7 +3381,7 @@
       <c r="AH21" s="18"/>
       <c r="AI21" s="44">
         <f ca="1">NOW()</f>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="J90" s="21">
         <f ca="1">NOW()</f>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K90" s="18">
         <v>1</v>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="J91" s="21">
         <f ca="1">NOW()</f>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K91" s="18">
         <v>1</v>
@@ -7128,7 +7128,7 @@
       </c>
       <c r="J92" s="21">
         <f ca="1">NOW()</f>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K92" s="18">
         <v>1</v>
@@ -7212,7 +7212,7 @@
       </c>
       <c r="J94" s="5">
         <f ca="1">NOW()</f>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="J95" s="5">
         <f t="shared" ref="J95:J124" ca="1" si="34">NOW()</f>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="J96" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="J97" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="J98" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="J99" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="J101" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="J102" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -7840,7 +7840,7 @@
       </c>
       <c r="J104" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -7924,7 +7924,7 @@
       </c>
       <c r="J106" s="32">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K106" s="30">
         <v>1</v>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="J107" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="J109" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="J111" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -8253,7 +8253,7 @@
       </c>
       <c r="J113" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K113">
         <v>1</v>
@@ -8337,7 +8337,7 @@
       </c>
       <c r="J115" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K115">
         <v>1</v>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="J116" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K116">
         <v>1</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="J117" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K117">
         <v>1</v>
@@ -8575,7 +8575,7 @@
       </c>
       <c r="J119" s="38">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K119">
         <v>1</v>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="J120" s="38">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K120">
         <v>1</v>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="J122" s="38">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K122">
         <v>1</v>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="J124" s="38">
         <f t="shared" ca="1" si="34"/>
-        <v>44785.675982523149</v>
+        <v>44804.527190624998</v>
       </c>
       <c r="K124">
         <v>1</v>
@@ -9739,18 +9739,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9772,18 +9772,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
+++ b/Primbon OLS/Primbon Operation OLSS_20220301.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\Primbon OLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135E1847-48B7-4146-8068-3BFBC1846580}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ABF500-A5CA-469F-BBC0-9771E284F7C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2179,8 +2179,8 @@
   </sheetPr>
   <dimension ref="A1:AI147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3351,14 +3351,14 @@
       <c r="T21" s="18"/>
       <c r="U21" s="44">
         <f ca="1">NOW()</f>
-        <v>44804.527190624998</v>
+        <v>44852.629636921294</v>
       </c>
       <c r="V21" s="18" t="s">
         <v>229</v>
       </c>
       <c r="W21" s="44">
         <f ca="1">NOW()</f>
-        <v>44804.527190624998</v>
+        <v>44852.629636921294</v>
       </c>
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
@@ -3381,7 +3381,7 @@
       <c r="AH21" s="18"/>
       <c r="AI21" s="44">
         <f ca="1">NOW()</f>
-        <v>44804.527190624998</v>
+        <v>44852.629636921294</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="15.75" x14ac:dyDescent="0.3">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="J90" s="21">
         <f ca="1">NOW()</f>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K90" s="18">
         <v>1</v>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="J91" s="21">
         <f ca="1">NOW()</f>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K91" s="18">
         <v>1</v>
@@ -7128,7 +7128,7 @@
       </c>
       <c r="J92" s="21">
         <f ca="1">NOW()</f>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K92" s="18">
         <v>1</v>
@@ -7212,7 +7212,7 @@
       </c>
       <c r="J94" s="5">
         <f ca="1">NOW()</f>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="J95" s="5">
         <f t="shared" ref="J95:J124" ca="1" si="34">NOW()</f>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="J96" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="J97" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="J98" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="J99" s="5">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="J101" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K101">
         <v>1</v>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="J102" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -7840,7 +7840,7 @@
       </c>
       <c r="J104" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -7924,7 +7924,7 @@
       </c>
       <c r="J106" s="32">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K106" s="30">
         <v>1</v>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="J107" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="J109" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="J111" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -8253,7 +8253,7 @@
       </c>
       <c r="J113" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K113">
         <v>1</v>
@@ -8337,7 +8337,7 @@
       </c>
       <c r="J115" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K115">
         <v>1</v>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="J116" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K116">
         <v>1</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="J117" s="21">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K117">
         <v>1</v>
@@ -8575,7 +8575,7 @@
       </c>
       <c r="J119" s="38">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K119">
         <v>1</v>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="J120" s="38">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K120">
         <v>1</v>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="J122" s="38">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.62963703704</v>
       </c>
       <c r="K122">
         <v>1</v>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="J124" s="38">
         <f t="shared" ca="1" si="34"/>
-        <v>44804.527190624998</v>
+        <v>44852.629636921294</v>
       </c>
       <c r="K124">
         <v>1</v>
@@ -9561,6 +9561,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2F9CB5CC580EC46B5860198FEB9E710" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b91388b48bcd9a49e5c6bbe11f5107a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf9b6120-988b-41be-8da6-61dea16cb493" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f067a43816ef2ddba10c3d75903eac" ns2:_="">
     <xsd:import namespace="bf9b6120-988b-41be-8da6-61dea16cb493"/>
@@ -9738,22 +9753,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{960EB93A-7002-4718-9F32-8C3A4C7268F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9769,21 +9786,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4360E5-5CCC-48D2-85C8-200651817287}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101149B-F6E6-461B-9298-D909A5D756E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>